--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Netherlands Eerste Divisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2138" uniqueCount="473">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -988,6 +988,12 @@
     <t>['30']</t>
   </si>
   <si>
+    <t>['63']</t>
+  </si>
+  <si>
+    <t>['3', '23', '26', '76', '90']</t>
+  </si>
+  <si>
     <t>['5', '18']</t>
   </si>
   <si>
@@ -1103,9 +1109,6 @@
   </si>
   <si>
     <t>['6', '11']</t>
-  </si>
-  <si>
-    <t>['63']</t>
   </si>
   <si>
     <t>['24', '33', '45']</t>
@@ -1424,6 +1427,12 @@
   </si>
   <si>
     <t>['29', '90+4']</t>
+  </si>
+  <si>
+    <t>['10', '19', '26', '55']</t>
+  </si>
+  <si>
+    <t>['13', '57', '74', '81']</t>
   </si>
 </sst>
 </file>
@@ -1785,7 +1794,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP341"/>
+  <dimension ref="A1:BP346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2122,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ2">
         <v>1.24</v>
@@ -2250,7 +2259,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -2328,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ3">
         <v>1.47</v>
@@ -2456,7 +2465,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -2534,10 +2543,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ4">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2740,10 +2749,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ5">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2868,7 +2877,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -3074,7 +3083,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -3155,7 +3164,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ7">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3280,7 +3289,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -3361,7 +3370,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ8">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3486,7 +3495,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3898,7 +3907,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -4310,7 +4319,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -4928,7 +4937,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -5212,10 +5221,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ17">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5752,7 +5761,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -6245,7 +6254,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ22">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR22">
         <v>1.14</v>
@@ -6448,7 +6457,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ23">
         <v>1.12</v>
@@ -6654,7 +6663,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ24">
         <v>0.53</v>
@@ -6782,7 +6791,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q25">
         <v>1.78</v>
@@ -6863,7 +6872,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ25">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR25">
         <v>1.58</v>
@@ -6988,7 +6997,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -7194,7 +7203,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q27">
         <v>2.39</v>
@@ -7272,7 +7281,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ27">
         <v>0.71</v>
@@ -7606,7 +7615,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -8018,7 +8027,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -8099,7 +8108,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ31">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR31">
         <v>2.38</v>
@@ -8511,7 +8520,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ33">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR33">
         <v>1.26</v>
@@ -8636,7 +8645,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q34">
         <v>2.5</v>
@@ -8714,7 +8723,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ34">
         <v>0.88</v>
@@ -8842,7 +8851,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q35">
         <v>3.6</v>
@@ -9126,10 +9135,10 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ36">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR36">
         <v>1.09</v>
@@ -9335,7 +9344,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ37">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR37">
         <v>1.18</v>
@@ -9460,7 +9469,7 @@
         <v>93</v>
       </c>
       <c r="P38" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -9666,7 +9675,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -10078,7 +10087,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q41">
         <v>2.41</v>
@@ -10902,7 +10911,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10983,7 +10992,7 @@
         <v>1</v>
       </c>
       <c r="AQ45">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR45">
         <v>1.68</v>
@@ -11108,7 +11117,7 @@
         <v>93</v>
       </c>
       <c r="P46" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q46">
         <v>2.6</v>
@@ -11520,7 +11529,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11598,7 +11607,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ48">
         <v>2</v>
@@ -11804,7 +11813,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ49">
         <v>1.47</v>
@@ -11932,7 +11941,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q50">
         <v>2.1</v>
@@ -12138,7 +12147,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -12219,7 +12228,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ51">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR51">
         <v>1.64</v>
@@ -12344,7 +12353,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q52">
         <v>2.77</v>
@@ -12422,7 +12431,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ52">
         <v>1</v>
@@ -12628,7 +12637,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ53">
         <v>1.59</v>
@@ -13043,7 +13052,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ55">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR55">
         <v>1.7</v>
@@ -13168,7 +13177,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q56">
         <v>2.3</v>
@@ -13246,7 +13255,7 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ56">
         <v>1</v>
@@ -13452,7 +13461,7 @@
         <v>0.5</v>
       </c>
       <c r="AP57">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ57">
         <v>0.53</v>
@@ -13580,7 +13589,7 @@
         <v>93</v>
       </c>
       <c r="P58" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -14198,7 +14207,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q61">
         <v>2.54</v>
@@ -14279,7 +14288,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ61">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR61">
         <v>1.96</v>
@@ -14404,7 +14413,7 @@
         <v>93</v>
       </c>
       <c r="P62" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -14610,7 +14619,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q63">
         <v>2.1</v>
@@ -14688,7 +14697,7 @@
         <v>0.33</v>
       </c>
       <c r="AP63">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ63">
         <v>2</v>
@@ -14894,7 +14903,7 @@
         <v>3</v>
       </c>
       <c r="AP64">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ64">
         <v>1.82</v>
@@ -15103,7 +15112,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ65">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR65">
         <v>1.41</v>
@@ -15228,7 +15237,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -15640,7 +15649,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q68">
         <v>2.3</v>
@@ -15846,7 +15855,7 @@
         <v>93</v>
       </c>
       <c r="P69" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q69">
         <v>2.88</v>
@@ -16052,7 +16061,7 @@
         <v>136</v>
       </c>
       <c r="P70" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -16258,7 +16267,7 @@
         <v>93</v>
       </c>
       <c r="P71" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q71">
         <v>3.75</v>
@@ -16339,7 +16348,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ71">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR71">
         <v>1.34</v>
@@ -16464,7 +16473,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -16545,7 +16554,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ72">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR72">
         <v>1.66</v>
@@ -16670,7 +16679,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q73">
         <v>2.3</v>
@@ -16748,7 +16757,7 @@
         <v>0.33</v>
       </c>
       <c r="AP73">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ73">
         <v>0.53</v>
@@ -16876,7 +16885,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q74">
         <v>1.83</v>
@@ -16957,7 +16966,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ74">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR74">
         <v>1.75</v>
@@ -17163,7 +17172,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ75">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR75">
         <v>1.48</v>
@@ -17366,7 +17375,7 @@
         <v>1.25</v>
       </c>
       <c r="AP76">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ76">
         <v>1</v>
@@ -17700,7 +17709,7 @@
         <v>141</v>
       </c>
       <c r="P78" t="s">
-        <v>363</v>
+        <v>324</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17906,7 +17915,7 @@
         <v>142</v>
       </c>
       <c r="P79" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q79">
         <v>2.5</v>
@@ -18318,7 +18327,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q81">
         <v>2.88</v>
@@ -18605,7 +18614,7 @@
         <v>1</v>
       </c>
       <c r="AQ82">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR82">
         <v>1.76</v>
@@ -18730,7 +18739,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q83">
         <v>2.7</v>
@@ -18936,7 +18945,7 @@
         <v>145</v>
       </c>
       <c r="P84" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q84">
         <v>4.1</v>
@@ -19429,7 +19438,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ86">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR86">
         <v>1.36</v>
@@ -19554,7 +19563,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q87">
         <v>2.5</v>
@@ -19838,7 +19847,7 @@
         <v>0.5</v>
       </c>
       <c r="AP88">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ88">
         <v>0.53</v>
@@ -20172,7 +20181,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q90">
         <v>3.04</v>
@@ -20250,7 +20259,7 @@
         <v>1.33</v>
       </c>
       <c r="AP90">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ90">
         <v>1.06</v>
@@ -20456,7 +20465,7 @@
         <v>2</v>
       </c>
       <c r="AP91">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ91">
         <v>0.71</v>
@@ -20584,7 +20593,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q92">
         <v>2.75</v>
@@ -20868,10 +20877,10 @@
         <v>1</v>
       </c>
       <c r="AP93">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ93">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR93">
         <v>1.74</v>
@@ -20996,7 +21005,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -21202,7 +21211,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -21408,7 +21417,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q96">
         <v>4</v>
@@ -21489,7 +21498,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ96">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR96">
         <v>1.22</v>
@@ -21614,7 +21623,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -21901,7 +21910,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ98">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR98">
         <v>1.49</v>
@@ -22026,7 +22035,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -22104,7 +22113,7 @@
         <v>2.25</v>
       </c>
       <c r="AP99">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ99">
         <v>1.82</v>
@@ -22310,7 +22319,7 @@
         <v>1.75</v>
       </c>
       <c r="AP100">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ100">
         <v>1</v>
@@ -22438,7 +22447,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q101">
         <v>1.91</v>
@@ -22644,7 +22653,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q102">
         <v>2.05</v>
@@ -23056,7 +23065,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q104">
         <v>3.75</v>
@@ -23546,7 +23555,7 @@
         <v>1</v>
       </c>
       <c r="AP106">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ106">
         <v>1</v>
@@ -23958,7 +23967,7 @@
         <v>0.5</v>
       </c>
       <c r="AP108">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ108">
         <v>0.53</v>
@@ -24167,7 +24176,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ109">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR109">
         <v>1.34</v>
@@ -24292,7 +24301,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -24498,7 +24507,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24704,7 +24713,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q112">
         <v>2.5</v>
@@ -24991,7 +25000,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ113">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR113">
         <v>2.08</v>
@@ -25322,7 +25331,7 @@
         <v>171</v>
       </c>
       <c r="P115" t="s">
-        <v>363</v>
+        <v>324</v>
       </c>
       <c r="Q115">
         <v>1.95</v>
@@ -25528,7 +25537,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q116">
         <v>3.2</v>
@@ -25609,7 +25618,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ116">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR116">
         <v>1.22</v>
@@ -25734,7 +25743,7 @@
         <v>130</v>
       </c>
       <c r="P117" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q117">
         <v>2.3</v>
@@ -25940,7 +25949,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -26227,7 +26236,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ119">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR119">
         <v>1.83</v>
@@ -26352,7 +26361,7 @@
         <v>93</v>
       </c>
       <c r="P120" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q120">
         <v>2.63</v>
@@ -26430,10 +26439,10 @@
         <v>1.5</v>
       </c>
       <c r="AP120">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ120">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR120">
         <v>1.79</v>
@@ -26558,7 +26567,7 @@
         <v>168</v>
       </c>
       <c r="P121" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q121">
         <v>3.1</v>
@@ -26636,7 +26645,7 @@
         <v>2.6</v>
       </c>
       <c r="AP121">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ121">
         <v>1.12</v>
@@ -26764,7 +26773,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -26845,7 +26854,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ122">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR122">
         <v>1.92</v>
@@ -27051,7 +27060,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ123">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR123">
         <v>1.47</v>
@@ -27382,7 +27391,7 @@
         <v>93</v>
       </c>
       <c r="P125" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q125">
         <v>4.37</v>
@@ -27460,7 +27469,7 @@
         <v>1.2</v>
       </c>
       <c r="AP125">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ125">
         <v>1.59</v>
@@ -27872,7 +27881,7 @@
         <v>0.86</v>
       </c>
       <c r="AP127">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ127">
         <v>1</v>
@@ -28000,7 +28009,7 @@
         <v>176</v>
       </c>
       <c r="P128" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -28284,7 +28293,7 @@
         <v>1.33</v>
       </c>
       <c r="AP129">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ129">
         <v>1.53</v>
@@ -28412,7 +28421,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28618,7 +28627,7 @@
         <v>178</v>
       </c>
       <c r="P131" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q131">
         <v>3.75</v>
@@ -28902,7 +28911,7 @@
         <v>1.5</v>
       </c>
       <c r="AP132">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ132">
         <v>1.06</v>
@@ -29111,7 +29120,7 @@
         <v>1</v>
       </c>
       <c r="AQ133">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR133">
         <v>1.73</v>
@@ -29648,7 +29657,7 @@
         <v>180</v>
       </c>
       <c r="P136" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q136">
         <v>2.25</v>
@@ -29726,7 +29735,7 @@
         <v>1.5</v>
       </c>
       <c r="AP136">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ136">
         <v>0.71</v>
@@ -30347,7 +30356,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ139">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR139">
         <v>1.86</v>
@@ -30553,7 +30562,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ140">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR140">
         <v>1.77</v>
@@ -30965,7 +30974,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ142">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR142">
         <v>1.74</v>
@@ -31168,7 +31177,7 @@
         <v>0.43</v>
       </c>
       <c r="AP143">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ143">
         <v>0.53</v>
@@ -31374,7 +31383,7 @@
         <v>1.43</v>
       </c>
       <c r="AP144">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ144">
         <v>1.47</v>
@@ -31502,7 +31511,7 @@
         <v>143</v>
       </c>
       <c r="P145" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -31708,7 +31717,7 @@
         <v>93</v>
       </c>
       <c r="P146" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q146">
         <v>4</v>
@@ -31914,7 +31923,7 @@
         <v>93</v>
       </c>
       <c r="P147" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q147">
         <v>3.6</v>
@@ -31995,7 +32004,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ147">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR147">
         <v>1.58</v>
@@ -32120,7 +32129,7 @@
         <v>189</v>
       </c>
       <c r="P148" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q148">
         <v>3.75</v>
@@ -32407,7 +32416,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ149">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR149">
         <v>1.58</v>
@@ -32532,7 +32541,7 @@
         <v>191</v>
       </c>
       <c r="P150" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q150">
         <v>1.91</v>
@@ -32610,7 +32619,7 @@
         <v>1.25</v>
       </c>
       <c r="AP150">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ150">
         <v>1.47</v>
@@ -32738,7 +32747,7 @@
         <v>93</v>
       </c>
       <c r="P151" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q151">
         <v>3.4</v>
@@ -32816,7 +32825,7 @@
         <v>1.57</v>
       </c>
       <c r="AP151">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ151">
         <v>1.53</v>
@@ -33150,7 +33159,7 @@
         <v>193</v>
       </c>
       <c r="P153" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q153">
         <v>4</v>
@@ -33356,7 +33365,7 @@
         <v>194</v>
       </c>
       <c r="P154" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q154">
         <v>2.75</v>
@@ -33437,7 +33446,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ154">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR154">
         <v>1.6</v>
@@ -33562,7 +33571,7 @@
         <v>195</v>
       </c>
       <c r="P155" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q155">
         <v>1.91</v>
@@ -33846,7 +33855,7 @@
         <v>1.43</v>
       </c>
       <c r="AP156">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ156">
         <v>1.06</v>
@@ -34258,7 +34267,7 @@
         <v>1.43</v>
       </c>
       <c r="AP158">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ158">
         <v>1.59</v>
@@ -34592,7 +34601,7 @@
         <v>144</v>
       </c>
       <c r="P160" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q160">
         <v>2.25</v>
@@ -35004,7 +35013,7 @@
         <v>200</v>
       </c>
       <c r="P162" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q162">
         <v>2.55</v>
@@ -35494,7 +35503,7 @@
         <v>1.5</v>
       </c>
       <c r="AP164">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ164">
         <v>0.88</v>
@@ -35828,7 +35837,7 @@
         <v>203</v>
       </c>
       <c r="P166" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q166">
         <v>3.1</v>
@@ -35909,7 +35918,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ166">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR166">
         <v>1.74</v>
@@ -36321,7 +36330,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ168">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR168">
         <v>1.16</v>
@@ -36527,7 +36536,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ169">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR169">
         <v>1.79</v>
@@ -36652,7 +36661,7 @@
         <v>206</v>
       </c>
       <c r="P170" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q170">
         <v>2.95</v>
@@ -36730,7 +36739,7 @@
         <v>1.25</v>
       </c>
       <c r="AP170">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ170">
         <v>1.47</v>
@@ -36858,7 +36867,7 @@
         <v>207</v>
       </c>
       <c r="P171" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q171">
         <v>2.5</v>
@@ -37270,7 +37279,7 @@
         <v>208</v>
       </c>
       <c r="P173" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q173">
         <v>2.6</v>
@@ -37348,7 +37357,7 @@
         <v>1</v>
       </c>
       <c r="AP173">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ173">
         <v>1</v>
@@ -37557,7 +37566,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ174">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR174">
         <v>2</v>
@@ -37763,7 +37772,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ175">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR175">
         <v>2.04</v>
@@ -37966,7 +37975,7 @@
         <v>1.63</v>
       </c>
       <c r="AP176">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ176">
         <v>1.24</v>
@@ -38094,7 +38103,7 @@
         <v>211</v>
       </c>
       <c r="P177" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q177">
         <v>2.75</v>
@@ -38378,7 +38387,7 @@
         <v>1.67</v>
       </c>
       <c r="AP178">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ178">
         <v>1.53</v>
@@ -38712,7 +38721,7 @@
         <v>93</v>
       </c>
       <c r="P180" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q180">
         <v>3.4</v>
@@ -38918,7 +38927,7 @@
         <v>214</v>
       </c>
       <c r="P181" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q181">
         <v>3.75</v>
@@ -39536,7 +39545,7 @@
         <v>216</v>
       </c>
       <c r="P184" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q184">
         <v>3.65</v>
@@ -39742,7 +39751,7 @@
         <v>217</v>
       </c>
       <c r="P185" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q185">
         <v>2.4</v>
@@ -39820,10 +39829,10 @@
         <v>0.88</v>
       </c>
       <c r="AP185">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ185">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR185">
         <v>1.43</v>
@@ -39948,7 +39957,7 @@
         <v>93</v>
       </c>
       <c r="P186" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q186">
         <v>2.75</v>
@@ -40029,7 +40038,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ186">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR186">
         <v>1.72</v>
@@ -40566,7 +40575,7 @@
         <v>219</v>
       </c>
       <c r="P189" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q189">
         <v>3</v>
@@ -40850,7 +40859,7 @@
         <v>1.33</v>
       </c>
       <c r="AP190">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ190">
         <v>0.88</v>
@@ -41059,7 +41068,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ191">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR191">
         <v>1.68</v>
@@ -41184,7 +41193,7 @@
         <v>221</v>
       </c>
       <c r="P192" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q192">
         <v>3.4</v>
@@ -41390,7 +41399,7 @@
         <v>222</v>
       </c>
       <c r="P193" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q193">
         <v>3</v>
@@ -41596,7 +41605,7 @@
         <v>93</v>
       </c>
       <c r="P194" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q194">
         <v>1.91</v>
@@ -41677,7 +41686,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ194">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR194">
         <v>1.8</v>
@@ -41802,7 +41811,7 @@
         <v>223</v>
       </c>
       <c r="P195" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q195">
         <v>2.25</v>
@@ -42008,7 +42017,7 @@
         <v>93</v>
       </c>
       <c r="P196" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q196">
         <v>2.3</v>
@@ -42086,7 +42095,7 @@
         <v>1.56</v>
       </c>
       <c r="AP196">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ196">
         <v>1.24</v>
@@ -42704,10 +42713,10 @@
         <v>1.2</v>
       </c>
       <c r="AP199">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ199">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR199">
         <v>1.72</v>
@@ -43038,7 +43047,7 @@
         <v>227</v>
       </c>
       <c r="P201" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q201">
         <v>3.5</v>
@@ -43656,7 +43665,7 @@
         <v>140</v>
       </c>
       <c r="P204" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q204">
         <v>3.75</v>
@@ -43734,7 +43743,7 @@
         <v>1.6</v>
       </c>
       <c r="AP204">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ204">
         <v>2</v>
@@ -44068,7 +44077,7 @@
         <v>156</v>
       </c>
       <c r="P206" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q206">
         <v>2.4</v>
@@ -44149,7 +44158,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ206">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR206">
         <v>1.66</v>
@@ -44274,7 +44283,7 @@
         <v>229</v>
       </c>
       <c r="P207" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q207">
         <v>2.75</v>
@@ -44561,7 +44570,7 @@
         <v>1</v>
       </c>
       <c r="AQ208">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR208">
         <v>1.58</v>
@@ -44686,7 +44695,7 @@
         <v>93</v>
       </c>
       <c r="P209" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q209">
         <v>4.2</v>
@@ -45098,7 +45107,7 @@
         <v>231</v>
       </c>
       <c r="P211" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q211">
         <v>2.2</v>
@@ -45179,7 +45188,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ211">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR211">
         <v>1.87</v>
@@ -45794,7 +45803,7 @@
         <v>1.7</v>
       </c>
       <c r="AP214">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ214">
         <v>1.24</v>
@@ -45922,7 +45931,7 @@
         <v>235</v>
       </c>
       <c r="P215" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q215">
         <v>2.15</v>
@@ -46000,7 +46009,7 @@
         <v>1.55</v>
       </c>
       <c r="AP215">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ215">
         <v>1.47</v>
@@ -46209,7 +46218,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ216">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR216">
         <v>1.9</v>
@@ -46540,7 +46549,7 @@
         <v>104</v>
       </c>
       <c r="P218" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q218">
         <v>4.5</v>
@@ -46746,7 +46755,7 @@
         <v>237</v>
       </c>
       <c r="P219" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q219">
         <v>3.6</v>
@@ -46824,10 +46833,10 @@
         <v>2.27</v>
       </c>
       <c r="AP219">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ219">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR219">
         <v>1.34</v>
@@ -46952,7 +46961,7 @@
         <v>93</v>
       </c>
       <c r="P220" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q220">
         <v>3.2</v>
@@ -47239,7 +47248,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ221">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR221">
         <v>1.93</v>
@@ -47854,7 +47863,7 @@
         <v>0.5</v>
       </c>
       <c r="AP224">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ224">
         <v>0.53</v>
@@ -48472,10 +48481,10 @@
         <v>1.27</v>
       </c>
       <c r="AP227">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ227">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR227">
         <v>1.46</v>
@@ -48678,10 +48687,10 @@
         <v>0.5</v>
       </c>
       <c r="AP228">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ228">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR228">
         <v>1.74</v>
@@ -48806,7 +48815,7 @@
         <v>246</v>
       </c>
       <c r="P229" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q229">
         <v>2.88</v>
@@ -48887,7 +48896,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ229">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR229">
         <v>1.56</v>
@@ -49093,7 +49102,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ230">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR230">
         <v>1.75</v>
@@ -49424,7 +49433,7 @@
         <v>249</v>
       </c>
       <c r="P232" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q232">
         <v>1.91</v>
@@ -49502,7 +49511,7 @@
         <v>1.08</v>
       </c>
       <c r="AP232">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ232">
         <v>0.88</v>
@@ -49914,7 +49923,7 @@
         <v>1.73</v>
       </c>
       <c r="AP234">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ234">
         <v>2</v>
@@ -50042,7 +50051,7 @@
         <v>241</v>
       </c>
       <c r="P235" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q235">
         <v>1.73</v>
@@ -50248,7 +50257,7 @@
         <v>252</v>
       </c>
       <c r="P236" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q236">
         <v>3.2</v>
@@ -50326,7 +50335,7 @@
         <v>1.33</v>
       </c>
       <c r="AP236">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ236">
         <v>1</v>
@@ -50660,7 +50669,7 @@
         <v>104</v>
       </c>
       <c r="P238" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q238">
         <v>2.88</v>
@@ -50947,7 +50956,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ239">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR239">
         <v>1.78</v>
@@ -51356,7 +51365,7 @@
         <v>0.45</v>
       </c>
       <c r="AP241">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ241">
         <v>0.53</v>
@@ -51484,7 +51493,7 @@
         <v>257</v>
       </c>
       <c r="P242" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q242">
         <v>2.2</v>
@@ -51565,7 +51574,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ242">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR242">
         <v>1.93</v>
@@ -51690,7 +51699,7 @@
         <v>258</v>
       </c>
       <c r="P243" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q243">
         <v>2.5</v>
@@ -51896,7 +51905,7 @@
         <v>93</v>
       </c>
       <c r="P244" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q244">
         <v>3.1</v>
@@ -51974,7 +51983,7 @@
         <v>1.58</v>
       </c>
       <c r="AP244">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ244">
         <v>1.47</v>
@@ -52389,7 +52398,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ246">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR246">
         <v>1.7</v>
@@ -52514,7 +52523,7 @@
         <v>260</v>
       </c>
       <c r="P247" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q247">
         <v>4.5</v>
@@ -52595,7 +52604,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ247">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR247">
         <v>1.53</v>
@@ -52926,7 +52935,7 @@
         <v>262</v>
       </c>
       <c r="P249" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q249">
         <v>4.5</v>
@@ -53622,10 +53631,10 @@
         <v>0.92</v>
       </c>
       <c r="AP252">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ252">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR252">
         <v>1.77</v>
@@ -53828,7 +53837,7 @@
         <v>1.54</v>
       </c>
       <c r="AP253">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ253">
         <v>1.47</v>
@@ -54162,7 +54171,7 @@
         <v>265</v>
       </c>
       <c r="P255" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q255">
         <v>3.25</v>
@@ -54240,7 +54249,7 @@
         <v>1.58</v>
       </c>
       <c r="AP255">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ255">
         <v>2</v>
@@ -54861,7 +54870,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ258">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR258">
         <v>1.81</v>
@@ -55064,7 +55073,7 @@
         <v>1</v>
       </c>
       <c r="AP259">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ259">
         <v>1</v>
@@ -55398,7 +55407,7 @@
         <v>269</v>
       </c>
       <c r="P261" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q261">
         <v>3.1</v>
@@ -55604,7 +55613,7 @@
         <v>93</v>
       </c>
       <c r="P262" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q262">
         <v>3.55</v>
@@ -55810,7 +55819,7 @@
         <v>270</v>
       </c>
       <c r="P263" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q263">
         <v>4</v>
@@ -56016,7 +56025,7 @@
         <v>235</v>
       </c>
       <c r="P264" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q264">
         <v>2.2</v>
@@ -56094,10 +56103,10 @@
         <v>0.42</v>
       </c>
       <c r="AP264">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ264">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR264">
         <v>1.35</v>
@@ -56222,7 +56231,7 @@
         <v>271</v>
       </c>
       <c r="P265" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q265">
         <v>3.35</v>
@@ -56300,7 +56309,7 @@
         <v>1.33</v>
       </c>
       <c r="AP265">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ265">
         <v>1.59</v>
@@ -56428,7 +56437,7 @@
         <v>272</v>
       </c>
       <c r="P266" t="s">
-        <v>363</v>
+        <v>324</v>
       </c>
       <c r="Q266">
         <v>4</v>
@@ -56509,7 +56518,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ266">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR266">
         <v>1.73</v>
@@ -56634,7 +56643,7 @@
         <v>112</v>
       </c>
       <c r="P267" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q267">
         <v>4</v>
@@ -56840,7 +56849,7 @@
         <v>273</v>
       </c>
       <c r="P268" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q268">
         <v>3.75</v>
@@ -56918,7 +56927,7 @@
         <v>1.83</v>
       </c>
       <c r="AP268">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ268">
         <v>1.82</v>
@@ -57127,7 +57136,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ269">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR269">
         <v>1.77</v>
@@ -57252,7 +57261,7 @@
         <v>142</v>
       </c>
       <c r="P270" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q270">
         <v>4.5</v>
@@ -57458,7 +57467,7 @@
         <v>187</v>
       </c>
       <c r="P271" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q271">
         <v>3.25</v>
@@ -57870,7 +57879,7 @@
         <v>276</v>
       </c>
       <c r="P273" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q273">
         <v>2.05</v>
@@ -58282,7 +58291,7 @@
         <v>277</v>
       </c>
       <c r="P275" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q275">
         <v>2.2</v>
@@ -58488,7 +58497,7 @@
         <v>278</v>
       </c>
       <c r="P276" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q276">
         <v>2.1</v>
@@ -58694,7 +58703,7 @@
         <v>93</v>
       </c>
       <c r="P277" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q277">
         <v>2.75</v>
@@ -58900,7 +58909,7 @@
         <v>156</v>
       </c>
       <c r="P278" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q278">
         <v>3.5</v>
@@ -58981,7 +58990,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ278">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR278">
         <v>1.75</v>
@@ -59106,7 +59115,7 @@
         <v>103</v>
       </c>
       <c r="P279" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q279">
         <v>3.1</v>
@@ -59518,7 +59527,7 @@
         <v>93</v>
       </c>
       <c r="P281" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q281">
         <v>4.53</v>
@@ -60011,7 +60020,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ283">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR283">
         <v>1.73</v>
@@ -60420,7 +60429,7 @@
         <v>1.46</v>
       </c>
       <c r="AP285">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ285">
         <v>1.59</v>
@@ -60548,7 +60557,7 @@
         <v>283</v>
       </c>
       <c r="P286" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q286">
         <v>2.57</v>
@@ -60626,7 +60635,7 @@
         <v>0.92</v>
       </c>
       <c r="AP286">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ286">
         <v>1</v>
@@ -60754,7 +60763,7 @@
         <v>93</v>
       </c>
       <c r="P287" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q287">
         <v>3.7</v>
@@ -60832,10 +60841,10 @@
         <v>2.07</v>
       </c>
       <c r="AP287">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ287">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR287">
         <v>1.76</v>
@@ -61244,7 +61253,7 @@
         <v>0.57</v>
       </c>
       <c r="AP289">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ289">
         <v>0.53</v>
@@ -61578,7 +61587,7 @@
         <v>286</v>
       </c>
       <c r="P291" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q291">
         <v>2.5</v>
@@ -61990,7 +61999,7 @@
         <v>93</v>
       </c>
       <c r="P293" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q293">
         <v>3.25</v>
@@ -62196,7 +62205,7 @@
         <v>288</v>
       </c>
       <c r="P294" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q294">
         <v>2.5</v>
@@ -62483,7 +62492,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ295">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR295">
         <v>1.86</v>
@@ -62608,7 +62617,7 @@
         <v>93</v>
       </c>
       <c r="P296" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q296">
         <v>2</v>
@@ -62689,7 +62698,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ296">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR296">
         <v>1.84</v>
@@ -62814,7 +62823,7 @@
         <v>93</v>
       </c>
       <c r="P297" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q297">
         <v>3.6</v>
@@ -63101,7 +63110,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ298">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR298">
         <v>1.65</v>
@@ -63226,7 +63235,7 @@
         <v>291</v>
       </c>
       <c r="P299" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Q299">
         <v>4</v>
@@ -63304,7 +63313,7 @@
         <v>1.33</v>
       </c>
       <c r="AP299">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ299">
         <v>1.53</v>
@@ -63510,10 +63519,10 @@
         <v>0.57</v>
       </c>
       <c r="AP300">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ300">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR300">
         <v>1.67</v>
@@ -63716,7 +63725,7 @@
         <v>0.93</v>
       </c>
       <c r="AP301">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ301">
         <v>0.88</v>
@@ -63922,10 +63931,10 @@
         <v>1.2</v>
       </c>
       <c r="AP302">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ302">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR302">
         <v>1.68</v>
@@ -64543,7 +64552,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ305">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR305">
         <v>1.84</v>
@@ -64668,7 +64677,7 @@
         <v>93</v>
       </c>
       <c r="P306" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Q306">
         <v>4.75</v>
@@ -64952,7 +64961,7 @@
         <v>0.8</v>
       </c>
       <c r="AP307">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ307">
         <v>0.71</v>
@@ -65286,7 +65295,7 @@
         <v>297</v>
       </c>
       <c r="P309" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q309">
         <v>3</v>
@@ -65698,7 +65707,7 @@
         <v>298</v>
       </c>
       <c r="P311" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Q311">
         <v>2.4</v>
@@ -65904,7 +65913,7 @@
         <v>299</v>
       </c>
       <c r="P312" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Q312">
         <v>2.88</v>
@@ -65982,7 +65991,7 @@
         <v>1.2</v>
       </c>
       <c r="AP312">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ312">
         <v>1.12</v>
@@ -66191,7 +66200,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ313">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR313">
         <v>1.93</v>
@@ -66316,7 +66325,7 @@
         <v>301</v>
       </c>
       <c r="P314" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Q314">
         <v>3.5</v>
@@ -66394,7 +66403,7 @@
         <v>1.87</v>
       </c>
       <c r="AP314">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ314">
         <v>1.82</v>
@@ -66522,7 +66531,7 @@
         <v>102</v>
       </c>
       <c r="P315" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Q315">
         <v>2.38</v>
@@ -66603,7 +66612,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ315">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR315">
         <v>1.96</v>
@@ -66728,7 +66737,7 @@
         <v>302</v>
       </c>
       <c r="P316" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q316">
         <v>2.2</v>
@@ -66934,7 +66943,7 @@
         <v>93</v>
       </c>
       <c r="P317" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Q317">
         <v>4</v>
@@ -67346,7 +67355,7 @@
         <v>303</v>
       </c>
       <c r="P319" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Q319">
         <v>3.4</v>
@@ -67633,7 +67642,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ320">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR320">
         <v>1.42</v>
@@ -67758,7 +67767,7 @@
         <v>304</v>
       </c>
       <c r="P321" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q321">
         <v>2.3</v>
@@ -67839,7 +67848,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ321">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR321">
         <v>1.67</v>
@@ -68045,7 +68054,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ322">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR322">
         <v>1.39</v>
@@ -68454,10 +68463,10 @@
         <v>2</v>
       </c>
       <c r="AP324">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ324">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR324">
         <v>1.7</v>
@@ -68788,7 +68797,7 @@
         <v>309</v>
       </c>
       <c r="P326" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Q326">
         <v>4.2</v>
@@ -68866,7 +68875,7 @@
         <v>1.44</v>
       </c>
       <c r="AP326">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ326">
         <v>1.53</v>
@@ -68994,7 +69003,7 @@
         <v>310</v>
       </c>
       <c r="P327" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Q327">
         <v>3.25</v>
@@ -69072,10 +69081,10 @@
         <v>1.13</v>
       </c>
       <c r="AP327">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ327">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR327">
         <v>1.58</v>
@@ -69200,7 +69209,7 @@
         <v>311</v>
       </c>
       <c r="P328" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q328">
         <v>2.75</v>
@@ -69278,7 +69287,7 @@
         <v>1.5</v>
       </c>
       <c r="AP328">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ328">
         <v>1.47</v>
@@ -69818,7 +69827,7 @@
         <v>314</v>
       </c>
       <c r="P331" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Q331">
         <v>2</v>
@@ -70308,7 +70317,7 @@
         <v>1.13</v>
       </c>
       <c r="AP333">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ333">
         <v>1.06</v>
@@ -71135,7 +71144,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ337">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR337">
         <v>1.8</v>
@@ -71466,7 +71475,7 @@
         <v>322</v>
       </c>
       <c r="P339" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Q339">
         <v>2.63</v>
@@ -71878,7 +71887,7 @@
         <v>93</v>
       </c>
       <c r="P341" t="s">
-        <v>363</v>
+        <v>324</v>
       </c>
       <c r="Q341">
         <v>3.75</v>
@@ -72035,6 +72044,1036 @@
       </c>
       <c r="BP341">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="342" spans="1:68">
+      <c r="A342" s="1">
+        <v>341</v>
+      </c>
+      <c r="B342">
+        <v>7465775</v>
+      </c>
+      <c r="C342" t="s">
+        <v>68</v>
+      </c>
+      <c r="D342" t="s">
+        <v>69</v>
+      </c>
+      <c r="E342" s="2">
+        <v>45765.625</v>
+      </c>
+      <c r="F342">
+        <v>35</v>
+      </c>
+      <c r="G342" t="s">
+        <v>85</v>
+      </c>
+      <c r="H342" t="s">
+        <v>80</v>
+      </c>
+      <c r="I342">
+        <v>0</v>
+      </c>
+      <c r="J342">
+        <v>0</v>
+      </c>
+      <c r="K342">
+        <v>0</v>
+      </c>
+      <c r="L342">
+        <v>0</v>
+      </c>
+      <c r="M342">
+        <v>0</v>
+      </c>
+      <c r="N342">
+        <v>0</v>
+      </c>
+      <c r="O342" t="s">
+        <v>93</v>
+      </c>
+      <c r="P342" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q342">
+        <v>2.75</v>
+      </c>
+      <c r="R342">
+        <v>2.25</v>
+      </c>
+      <c r="S342">
+        <v>3.6</v>
+      </c>
+      <c r="T342">
+        <v>1.33</v>
+      </c>
+      <c r="U342">
+        <v>3.25</v>
+      </c>
+      <c r="V342">
+        <v>2.63</v>
+      </c>
+      <c r="W342">
+        <v>1.44</v>
+      </c>
+      <c r="X342">
+        <v>6.5</v>
+      </c>
+      <c r="Y342">
+        <v>1.11</v>
+      </c>
+      <c r="Z342">
+        <v>2.16</v>
+      </c>
+      <c r="AA342">
+        <v>3.7</v>
+      </c>
+      <c r="AB342">
+        <v>3.1</v>
+      </c>
+      <c r="AC342">
+        <v>2.19</v>
+      </c>
+      <c r="AD342">
+        <v>1.69</v>
+      </c>
+      <c r="AE342">
+        <v>0</v>
+      </c>
+      <c r="AF342">
+        <v>0</v>
+      </c>
+      <c r="AG342">
+        <v>1.7</v>
+      </c>
+      <c r="AH342">
+        <v>2.06</v>
+      </c>
+      <c r="AI342">
+        <v>1.62</v>
+      </c>
+      <c r="AJ342">
+        <v>2.2</v>
+      </c>
+      <c r="AK342">
+        <v>0</v>
+      </c>
+      <c r="AL342">
+        <v>0</v>
+      </c>
+      <c r="AM342">
+        <v>0</v>
+      </c>
+      <c r="AN342">
+        <v>1.71</v>
+      </c>
+      <c r="AO342">
+        <v>1.18</v>
+      </c>
+      <c r="AP342">
+        <v>1.67</v>
+      </c>
+      <c r="AQ342">
+        <v>1.17</v>
+      </c>
+      <c r="AR342">
+        <v>1.78</v>
+      </c>
+      <c r="AS342">
+        <v>1.51</v>
+      </c>
+      <c r="AT342">
+        <v>3.29</v>
+      </c>
+      <c r="AU342">
+        <v>4</v>
+      </c>
+      <c r="AV342">
+        <v>3</v>
+      </c>
+      <c r="AW342">
+        <v>7</v>
+      </c>
+      <c r="AX342">
+        <v>11</v>
+      </c>
+      <c r="AY342">
+        <v>11</v>
+      </c>
+      <c r="AZ342">
+        <v>14</v>
+      </c>
+      <c r="BA342">
+        <v>11</v>
+      </c>
+      <c r="BB342">
+        <v>7</v>
+      </c>
+      <c r="BC342">
+        <v>18</v>
+      </c>
+      <c r="BD342">
+        <v>0</v>
+      </c>
+      <c r="BE342">
+        <v>0</v>
+      </c>
+      <c r="BF342">
+        <v>0</v>
+      </c>
+      <c r="BG342">
+        <v>0</v>
+      </c>
+      <c r="BH342">
+        <v>0</v>
+      </c>
+      <c r="BI342">
+        <v>0</v>
+      </c>
+      <c r="BJ342">
+        <v>0</v>
+      </c>
+      <c r="BK342">
+        <v>0</v>
+      </c>
+      <c r="BL342">
+        <v>0</v>
+      </c>
+      <c r="BM342">
+        <v>0</v>
+      </c>
+      <c r="BN342">
+        <v>0</v>
+      </c>
+      <c r="BO342">
+        <v>0</v>
+      </c>
+      <c r="BP342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:68">
+      <c r="A343" s="1">
+        <v>342</v>
+      </c>
+      <c r="B343">
+        <v>7465776</v>
+      </c>
+      <c r="C343" t="s">
+        <v>68</v>
+      </c>
+      <c r="D343" t="s">
+        <v>69</v>
+      </c>
+      <c r="E343" s="2">
+        <v>45765.625</v>
+      </c>
+      <c r="F343">
+        <v>35</v>
+      </c>
+      <c r="G343" t="s">
+        <v>70</v>
+      </c>
+      <c r="H343" t="s">
+        <v>81</v>
+      </c>
+      <c r="I343">
+        <v>0</v>
+      </c>
+      <c r="J343">
+        <v>3</v>
+      </c>
+      <c r="K343">
+        <v>3</v>
+      </c>
+      <c r="L343">
+        <v>0</v>
+      </c>
+      <c r="M343">
+        <v>4</v>
+      </c>
+      <c r="N343">
+        <v>4</v>
+      </c>
+      <c r="O343" t="s">
+        <v>93</v>
+      </c>
+      <c r="P343" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q343">
+        <v>3.75</v>
+      </c>
+      <c r="R343">
+        <v>2.2</v>
+      </c>
+      <c r="S343">
+        <v>2.88</v>
+      </c>
+      <c r="T343">
+        <v>1.4</v>
+      </c>
+      <c r="U343">
+        <v>2.75</v>
+      </c>
+      <c r="V343">
+        <v>2.75</v>
+      </c>
+      <c r="W343">
+        <v>1.4</v>
+      </c>
+      <c r="X343">
+        <v>8</v>
+      </c>
+      <c r="Y343">
+        <v>1.08</v>
+      </c>
+      <c r="Z343">
+        <v>3.34</v>
+      </c>
+      <c r="AA343">
+        <v>3.33</v>
+      </c>
+      <c r="AB343">
+        <v>2.19</v>
+      </c>
+      <c r="AC343">
+        <v>0</v>
+      </c>
+      <c r="AD343">
+        <v>0</v>
+      </c>
+      <c r="AE343">
+        <v>0</v>
+      </c>
+      <c r="AF343">
+        <v>0</v>
+      </c>
+      <c r="AG343">
+        <v>1.98</v>
+      </c>
+      <c r="AH343">
+        <v>1.84</v>
+      </c>
+      <c r="AI343">
+        <v>1.73</v>
+      </c>
+      <c r="AJ343">
+        <v>2</v>
+      </c>
+      <c r="AK343">
+        <v>0</v>
+      </c>
+      <c r="AL343">
+        <v>0</v>
+      </c>
+      <c r="AM343">
+        <v>0</v>
+      </c>
+      <c r="AN343">
+        <v>1.18</v>
+      </c>
+      <c r="AO343">
+        <v>1.12</v>
+      </c>
+      <c r="AP343">
+        <v>1.11</v>
+      </c>
+      <c r="AQ343">
+        <v>1.22</v>
+      </c>
+      <c r="AR343">
+        <v>1.42</v>
+      </c>
+      <c r="AS343">
+        <v>1.59</v>
+      </c>
+      <c r="AT343">
+        <v>3.01</v>
+      </c>
+      <c r="AU343">
+        <v>4</v>
+      </c>
+      <c r="AV343">
+        <v>9</v>
+      </c>
+      <c r="AW343">
+        <v>1</v>
+      </c>
+      <c r="AX343">
+        <v>10</v>
+      </c>
+      <c r="AY343">
+        <v>5</v>
+      </c>
+      <c r="AZ343">
+        <v>19</v>
+      </c>
+      <c r="BA343">
+        <v>3</v>
+      </c>
+      <c r="BB343">
+        <v>5</v>
+      </c>
+      <c r="BC343">
+        <v>8</v>
+      </c>
+      <c r="BD343">
+        <v>0</v>
+      </c>
+      <c r="BE343">
+        <v>0</v>
+      </c>
+      <c r="BF343">
+        <v>0</v>
+      </c>
+      <c r="BG343">
+        <v>0</v>
+      </c>
+      <c r="BH343">
+        <v>0</v>
+      </c>
+      <c r="BI343">
+        <v>0</v>
+      </c>
+      <c r="BJ343">
+        <v>0</v>
+      </c>
+      <c r="BK343">
+        <v>0</v>
+      </c>
+      <c r="BL343">
+        <v>0</v>
+      </c>
+      <c r="BM343">
+        <v>0</v>
+      </c>
+      <c r="BN343">
+        <v>0</v>
+      </c>
+      <c r="BO343">
+        <v>0</v>
+      </c>
+      <c r="BP343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:68">
+      <c r="A344" s="1">
+        <v>343</v>
+      </c>
+      <c r="B344">
+        <v>7465778</v>
+      </c>
+      <c r="C344" t="s">
+        <v>68</v>
+      </c>
+      <c r="D344" t="s">
+        <v>69</v>
+      </c>
+      <c r="E344" s="2">
+        <v>45765.625</v>
+      </c>
+      <c r="F344">
+        <v>35</v>
+      </c>
+      <c r="G344" t="s">
+        <v>71</v>
+      </c>
+      <c r="H344" t="s">
+        <v>78</v>
+      </c>
+      <c r="I344">
+        <v>0</v>
+      </c>
+      <c r="J344">
+        <v>1</v>
+      </c>
+      <c r="K344">
+        <v>1</v>
+      </c>
+      <c r="L344">
+        <v>1</v>
+      </c>
+      <c r="M344">
+        <v>4</v>
+      </c>
+      <c r="N344">
+        <v>5</v>
+      </c>
+      <c r="O344" t="s">
+        <v>324</v>
+      </c>
+      <c r="P344" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q344">
+        <v>2.25</v>
+      </c>
+      <c r="R344">
+        <v>2.4</v>
+      </c>
+      <c r="S344">
+        <v>4.5</v>
+      </c>
+      <c r="T344">
+        <v>1.29</v>
+      </c>
+      <c r="U344">
+        <v>3.5</v>
+      </c>
+      <c r="V344">
+        <v>2.25</v>
+      </c>
+      <c r="W344">
+        <v>1.57</v>
+      </c>
+      <c r="X344">
+        <v>5.5</v>
+      </c>
+      <c r="Y344">
+        <v>1.14</v>
+      </c>
+      <c r="Z344">
+        <v>1.7</v>
+      </c>
+      <c r="AA344">
+        <v>3.7</v>
+      </c>
+      <c r="AB344">
+        <v>4.5</v>
+      </c>
+      <c r="AC344">
+        <v>0</v>
+      </c>
+      <c r="AD344">
+        <v>0</v>
+      </c>
+      <c r="AE344">
+        <v>0</v>
+      </c>
+      <c r="AF344">
+        <v>0</v>
+      </c>
+      <c r="AG344">
+        <v>1.57</v>
+      </c>
+      <c r="AH344">
+        <v>2.35</v>
+      </c>
+      <c r="AI344">
+        <v>1.57</v>
+      </c>
+      <c r="AJ344">
+        <v>2.25</v>
+      </c>
+      <c r="AK344">
+        <v>0</v>
+      </c>
+      <c r="AL344">
+        <v>0</v>
+      </c>
+      <c r="AM344">
+        <v>0</v>
+      </c>
+      <c r="AN344">
+        <v>1.29</v>
+      </c>
+      <c r="AO344">
+        <v>1.29</v>
+      </c>
+      <c r="AP344">
+        <v>1.22</v>
+      </c>
+      <c r="AQ344">
+        <v>1.39</v>
+      </c>
+      <c r="AR344">
+        <v>1.68</v>
+      </c>
+      <c r="AS344">
+        <v>1.41</v>
+      </c>
+      <c r="AT344">
+        <v>3.09</v>
+      </c>
+      <c r="AU344">
+        <v>5</v>
+      </c>
+      <c r="AV344">
+        <v>6</v>
+      </c>
+      <c r="AW344">
+        <v>10</v>
+      </c>
+      <c r="AX344">
+        <v>9</v>
+      </c>
+      <c r="AY344">
+        <v>15</v>
+      </c>
+      <c r="AZ344">
+        <v>15</v>
+      </c>
+      <c r="BA344">
+        <v>10</v>
+      </c>
+      <c r="BB344">
+        <v>4</v>
+      </c>
+      <c r="BC344">
+        <v>14</v>
+      </c>
+      <c r="BD344">
+        <v>0</v>
+      </c>
+      <c r="BE344">
+        <v>0</v>
+      </c>
+      <c r="BF344">
+        <v>0</v>
+      </c>
+      <c r="BG344">
+        <v>0</v>
+      </c>
+      <c r="BH344">
+        <v>0</v>
+      </c>
+      <c r="BI344">
+        <v>0</v>
+      </c>
+      <c r="BJ344">
+        <v>0</v>
+      </c>
+      <c r="BK344">
+        <v>0</v>
+      </c>
+      <c r="BL344">
+        <v>0</v>
+      </c>
+      <c r="BM344">
+        <v>0</v>
+      </c>
+      <c r="BN344">
+        <v>0</v>
+      </c>
+      <c r="BO344">
+        <v>0</v>
+      </c>
+      <c r="BP344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:68">
+      <c r="A345" s="1">
+        <v>344</v>
+      </c>
+      <c r="B345">
+        <v>7465779</v>
+      </c>
+      <c r="C345" t="s">
+        <v>68</v>
+      </c>
+      <c r="D345" t="s">
+        <v>69</v>
+      </c>
+      <c r="E345" s="2">
+        <v>45765.625</v>
+      </c>
+      <c r="F345">
+        <v>35</v>
+      </c>
+      <c r="G345" t="s">
+        <v>72</v>
+      </c>
+      <c r="H345" t="s">
+        <v>87</v>
+      </c>
+      <c r="I345">
+        <v>1</v>
+      </c>
+      <c r="J345">
+        <v>1</v>
+      </c>
+      <c r="K345">
+        <v>2</v>
+      </c>
+      <c r="L345">
+        <v>1</v>
+      </c>
+      <c r="M345">
+        <v>1</v>
+      </c>
+      <c r="N345">
+        <v>2</v>
+      </c>
+      <c r="O345" t="s">
+        <v>216</v>
+      </c>
+      <c r="P345" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q345">
+        <v>4</v>
+      </c>
+      <c r="R345">
+        <v>2.38</v>
+      </c>
+      <c r="S345">
+        <v>2.4</v>
+      </c>
+      <c r="T345">
+        <v>1.3</v>
+      </c>
+      <c r="U345">
+        <v>3.4</v>
+      </c>
+      <c r="V345">
+        <v>2.5</v>
+      </c>
+      <c r="W345">
+        <v>1.5</v>
+      </c>
+      <c r="X345">
+        <v>6</v>
+      </c>
+      <c r="Y345">
+        <v>1.13</v>
+      </c>
+      <c r="Z345">
+        <v>3.65</v>
+      </c>
+      <c r="AA345">
+        <v>3.72</v>
+      </c>
+      <c r="AB345">
+        <v>1.94</v>
+      </c>
+      <c r="AC345">
+        <v>0</v>
+      </c>
+      <c r="AD345">
+        <v>0</v>
+      </c>
+      <c r="AE345">
+        <v>0</v>
+      </c>
+      <c r="AF345">
+        <v>0</v>
+      </c>
+      <c r="AG345">
+        <v>1.57</v>
+      </c>
+      <c r="AH345">
+        <v>2.28</v>
+      </c>
+      <c r="AI345">
+        <v>1.57</v>
+      </c>
+      <c r="AJ345">
+        <v>2.25</v>
+      </c>
+      <c r="AK345">
+        <v>0</v>
+      </c>
+      <c r="AL345">
+        <v>0</v>
+      </c>
+      <c r="AM345">
+        <v>0</v>
+      </c>
+      <c r="AN345">
+        <v>1.53</v>
+      </c>
+      <c r="AO345">
+        <v>1.88</v>
+      </c>
+      <c r="AP345">
+        <v>1.5</v>
+      </c>
+      <c r="AQ345">
+        <v>1.83</v>
+      </c>
+      <c r="AR345">
+        <v>1.53</v>
+      </c>
+      <c r="AS345">
+        <v>1.86</v>
+      </c>
+      <c r="AT345">
+        <v>3.39</v>
+      </c>
+      <c r="AU345">
+        <v>9</v>
+      </c>
+      <c r="AV345">
+        <v>3</v>
+      </c>
+      <c r="AW345">
+        <v>5</v>
+      </c>
+      <c r="AX345">
+        <v>14</v>
+      </c>
+      <c r="AY345">
+        <v>14</v>
+      </c>
+      <c r="AZ345">
+        <v>17</v>
+      </c>
+      <c r="BA345">
+        <v>5</v>
+      </c>
+      <c r="BB345">
+        <v>6</v>
+      </c>
+      <c r="BC345">
+        <v>11</v>
+      </c>
+      <c r="BD345">
+        <v>0</v>
+      </c>
+      <c r="BE345">
+        <v>0</v>
+      </c>
+      <c r="BF345">
+        <v>0</v>
+      </c>
+      <c r="BG345">
+        <v>0</v>
+      </c>
+      <c r="BH345">
+        <v>0</v>
+      </c>
+      <c r="BI345">
+        <v>0</v>
+      </c>
+      <c r="BJ345">
+        <v>0</v>
+      </c>
+      <c r="BK345">
+        <v>0</v>
+      </c>
+      <c r="BL345">
+        <v>0</v>
+      </c>
+      <c r="BM345">
+        <v>0</v>
+      </c>
+      <c r="BN345">
+        <v>0</v>
+      </c>
+      <c r="BO345">
+        <v>0</v>
+      </c>
+      <c r="BP345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:68">
+      <c r="A346" s="1">
+        <v>345</v>
+      </c>
+      <c r="B346">
+        <v>7465780</v>
+      </c>
+      <c r="C346" t="s">
+        <v>68</v>
+      </c>
+      <c r="D346" t="s">
+        <v>69</v>
+      </c>
+      <c r="E346" s="2">
+        <v>45765.625</v>
+      </c>
+      <c r="F346">
+        <v>35</v>
+      </c>
+      <c r="G346" t="s">
+        <v>73</v>
+      </c>
+      <c r="H346" t="s">
+        <v>84</v>
+      </c>
+      <c r="I346">
+        <v>3</v>
+      </c>
+      <c r="J346">
+        <v>0</v>
+      </c>
+      <c r="K346">
+        <v>3</v>
+      </c>
+      <c r="L346">
+        <v>5</v>
+      </c>
+      <c r="M346">
+        <v>0</v>
+      </c>
+      <c r="N346">
+        <v>5</v>
+      </c>
+      <c r="O346" t="s">
+        <v>325</v>
+      </c>
+      <c r="P346" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q346">
+        <v>2.1</v>
+      </c>
+      <c r="R346">
+        <v>2.5</v>
+      </c>
+      <c r="S346">
+        <v>5</v>
+      </c>
+      <c r="T346">
+        <v>1.25</v>
+      </c>
+      <c r="U346">
+        <v>3.75</v>
+      </c>
+      <c r="V346">
+        <v>2.25</v>
+      </c>
+      <c r="W346">
+        <v>1.57</v>
+      </c>
+      <c r="X346">
+        <v>5.5</v>
+      </c>
+      <c r="Y346">
+        <v>1.14</v>
+      </c>
+      <c r="Z346">
+        <v>1.53</v>
+      </c>
+      <c r="AA346">
+        <v>3.75</v>
+      </c>
+      <c r="AB346">
+        <v>6</v>
+      </c>
+      <c r="AC346">
+        <v>0</v>
+      </c>
+      <c r="AD346">
+        <v>0</v>
+      </c>
+      <c r="AE346">
+        <v>0</v>
+      </c>
+      <c r="AF346">
+        <v>0</v>
+      </c>
+      <c r="AG346">
+        <v>1.53</v>
+      </c>
+      <c r="AH346">
+        <v>2.4</v>
+      </c>
+      <c r="AI346">
+        <v>1.57</v>
+      </c>
+      <c r="AJ346">
+        <v>2.25</v>
+      </c>
+      <c r="AK346">
+        <v>0</v>
+      </c>
+      <c r="AL346">
+        <v>0</v>
+      </c>
+      <c r="AM346">
+        <v>0</v>
+      </c>
+      <c r="AN346">
+        <v>1.47</v>
+      </c>
+      <c r="AO346">
+        <v>0.47</v>
+      </c>
+      <c r="AP346">
+        <v>1.56</v>
+      </c>
+      <c r="AQ346">
+        <v>0.44</v>
+      </c>
+      <c r="AR346">
+        <v>1.59</v>
+      </c>
+      <c r="AS346">
+        <v>1.16</v>
+      </c>
+      <c r="AT346">
+        <v>2.75</v>
+      </c>
+      <c r="AU346">
+        <v>12</v>
+      </c>
+      <c r="AV346">
+        <v>3</v>
+      </c>
+      <c r="AW346">
+        <v>11</v>
+      </c>
+      <c r="AX346">
+        <v>10</v>
+      </c>
+      <c r="AY346">
+        <v>23</v>
+      </c>
+      <c r="AZ346">
+        <v>13</v>
+      </c>
+      <c r="BA346">
+        <v>8</v>
+      </c>
+      <c r="BB346">
+        <v>2</v>
+      </c>
+      <c r="BC346">
+        <v>10</v>
+      </c>
+      <c r="BD346">
+        <v>0</v>
+      </c>
+      <c r="BE346">
+        <v>0</v>
+      </c>
+      <c r="BF346">
+        <v>0</v>
+      </c>
+      <c r="BG346">
+        <v>0</v>
+      </c>
+      <c r="BH346">
+        <v>0</v>
+      </c>
+      <c r="BI346">
+        <v>0</v>
+      </c>
+      <c r="BJ346">
+        <v>0</v>
+      </c>
+      <c r="BK346">
+        <v>0</v>
+      </c>
+      <c r="BL346">
+        <v>0</v>
+      </c>
+      <c r="BM346">
+        <v>0</v>
+      </c>
+      <c r="BN346">
+        <v>0</v>
+      </c>
+      <c r="BO346">
+        <v>0</v>
+      </c>
+      <c r="BP346">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Netherlands Eerste Divisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2138" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2168" uniqueCount="479">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -994,6 +994,18 @@
     <t>['3', '23', '26', '76', '90']</t>
   </si>
   <si>
+    <t>['30', '50', '77']</t>
+  </si>
+  <si>
+    <t>['14', '24']</t>
+  </si>
+  <si>
+    <t>['2', '5']</t>
+  </si>
+  <si>
+    <t>['15', '32', '79']</t>
+  </si>
+  <si>
     <t>['5', '18']</t>
   </si>
   <si>
@@ -1434,6 +1446,12 @@
   <si>
     <t>['13', '57', '74', '81']</t>
   </si>
+  <si>
+    <t>['56', '61']</t>
+  </si>
+  <si>
+    <t>['16', '23', '60', '72']</t>
+  </si>
 </sst>
 </file>
 
@@ -1794,7 +1812,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP346"/>
+  <dimension ref="A1:BP351"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2259,7 +2277,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -2340,7 +2358,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ3">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2465,7 +2483,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -2877,7 +2895,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2955,10 +2973,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ6">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -3083,7 +3101,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -3161,7 +3179,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ7">
         <v>1.22</v>
@@ -3289,7 +3307,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -3367,7 +3385,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ8">
         <v>1.17</v>
@@ -3495,7 +3513,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3573,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ9">
         <v>2</v>
@@ -3782,7 +3800,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ10">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3907,7 +3925,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3988,7 +4006,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ11">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -4319,7 +4337,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -4937,7 +4955,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -5018,7 +5036,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ16">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -5761,7 +5779,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5839,7 +5857,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.47</v>
+        <v>2.33</v>
       </c>
       <c r="AQ20">
         <v>1.82</v>
@@ -6251,7 +6269,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ22">
         <v>1.83</v>
@@ -6791,7 +6809,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q25">
         <v>1.78</v>
@@ -6869,7 +6887,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ25">
         <v>0.44</v>
@@ -6997,7 +7015,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -7075,7 +7093,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ26">
         <v>2</v>
@@ -7203,7 +7221,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Q27">
         <v>2.39</v>
@@ -7284,7 +7302,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ27">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR27">
         <v>1.64</v>
@@ -7487,10 +7505,10 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ28">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR28">
         <v>1.82</v>
@@ -7615,7 +7633,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7696,7 +7714,7 @@
         <v>1</v>
       </c>
       <c r="AQ29">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR29">
         <v>2.13</v>
@@ -7902,7 +7920,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ30">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR30">
         <v>2.2</v>
@@ -8027,7 +8045,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -8311,7 +8329,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ32">
         <v>1.47</v>
@@ -8645,7 +8663,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q34">
         <v>2.5</v>
@@ -8726,7 +8744,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ34">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR34">
         <v>1.12</v>
@@ -8851,7 +8869,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q35">
         <v>3.6</v>
@@ -9469,7 +9487,7 @@
         <v>93</v>
       </c>
       <c r="P38" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -9547,10 +9565,10 @@
         <v>0.5</v>
       </c>
       <c r="AP38">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ38">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR38">
         <v>1.6</v>
@@ -9675,7 +9693,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9959,7 +9977,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>2.47</v>
+        <v>2.33</v>
       </c>
       <c r="AQ40">
         <v>0.53</v>
@@ -10087,7 +10105,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q41">
         <v>2.41</v>
@@ -10371,7 +10389,7 @@
         <v>2</v>
       </c>
       <c r="AP42">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ42">
         <v>1.47</v>
@@ -10786,7 +10804,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ44">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR44">
         <v>2.05</v>
@@ -10911,7 +10929,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -11117,7 +11135,7 @@
         <v>93</v>
       </c>
       <c r="P46" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Q46">
         <v>2.6</v>
@@ -11195,10 +11213,10 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ46">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR46">
         <v>1.3</v>
@@ -11529,7 +11547,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11816,7 +11834,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ49">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR49">
         <v>1.39</v>
@@ -11941,7 +11959,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Q50">
         <v>2.1</v>
@@ -12019,7 +12037,7 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ50">
         <v>1.12</v>
@@ -12147,7 +12165,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -12353,7 +12371,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="Q52">
         <v>2.77</v>
@@ -12434,7 +12452,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ52">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR52">
         <v>1.79</v>
@@ -12846,7 +12864,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ54">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR54">
         <v>1.99</v>
@@ -13177,7 +13195,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="Q56">
         <v>2.3</v>
@@ -13589,7 +13607,7 @@
         <v>93</v>
       </c>
       <c r="P58" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -14079,10 +14097,10 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>2.47</v>
+        <v>2.33</v>
       </c>
       <c r="AQ60">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR60">
         <v>1.64</v>
@@ -14207,7 +14225,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Q61">
         <v>2.54</v>
@@ -14413,7 +14431,7 @@
         <v>93</v>
       </c>
       <c r="P62" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -14494,7 +14512,7 @@
         <v>1</v>
       </c>
       <c r="AQ62">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR62">
         <v>1.68</v>
@@ -14619,7 +14637,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="Q63">
         <v>2.1</v>
@@ -15109,7 +15127,7 @@
         <v>2</v>
       </c>
       <c r="AP65">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ65">
         <v>1.22</v>
@@ -15237,7 +15255,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -15318,7 +15336,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ66">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR66">
         <v>1.48</v>
@@ -15649,7 +15667,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="Q68">
         <v>2.3</v>
@@ -15727,10 +15745,10 @@
         <v>2.33</v>
       </c>
       <c r="AP68">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ68">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR68">
         <v>1.33</v>
@@ -15855,7 +15873,7 @@
         <v>93</v>
       </c>
       <c r="P69" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="Q69">
         <v>2.88</v>
@@ -15933,7 +15951,7 @@
         <v>1.33</v>
       </c>
       <c r="AP69">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ69">
         <v>1.47</v>
@@ -16061,7 +16079,7 @@
         <v>136</v>
       </c>
       <c r="P70" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -16267,7 +16285,7 @@
         <v>93</v>
       </c>
       <c r="P71" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="Q71">
         <v>3.75</v>
@@ -16473,7 +16491,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -16551,7 +16569,7 @@
         <v>0.33</v>
       </c>
       <c r="AP72">
-        <v>2.47</v>
+        <v>2.33</v>
       </c>
       <c r="AQ72">
         <v>1.17</v>
@@ -16679,7 +16697,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="Q73">
         <v>2.3</v>
@@ -16885,7 +16903,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="Q74">
         <v>1.83</v>
@@ -17169,7 +17187,7 @@
         <v>0.67</v>
       </c>
       <c r="AP75">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ75">
         <v>0.44</v>
@@ -17378,7 +17396,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ76">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR76">
         <v>1.42</v>
@@ -17787,7 +17805,7 @@
         <v>2.33</v>
       </c>
       <c r="AP78">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ78">
         <v>1</v>
@@ -17915,7 +17933,7 @@
         <v>142</v>
       </c>
       <c r="P79" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="Q79">
         <v>2.5</v>
@@ -18202,7 +18220,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ80">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR80">
         <v>1.68</v>
@@ -18327,7 +18345,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="Q81">
         <v>2.88</v>
@@ -18739,7 +18757,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="Q83">
         <v>2.7</v>
@@ -18817,7 +18835,7 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ83">
         <v>2</v>
@@ -18945,7 +18963,7 @@
         <v>145</v>
       </c>
       <c r="P84" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="Q84">
         <v>4.1</v>
@@ -19023,7 +19041,7 @@
         <v>0.67</v>
       </c>
       <c r="AP84">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ84">
         <v>1.59</v>
@@ -19232,7 +19250,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ85">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR85">
         <v>1.66</v>
@@ -19563,7 +19581,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="Q87">
         <v>2.5</v>
@@ -20056,7 +20074,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ89">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR89">
         <v>1.66</v>
@@ -20181,7 +20199,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="Q90">
         <v>3.04</v>
@@ -20468,7 +20486,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ91">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR91">
         <v>1.69</v>
@@ -20593,7 +20611,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="Q92">
         <v>2.75</v>
@@ -21005,7 +21023,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -21211,7 +21229,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -21292,7 +21310,7 @@
         <v>1</v>
       </c>
       <c r="AQ95">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR95">
         <v>1.66</v>
@@ -21417,7 +21435,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="Q96">
         <v>4</v>
@@ -21495,7 +21513,7 @@
         <v>1.6</v>
       </c>
       <c r="AP96">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ96">
         <v>1.22</v>
@@ -21623,7 +21641,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -22035,7 +22053,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -22447,7 +22465,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="Q101">
         <v>1.91</v>
@@ -22653,7 +22671,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="Q102">
         <v>2.05</v>
@@ -22731,10 +22749,10 @@
         <v>1.8</v>
       </c>
       <c r="AP102">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ102">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR102">
         <v>1.75</v>
@@ -22937,10 +22955,10 @@
         <v>1.2</v>
       </c>
       <c r="AP103">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ103">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR103">
         <v>1.74</v>
@@ -23065,7 +23083,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="Q104">
         <v>3.75</v>
@@ -23146,7 +23164,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ104">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR104">
         <v>1.57</v>
@@ -23558,7 +23576,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ106">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR106">
         <v>1.87</v>
@@ -24301,7 +24319,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -24507,7 +24525,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24585,7 +24603,7 @@
         <v>1.75</v>
       </c>
       <c r="AP111">
-        <v>2.47</v>
+        <v>2.33</v>
       </c>
       <c r="AQ111">
         <v>1.24</v>
@@ -24713,7 +24731,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="Q112">
         <v>2.5</v>
@@ -24791,7 +24809,7 @@
         <v>1.2</v>
       </c>
       <c r="AP112">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ112">
         <v>1.06</v>
@@ -25203,7 +25221,7 @@
         <v>1.67</v>
       </c>
       <c r="AP114">
-        <v>2.47</v>
+        <v>2.33</v>
       </c>
       <c r="AQ114">
         <v>1.47</v>
@@ -25412,7 +25430,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ115">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR115">
         <v>1.76</v>
@@ -25537,7 +25555,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="Q116">
         <v>3.2</v>
@@ -25615,7 +25633,7 @@
         <v>1.4</v>
       </c>
       <c r="AP116">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ116">
         <v>1.39</v>
@@ -25743,7 +25761,7 @@
         <v>130</v>
       </c>
       <c r="P117" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Q117">
         <v>2.3</v>
@@ -25821,10 +25839,10 @@
         <v>1.5</v>
       </c>
       <c r="AP117">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ117">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR117">
         <v>1.62</v>
@@ -25949,7 +25967,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -26361,7 +26379,7 @@
         <v>93</v>
       </c>
       <c r="P120" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="Q120">
         <v>2.63</v>
@@ -26567,7 +26585,7 @@
         <v>168</v>
       </c>
       <c r="P121" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="Q121">
         <v>3.1</v>
@@ -26773,7 +26791,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -27263,10 +27281,10 @@
         <v>1.67</v>
       </c>
       <c r="AP124">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ124">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR124">
         <v>1.75</v>
@@ -27391,7 +27409,7 @@
         <v>93</v>
       </c>
       <c r="P125" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="Q125">
         <v>4.37</v>
@@ -27675,7 +27693,7 @@
         <v>0.4</v>
       </c>
       <c r="AP126">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ126">
         <v>0.53</v>
@@ -27884,7 +27902,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ127">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR127">
         <v>1.8</v>
@@ -28009,7 +28027,7 @@
         <v>176</v>
       </c>
       <c r="P128" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -28296,7 +28314,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ129">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR129">
         <v>1.74</v>
@@ -28421,7 +28439,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28627,7 +28645,7 @@
         <v>178</v>
       </c>
       <c r="P131" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Q131">
         <v>3.75</v>
@@ -29323,7 +29341,7 @@
         <v>1.67</v>
       </c>
       <c r="AP134">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ134">
         <v>1.24</v>
@@ -29532,7 +29550,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ135">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR135">
         <v>1.75</v>
@@ -29657,7 +29675,7 @@
         <v>180</v>
       </c>
       <c r="P136" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="Q136">
         <v>2.25</v>
@@ -29738,7 +29756,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ136">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR136">
         <v>1.7</v>
@@ -30147,7 +30165,7 @@
         <v>1.33</v>
       </c>
       <c r="AP138">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ138">
         <v>1</v>
@@ -30353,7 +30371,7 @@
         <v>0.67</v>
       </c>
       <c r="AP139">
-        <v>2.47</v>
+        <v>2.33</v>
       </c>
       <c r="AQ139">
         <v>0.44</v>
@@ -31386,7 +31404,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ144">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR144">
         <v>1.68</v>
@@ -31511,7 +31529,7 @@
         <v>143</v>
       </c>
       <c r="P145" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -31717,7 +31735,7 @@
         <v>93</v>
       </c>
       <c r="P146" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="Q146">
         <v>4</v>
@@ -31923,7 +31941,7 @@
         <v>93</v>
       </c>
       <c r="P147" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="Q147">
         <v>3.6</v>
@@ -32001,7 +32019,7 @@
         <v>2.14</v>
       </c>
       <c r="AP147">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ147">
         <v>1.83</v>
@@ -32129,7 +32147,7 @@
         <v>189</v>
       </c>
       <c r="P148" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="Q148">
         <v>3.75</v>
@@ -32210,7 +32228,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ148">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR148">
         <v>1.46</v>
@@ -32541,7 +32559,7 @@
         <v>191</v>
       </c>
       <c r="P150" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="Q150">
         <v>1.91</v>
@@ -32747,7 +32765,7 @@
         <v>93</v>
       </c>
       <c r="P151" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="Q151">
         <v>3.4</v>
@@ -32828,7 +32846,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ151">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR151">
         <v>1.8</v>
@@ -33031,7 +33049,7 @@
         <v>0.5</v>
       </c>
       <c r="AP152">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ152">
         <v>0.53</v>
@@ -33159,7 +33177,7 @@
         <v>193</v>
       </c>
       <c r="P153" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="Q153">
         <v>4</v>
@@ -33365,7 +33383,7 @@
         <v>194</v>
       </c>
       <c r="P154" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="Q154">
         <v>2.75</v>
@@ -33571,7 +33589,7 @@
         <v>195</v>
       </c>
       <c r="P155" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="Q155">
         <v>1.91</v>
@@ -34061,10 +34079,10 @@
         <v>1.29</v>
       </c>
       <c r="AP157">
-        <v>2.47</v>
+        <v>2.33</v>
       </c>
       <c r="AQ157">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR157">
         <v>2.01</v>
@@ -34601,7 +34619,7 @@
         <v>144</v>
       </c>
       <c r="P160" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="Q160">
         <v>2.25</v>
@@ -34888,7 +34906,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ161">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR161">
         <v>1.46</v>
@@ -35013,7 +35031,7 @@
         <v>200</v>
       </c>
       <c r="P162" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q162">
         <v>2.55</v>
@@ -35091,7 +35109,7 @@
         <v>2.57</v>
       </c>
       <c r="AP162">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ162">
         <v>1.82</v>
@@ -35300,7 +35318,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ163">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR163">
         <v>1.78</v>
@@ -35506,7 +35524,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ164">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR164">
         <v>1.3</v>
@@ -35837,7 +35855,7 @@
         <v>203</v>
       </c>
       <c r="P166" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="Q166">
         <v>3.1</v>
@@ -36121,7 +36139,7 @@
         <v>2.29</v>
       </c>
       <c r="AP167">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ167">
         <v>1.12</v>
@@ -36327,7 +36345,7 @@
         <v>0.57</v>
       </c>
       <c r="AP168">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ168">
         <v>0.44</v>
@@ -36533,7 +36551,7 @@
         <v>1</v>
       </c>
       <c r="AP169">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ169">
         <v>1.17</v>
@@ -36661,7 +36679,7 @@
         <v>206</v>
       </c>
       <c r="P170" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="Q170">
         <v>2.95</v>
@@ -36742,7 +36760,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ170">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR170">
         <v>1.8</v>
@@ -36867,7 +36885,7 @@
         <v>207</v>
       </c>
       <c r="P171" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="Q171">
         <v>2.5</v>
@@ -37279,7 +37297,7 @@
         <v>208</v>
       </c>
       <c r="P173" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="Q173">
         <v>2.6</v>
@@ -37769,7 +37787,7 @@
         <v>1.25</v>
       </c>
       <c r="AP175">
-        <v>2.47</v>
+        <v>2.33</v>
       </c>
       <c r="AQ175">
         <v>1.39</v>
@@ -38103,7 +38121,7 @@
         <v>211</v>
       </c>
       <c r="P177" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="Q177">
         <v>2.75</v>
@@ -38390,7 +38408,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ178">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR178">
         <v>1.72</v>
@@ -38721,7 +38739,7 @@
         <v>93</v>
       </c>
       <c r="P180" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="Q180">
         <v>3.4</v>
@@ -38927,7 +38945,7 @@
         <v>214</v>
       </c>
       <c r="P181" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="Q181">
         <v>3.75</v>
@@ -39008,7 +39026,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ181">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR181">
         <v>1.56</v>
@@ -39420,7 +39438,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ183">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR183">
         <v>1.89</v>
@@ -39545,7 +39563,7 @@
         <v>216</v>
       </c>
       <c r="P184" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="Q184">
         <v>3.65</v>
@@ -39751,7 +39769,7 @@
         <v>217</v>
       </c>
       <c r="P185" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="Q185">
         <v>2.4</v>
@@ -39957,7 +39975,7 @@
         <v>93</v>
       </c>
       <c r="P186" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="Q186">
         <v>2.75</v>
@@ -40035,7 +40053,7 @@
         <v>2.11</v>
       </c>
       <c r="AP186">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ186">
         <v>1.83</v>
@@ -40447,7 +40465,7 @@
         <v>0.78</v>
       </c>
       <c r="AP188">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ188">
         <v>0.53</v>
@@ -40575,7 +40593,7 @@
         <v>219</v>
       </c>
       <c r="P189" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q189">
         <v>3</v>
@@ -40653,10 +40671,10 @@
         <v>1</v>
       </c>
       <c r="AP189">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ189">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR189">
         <v>1.28</v>
@@ -40862,7 +40880,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ190">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR190">
         <v>1.73</v>
@@ -41065,7 +41083,7 @@
         <v>0.63</v>
       </c>
       <c r="AP191">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ191">
         <v>0.44</v>
@@ -41193,7 +41211,7 @@
         <v>221</v>
       </c>
       <c r="P192" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="Q192">
         <v>3.4</v>
@@ -41399,7 +41417,7 @@
         <v>222</v>
       </c>
       <c r="P193" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="Q193">
         <v>3</v>
@@ -41605,7 +41623,7 @@
         <v>93</v>
       </c>
       <c r="P194" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="Q194">
         <v>1.91</v>
@@ -41811,7 +41829,7 @@
         <v>223</v>
       </c>
       <c r="P195" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="Q195">
         <v>2.25</v>
@@ -42017,7 +42035,7 @@
         <v>93</v>
       </c>
       <c r="P196" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="Q196">
         <v>2.3</v>
@@ -42304,7 +42322,7 @@
         <v>1</v>
       </c>
       <c r="AQ197">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR197">
         <v>1.58</v>
@@ -42507,7 +42525,7 @@
         <v>1.11</v>
       </c>
       <c r="AP198">
-        <v>2.47</v>
+        <v>2.33</v>
       </c>
       <c r="AQ198">
         <v>1.06</v>
@@ -42919,7 +42937,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP200">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ200">
         <v>0.53</v>
@@ -43047,7 +43065,7 @@
         <v>227</v>
       </c>
       <c r="P201" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q201">
         <v>3.5</v>
@@ -43128,7 +43146,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ201">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR201">
         <v>1.61</v>
@@ -43334,7 +43352,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ202">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR202">
         <v>1.76</v>
@@ -43537,7 +43555,7 @@
         <v>0.7</v>
       </c>
       <c r="AP203">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ203">
         <v>0.53</v>
@@ -43665,7 +43683,7 @@
         <v>140</v>
       </c>
       <c r="P204" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="Q204">
         <v>3.75</v>
@@ -43952,7 +43970,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ205">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR205">
         <v>1.65</v>
@@ -44077,7 +44095,7 @@
         <v>156</v>
       </c>
       <c r="P206" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="Q206">
         <v>2.4</v>
@@ -44155,7 +44173,7 @@
         <v>1.11</v>
       </c>
       <c r="AP206">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ206">
         <v>1.17</v>
@@ -44283,7 +44301,7 @@
         <v>229</v>
       </c>
       <c r="P207" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="Q207">
         <v>2.75</v>
@@ -44364,7 +44382,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ207">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR207">
         <v>1.77</v>
@@ -44695,7 +44713,7 @@
         <v>93</v>
       </c>
       <c r="P209" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="Q209">
         <v>4.2</v>
@@ -44773,10 +44791,10 @@
         <v>1.18</v>
       </c>
       <c r="AP209">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ209">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR209">
         <v>1.37</v>
@@ -44982,7 +45000,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ210">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR210">
         <v>1.76</v>
@@ -45107,7 +45125,7 @@
         <v>231</v>
       </c>
       <c r="P211" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="Q211">
         <v>2.2</v>
@@ -45391,7 +45409,7 @@
         <v>0.9</v>
       </c>
       <c r="AP212">
-        <v>2.47</v>
+        <v>2.33</v>
       </c>
       <c r="AQ212">
         <v>1</v>
@@ -45597,7 +45615,7 @@
         <v>1.6</v>
       </c>
       <c r="AP213">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ213">
         <v>1.12</v>
@@ -45931,7 +45949,7 @@
         <v>235</v>
       </c>
       <c r="P215" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="Q215">
         <v>2.15</v>
@@ -46424,7 +46442,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ217">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR217">
         <v>1.61</v>
@@ -46549,7 +46567,7 @@
         <v>104</v>
       </c>
       <c r="P218" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="Q218">
         <v>4.5</v>
@@ -46755,7 +46773,7 @@
         <v>237</v>
       </c>
       <c r="P219" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="Q219">
         <v>3.6</v>
@@ -46961,7 +46979,7 @@
         <v>93</v>
       </c>
       <c r="P220" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="Q220">
         <v>3.2</v>
@@ -47039,10 +47057,10 @@
         <v>1.45</v>
       </c>
       <c r="AP220">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ220">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR220">
         <v>1.73</v>
@@ -47451,7 +47469,7 @@
         <v>0.64</v>
       </c>
       <c r="AP222">
-        <v>2.47</v>
+        <v>2.33</v>
       </c>
       <c r="AQ222">
         <v>0.53</v>
@@ -47657,7 +47675,7 @@
         <v>2.11</v>
       </c>
       <c r="AP223">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ223">
         <v>1.82</v>
@@ -48072,7 +48090,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ225">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR225">
         <v>1.68</v>
@@ -48815,7 +48833,7 @@
         <v>246</v>
       </c>
       <c r="P229" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="Q229">
         <v>2.88</v>
@@ -49433,7 +49451,7 @@
         <v>249</v>
       </c>
       <c r="P232" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="Q232">
         <v>1.91</v>
@@ -49514,7 +49532,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ232">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR232">
         <v>1.63</v>
@@ -49717,7 +49735,7 @@
         <v>1.67</v>
       </c>
       <c r="AP233">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ233">
         <v>1.47</v>
@@ -50051,7 +50069,7 @@
         <v>241</v>
       </c>
       <c r="P235" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="Q235">
         <v>1.73</v>
@@ -50257,7 +50275,7 @@
         <v>252</v>
       </c>
       <c r="P236" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="Q236">
         <v>3.2</v>
@@ -50338,7 +50356,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ236">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR236">
         <v>1.7</v>
@@ -50541,7 +50559,7 @@
         <v>1.45</v>
       </c>
       <c r="AP237">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ237">
         <v>1.12</v>
@@ -50669,7 +50687,7 @@
         <v>104</v>
       </c>
       <c r="P238" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="Q238">
         <v>2.88</v>
@@ -50747,7 +50765,7 @@
         <v>1</v>
       </c>
       <c r="AP238">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ238">
         <v>1.59</v>
@@ -51159,7 +51177,7 @@
         <v>1.55</v>
       </c>
       <c r="AP240">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ240">
         <v>1.24</v>
@@ -51493,7 +51511,7 @@
         <v>257</v>
       </c>
       <c r="P242" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="Q242">
         <v>2.2</v>
@@ -51699,7 +51717,7 @@
         <v>258</v>
       </c>
       <c r="P243" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="Q243">
         <v>2.5</v>
@@ -51777,7 +51795,7 @@
         <v>1.18</v>
       </c>
       <c r="AP243">
-        <v>2.47</v>
+        <v>2.33</v>
       </c>
       <c r="AQ243">
         <v>1.59</v>
@@ -51905,7 +51923,7 @@
         <v>93</v>
       </c>
       <c r="P244" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="Q244">
         <v>3.1</v>
@@ -51986,7 +52004,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ244">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR244">
         <v>1.44</v>
@@ -52523,7 +52541,7 @@
         <v>260</v>
       </c>
       <c r="P247" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="Q247">
         <v>4.5</v>
@@ -52807,7 +52825,7 @@
         <v>1.9</v>
       </c>
       <c r="AP248">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ248">
         <v>1.82</v>
@@ -52935,7 +52953,7 @@
         <v>262</v>
       </c>
       <c r="P249" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="Q249">
         <v>4.5</v>
@@ -53016,7 +53034,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ249">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR249">
         <v>1.71</v>
@@ -53222,7 +53240,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ250">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR250">
         <v>1.74</v>
@@ -53425,10 +53443,10 @@
         <v>0.75</v>
       </c>
       <c r="AP251">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ251">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR251">
         <v>1.85</v>
@@ -54171,7 +54189,7 @@
         <v>265</v>
       </c>
       <c r="P255" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="Q255">
         <v>3.25</v>
@@ -54455,7 +54473,7 @@
         <v>1</v>
       </c>
       <c r="AP256">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ256">
         <v>1.06</v>
@@ -54867,7 +54885,7 @@
         <v>1.15</v>
       </c>
       <c r="AP258">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ258">
         <v>1.39</v>
@@ -55407,7 +55425,7 @@
         <v>269</v>
       </c>
       <c r="P261" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="Q261">
         <v>3.1</v>
@@ -55488,7 +55506,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ261">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR261">
         <v>1.76</v>
@@ -55613,7 +55631,7 @@
         <v>93</v>
       </c>
       <c r="P262" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="Q262">
         <v>3.55</v>
@@ -55691,7 +55709,7 @@
         <v>1.73</v>
       </c>
       <c r="AP262">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ262">
         <v>1.82</v>
@@ -55819,7 +55837,7 @@
         <v>270</v>
       </c>
       <c r="P263" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="Q263">
         <v>4</v>
@@ -56025,7 +56043,7 @@
         <v>235</v>
       </c>
       <c r="P264" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="Q264">
         <v>2.2</v>
@@ -56231,7 +56249,7 @@
         <v>271</v>
       </c>
       <c r="P265" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="Q265">
         <v>3.35</v>
@@ -56643,7 +56661,7 @@
         <v>112</v>
       </c>
       <c r="P267" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="Q267">
         <v>4</v>
@@ -56724,7 +56742,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ267">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR267">
         <v>1.52</v>
@@ -56849,7 +56867,7 @@
         <v>273</v>
       </c>
       <c r="P268" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="Q268">
         <v>3.75</v>
@@ -57261,7 +57279,7 @@
         <v>142</v>
       </c>
       <c r="P270" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="Q270">
         <v>4.5</v>
@@ -57467,7 +57485,7 @@
         <v>187</v>
       </c>
       <c r="P271" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="Q271">
         <v>3.25</v>
@@ -57548,7 +57566,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ271">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR271">
         <v>1.38</v>
@@ -57879,7 +57897,7 @@
         <v>276</v>
       </c>
       <c r="P273" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="Q273">
         <v>2.05</v>
@@ -57957,7 +57975,7 @@
         <v>1.38</v>
       </c>
       <c r="AP273">
-        <v>2.47</v>
+        <v>2.33</v>
       </c>
       <c r="AQ273">
         <v>1.12</v>
@@ -58163,7 +58181,7 @@
         <v>0.62</v>
       </c>
       <c r="AP274">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ274">
         <v>0.53</v>
@@ -58291,7 +58309,7 @@
         <v>277</v>
       </c>
       <c r="P275" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="Q275">
         <v>2.2</v>
@@ -58369,7 +58387,7 @@
         <v>1.38</v>
       </c>
       <c r="AP275">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ275">
         <v>1.24</v>
@@ -58497,7 +58515,7 @@
         <v>278</v>
       </c>
       <c r="P276" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="Q276">
         <v>2.1</v>
@@ -58578,7 +58596,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ276">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR276">
         <v>1.89</v>
@@ -58703,7 +58721,7 @@
         <v>93</v>
       </c>
       <c r="P277" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="Q277">
         <v>2.75</v>
@@ -58909,7 +58927,7 @@
         <v>156</v>
       </c>
       <c r="P278" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="Q278">
         <v>3.5</v>
@@ -59115,7 +59133,7 @@
         <v>103</v>
       </c>
       <c r="P279" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="Q279">
         <v>3.1</v>
@@ -59402,7 +59420,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ280">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR280">
         <v>1.96</v>
@@ -59527,7 +59545,7 @@
         <v>93</v>
       </c>
       <c r="P281" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="Q281">
         <v>4.53</v>
@@ -59605,7 +59623,7 @@
         <v>1.79</v>
       </c>
       <c r="AP281">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ281">
         <v>2</v>
@@ -59814,7 +59832,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ282">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR282">
         <v>1.78</v>
@@ -60226,7 +60244,7 @@
         <v>1</v>
       </c>
       <c r="AQ284">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR284">
         <v>1.6</v>
@@ -60557,7 +60575,7 @@
         <v>283</v>
       </c>
       <c r="P286" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="Q286">
         <v>2.57</v>
@@ -60763,7 +60781,7 @@
         <v>93</v>
       </c>
       <c r="P287" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="Q287">
         <v>3.7</v>
@@ -61047,10 +61065,10 @@
         <v>1.43</v>
       </c>
       <c r="AP288">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ288">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR288">
         <v>1.81</v>
@@ -61462,7 +61480,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ290">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR290">
         <v>1.8</v>
@@ -61587,7 +61605,7 @@
         <v>286</v>
       </c>
       <c r="P291" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="Q291">
         <v>2.5</v>
@@ -61999,7 +62017,7 @@
         <v>93</v>
       </c>
       <c r="P293" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="Q293">
         <v>3.25</v>
@@ -62205,7 +62223,7 @@
         <v>288</v>
       </c>
       <c r="P294" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="Q294">
         <v>2.5</v>
@@ -62489,7 +62507,7 @@
         <v>1.2</v>
       </c>
       <c r="AP295">
-        <v>2.47</v>
+        <v>2.33</v>
       </c>
       <c r="AQ295">
         <v>1.22</v>
@@ -62617,7 +62635,7 @@
         <v>93</v>
       </c>
       <c r="P296" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="Q296">
         <v>2</v>
@@ -62695,7 +62713,7 @@
         <v>1.07</v>
       </c>
       <c r="AP296">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ296">
         <v>1.39</v>
@@ -62823,7 +62841,7 @@
         <v>93</v>
       </c>
       <c r="P297" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="Q297">
         <v>3.6</v>
@@ -63235,7 +63253,7 @@
         <v>291</v>
       </c>
       <c r="P299" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="Q299">
         <v>4</v>
@@ -63316,7 +63334,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ299">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR299">
         <v>1.43</v>
@@ -63728,7 +63746,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ301">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR301">
         <v>1.59</v>
@@ -64140,7 +64158,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ303">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR303">
         <v>1.78</v>
@@ -64343,7 +64361,7 @@
         <v>1.57</v>
       </c>
       <c r="AP304">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ304">
         <v>1.59</v>
@@ -64549,7 +64567,7 @@
         <v>2.13</v>
       </c>
       <c r="AP305">
-        <v>2.47</v>
+        <v>2.33</v>
       </c>
       <c r="AQ305">
         <v>1.83</v>
@@ -64677,7 +64695,7 @@
         <v>93</v>
       </c>
       <c r="P306" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="Q306">
         <v>4.75</v>
@@ -64755,7 +64773,7 @@
         <v>1.07</v>
       </c>
       <c r="AP306">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ306">
         <v>1.06</v>
@@ -64964,7 +64982,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ307">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR307">
         <v>1.71</v>
@@ -65167,7 +65185,7 @@
         <v>0.53</v>
       </c>
       <c r="AP308">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ308">
         <v>0.53</v>
@@ -65295,7 +65313,7 @@
         <v>297</v>
       </c>
       <c r="P309" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="Q309">
         <v>3</v>
@@ -65707,7 +65725,7 @@
         <v>298</v>
       </c>
       <c r="P311" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="Q311">
         <v>2.4</v>
@@ -65913,7 +65931,7 @@
         <v>299</v>
       </c>
       <c r="P312" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="Q312">
         <v>2.88</v>
@@ -66325,7 +66343,7 @@
         <v>301</v>
       </c>
       <c r="P314" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="Q314">
         <v>3.5</v>
@@ -66531,7 +66549,7 @@
         <v>102</v>
       </c>
       <c r="P315" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="Q315">
         <v>2.38</v>
@@ -66737,7 +66755,7 @@
         <v>302</v>
       </c>
       <c r="P316" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="Q316">
         <v>2.2</v>
@@ -66815,10 +66833,10 @@
         <v>1.56</v>
       </c>
       <c r="AP316">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ316">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR316">
         <v>1.83</v>
@@ -66943,7 +66961,7 @@
         <v>93</v>
       </c>
       <c r="P317" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="Q317">
         <v>4</v>
@@ -67355,7 +67373,7 @@
         <v>303</v>
       </c>
       <c r="P319" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="Q319">
         <v>3.4</v>
@@ -67767,7 +67785,7 @@
         <v>304</v>
       </c>
       <c r="P321" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="Q321">
         <v>2.3</v>
@@ -67845,7 +67863,7 @@
         <v>1.31</v>
       </c>
       <c r="AP321">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ321">
         <v>1.39</v>
@@ -68051,7 +68069,7 @@
         <v>1.25</v>
       </c>
       <c r="AP322">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ322">
         <v>1.17</v>
@@ -68257,10 +68275,10 @@
         <v>0.93</v>
       </c>
       <c r="AP323">
-        <v>2.47</v>
+        <v>2.33</v>
       </c>
       <c r="AQ323">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR323">
         <v>1.84</v>
@@ -68672,7 +68690,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ325">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR325">
         <v>1.66</v>
@@ -68797,7 +68815,7 @@
         <v>309</v>
       </c>
       <c r="P326" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="Q326">
         <v>4.2</v>
@@ -68878,7 +68896,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ326">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR326">
         <v>1.62</v>
@@ -69003,7 +69021,7 @@
         <v>310</v>
       </c>
       <c r="P327" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="Q327">
         <v>3.25</v>
@@ -69209,7 +69227,7 @@
         <v>311</v>
       </c>
       <c r="P328" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="Q328">
         <v>2.75</v>
@@ -69493,10 +69511,10 @@
         <v>1.06</v>
       </c>
       <c r="AP329">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ329">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR329">
         <v>1.77</v>
@@ -69827,7 +69845,7 @@
         <v>314</v>
       </c>
       <c r="P331" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="Q331">
         <v>2</v>
@@ -69908,7 +69926,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ331">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR331">
         <v>1.8</v>
@@ -71475,7 +71493,7 @@
         <v>322</v>
       </c>
       <c r="P339" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="Q339">
         <v>2.63</v>
@@ -72299,7 +72317,7 @@
         <v>93</v>
       </c>
       <c r="P343" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="Q343">
         <v>3.75</v>
@@ -72505,7 +72523,7 @@
         <v>324</v>
       </c>
       <c r="P344" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="Q344">
         <v>2.25</v>
@@ -73073,6 +73091,1036 @@
         <v>0</v>
       </c>
       <c r="BP346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:68">
+      <c r="A347" s="1">
+        <v>346</v>
+      </c>
+      <c r="B347">
+        <v>7465782</v>
+      </c>
+      <c r="C347" t="s">
+        <v>68</v>
+      </c>
+      <c r="D347" t="s">
+        <v>69</v>
+      </c>
+      <c r="E347" s="2">
+        <v>45766.47916666666</v>
+      </c>
+      <c r="F347">
+        <v>35</v>
+      </c>
+      <c r="G347" t="s">
+        <v>75</v>
+      </c>
+      <c r="H347" t="s">
+        <v>82</v>
+      </c>
+      <c r="I347">
+        <v>1</v>
+      </c>
+      <c r="J347">
+        <v>0</v>
+      </c>
+      <c r="K347">
+        <v>1</v>
+      </c>
+      <c r="L347">
+        <v>3</v>
+      </c>
+      <c r="M347">
+        <v>0</v>
+      </c>
+      <c r="N347">
+        <v>3</v>
+      </c>
+      <c r="O347" t="s">
+        <v>326</v>
+      </c>
+      <c r="P347" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q347">
+        <v>3.25</v>
+      </c>
+      <c r="R347">
+        <v>2.4</v>
+      </c>
+      <c r="S347">
+        <v>2.75</v>
+      </c>
+      <c r="T347">
+        <v>1.29</v>
+      </c>
+      <c r="U347">
+        <v>3.5</v>
+      </c>
+      <c r="V347">
+        <v>2.25</v>
+      </c>
+      <c r="W347">
+        <v>1.57</v>
+      </c>
+      <c r="X347">
+        <v>5.5</v>
+      </c>
+      <c r="Y347">
+        <v>1.14</v>
+      </c>
+      <c r="Z347">
+        <v>2.88</v>
+      </c>
+      <c r="AA347">
+        <v>3.6</v>
+      </c>
+      <c r="AB347">
+        <v>2.2</v>
+      </c>
+      <c r="AC347">
+        <v>0</v>
+      </c>
+      <c r="AD347">
+        <v>0</v>
+      </c>
+      <c r="AE347">
+        <v>0</v>
+      </c>
+      <c r="AF347">
+        <v>0</v>
+      </c>
+      <c r="AG347">
+        <v>1.53</v>
+      </c>
+      <c r="AH347">
+        <v>2.4</v>
+      </c>
+      <c r="AI347">
+        <v>1.5</v>
+      </c>
+      <c r="AJ347">
+        <v>2.5</v>
+      </c>
+      <c r="AK347">
+        <v>0</v>
+      </c>
+      <c r="AL347">
+        <v>0</v>
+      </c>
+      <c r="AM347">
+        <v>0</v>
+      </c>
+      <c r="AN347">
+        <v>1.18</v>
+      </c>
+      <c r="AO347">
+        <v>1</v>
+      </c>
+      <c r="AP347">
+        <v>1.28</v>
+      </c>
+      <c r="AQ347">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR347">
+        <v>1.67</v>
+      </c>
+      <c r="AS347">
+        <v>1.69</v>
+      </c>
+      <c r="AT347">
+        <v>3.36</v>
+      </c>
+      <c r="AU347">
+        <v>12</v>
+      </c>
+      <c r="AV347">
+        <v>6</v>
+      </c>
+      <c r="AW347">
+        <v>5</v>
+      </c>
+      <c r="AX347">
+        <v>5</v>
+      </c>
+      <c r="AY347">
+        <v>18</v>
+      </c>
+      <c r="AZ347">
+        <v>11</v>
+      </c>
+      <c r="BA347">
+        <v>5</v>
+      </c>
+      <c r="BB347">
+        <v>2</v>
+      </c>
+      <c r="BC347">
+        <v>7</v>
+      </c>
+      <c r="BD347">
+        <v>0</v>
+      </c>
+      <c r="BE347">
+        <v>0</v>
+      </c>
+      <c r="BF347">
+        <v>0</v>
+      </c>
+      <c r="BG347">
+        <v>0</v>
+      </c>
+      <c r="BH347">
+        <v>0</v>
+      </c>
+      <c r="BI347">
+        <v>0</v>
+      </c>
+      <c r="BJ347">
+        <v>0</v>
+      </c>
+      <c r="BK347">
+        <v>0</v>
+      </c>
+      <c r="BL347">
+        <v>0</v>
+      </c>
+      <c r="BM347">
+        <v>0</v>
+      </c>
+      <c r="BN347">
+        <v>0</v>
+      </c>
+      <c r="BO347">
+        <v>0</v>
+      </c>
+      <c r="BP347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:68">
+      <c r="A348" s="1">
+        <v>347</v>
+      </c>
+      <c r="B348">
+        <v>7465783</v>
+      </c>
+      <c r="C348" t="s">
+        <v>68</v>
+      </c>
+      <c r="D348" t="s">
+        <v>69</v>
+      </c>
+      <c r="E348" s="2">
+        <v>45766.57291666666</v>
+      </c>
+      <c r="F348">
+        <v>35</v>
+      </c>
+      <c r="G348" t="s">
+        <v>74</v>
+      </c>
+      <c r="H348" t="s">
+        <v>86</v>
+      </c>
+      <c r="I348">
+        <v>2</v>
+      </c>
+      <c r="J348">
+        <v>0</v>
+      </c>
+      <c r="K348">
+        <v>2</v>
+      </c>
+      <c r="L348">
+        <v>2</v>
+      </c>
+      <c r="M348">
+        <v>0</v>
+      </c>
+      <c r="N348">
+        <v>2</v>
+      </c>
+      <c r="O348" t="s">
+        <v>327</v>
+      </c>
+      <c r="P348" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q348">
+        <v>3.75</v>
+      </c>
+      <c r="R348">
+        <v>2.4</v>
+      </c>
+      <c r="S348">
+        <v>2.5</v>
+      </c>
+      <c r="T348">
+        <v>1.29</v>
+      </c>
+      <c r="U348">
+        <v>3.5</v>
+      </c>
+      <c r="V348">
+        <v>2.38</v>
+      </c>
+      <c r="W348">
+        <v>1.53</v>
+      </c>
+      <c r="X348">
+        <v>5.5</v>
+      </c>
+      <c r="Y348">
+        <v>1.14</v>
+      </c>
+      <c r="Z348">
+        <v>3.3</v>
+      </c>
+      <c r="AA348">
+        <v>3.8</v>
+      </c>
+      <c r="AB348">
+        <v>1.95</v>
+      </c>
+      <c r="AC348">
+        <v>0</v>
+      </c>
+      <c r="AD348">
+        <v>0</v>
+      </c>
+      <c r="AE348">
+        <v>0</v>
+      </c>
+      <c r="AF348">
+        <v>0</v>
+      </c>
+      <c r="AG348">
+        <v>1.57</v>
+      </c>
+      <c r="AH348">
+        <v>2.35</v>
+      </c>
+      <c r="AI348">
+        <v>1.53</v>
+      </c>
+      <c r="AJ348">
+        <v>2.38</v>
+      </c>
+      <c r="AK348">
+        <v>0</v>
+      </c>
+      <c r="AL348">
+        <v>0</v>
+      </c>
+      <c r="AM348">
+        <v>0</v>
+      </c>
+      <c r="AN348">
+        <v>1.41</v>
+      </c>
+      <c r="AO348">
+        <v>1.47</v>
+      </c>
+      <c r="AP348">
+        <v>1.5</v>
+      </c>
+      <c r="AQ348">
+        <v>1.39</v>
+      </c>
+      <c r="AR348">
+        <v>1.39</v>
+      </c>
+      <c r="AS348">
+        <v>1.28</v>
+      </c>
+      <c r="AT348">
+        <v>2.67</v>
+      </c>
+      <c r="AU348">
+        <v>3</v>
+      </c>
+      <c r="AV348">
+        <v>8</v>
+      </c>
+      <c r="AW348">
+        <v>4</v>
+      </c>
+      <c r="AX348">
+        <v>22</v>
+      </c>
+      <c r="AY348">
+        <v>7</v>
+      </c>
+      <c r="AZ348">
+        <v>31</v>
+      </c>
+      <c r="BA348">
+        <v>3</v>
+      </c>
+      <c r="BB348">
+        <v>18</v>
+      </c>
+      <c r="BC348">
+        <v>21</v>
+      </c>
+      <c r="BD348">
+        <v>0</v>
+      </c>
+      <c r="BE348">
+        <v>0</v>
+      </c>
+      <c r="BF348">
+        <v>0</v>
+      </c>
+      <c r="BG348">
+        <v>0</v>
+      </c>
+      <c r="BH348">
+        <v>0</v>
+      </c>
+      <c r="BI348">
+        <v>0</v>
+      </c>
+      <c r="BJ348">
+        <v>0</v>
+      </c>
+      <c r="BK348">
+        <v>0</v>
+      </c>
+      <c r="BL348">
+        <v>0</v>
+      </c>
+      <c r="BM348">
+        <v>0</v>
+      </c>
+      <c r="BN348">
+        <v>0</v>
+      </c>
+      <c r="BO348">
+        <v>0</v>
+      </c>
+      <c r="BP348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:68">
+      <c r="A349" s="1">
+        <v>348</v>
+      </c>
+      <c r="B349">
+        <v>7465784</v>
+      </c>
+      <c r="C349" t="s">
+        <v>68</v>
+      </c>
+      <c r="D349" t="s">
+        <v>69</v>
+      </c>
+      <c r="E349" s="2">
+        <v>45766.66666666666</v>
+      </c>
+      <c r="F349">
+        <v>35</v>
+      </c>
+      <c r="G349" t="s">
+        <v>77</v>
+      </c>
+      <c r="H349" t="s">
+        <v>89</v>
+      </c>
+      <c r="I349">
+        <v>2</v>
+      </c>
+      <c r="J349">
+        <v>0</v>
+      </c>
+      <c r="K349">
+        <v>2</v>
+      </c>
+      <c r="L349">
+        <v>2</v>
+      </c>
+      <c r="M349">
+        <v>0</v>
+      </c>
+      <c r="N349">
+        <v>2</v>
+      </c>
+      <c r="O349" t="s">
+        <v>328</v>
+      </c>
+      <c r="P349" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q349">
+        <v>1.8</v>
+      </c>
+      <c r="R349">
+        <v>2.63</v>
+      </c>
+      <c r="S349">
+        <v>6.5</v>
+      </c>
+      <c r="T349">
+        <v>1.25</v>
+      </c>
+      <c r="U349">
+        <v>3.75</v>
+      </c>
+      <c r="V349">
+        <v>2.2</v>
+      </c>
+      <c r="W349">
+        <v>1.62</v>
+      </c>
+      <c r="X349">
+        <v>5</v>
+      </c>
+      <c r="Y349">
+        <v>1.17</v>
+      </c>
+      <c r="Z349">
+        <v>1.38</v>
+      </c>
+      <c r="AA349">
+        <v>4.5</v>
+      </c>
+      <c r="AB349">
+        <v>8.5</v>
+      </c>
+      <c r="AC349">
+        <v>1.01</v>
+      </c>
+      <c r="AD349">
+        <v>17</v>
+      </c>
+      <c r="AE349">
+        <v>1.07</v>
+      </c>
+      <c r="AF349">
+        <v>7</v>
+      </c>
+      <c r="AG349">
+        <v>1.48</v>
+      </c>
+      <c r="AH349">
+        <v>2.6</v>
+      </c>
+      <c r="AI349">
+        <v>1.73</v>
+      </c>
+      <c r="AJ349">
+        <v>2</v>
+      </c>
+      <c r="AK349">
+        <v>1.1</v>
+      </c>
+      <c r="AL349">
+        <v>1.11</v>
+      </c>
+      <c r="AM349">
+        <v>2.95</v>
+      </c>
+      <c r="AN349">
+        <v>2.24</v>
+      </c>
+      <c r="AO349">
+        <v>0.71</v>
+      </c>
+      <c r="AP349">
+        <v>2.28</v>
+      </c>
+      <c r="AQ349">
+        <v>0.67</v>
+      </c>
+      <c r="AR349">
+        <v>1.82</v>
+      </c>
+      <c r="AS349">
+        <v>1.43</v>
+      </c>
+      <c r="AT349">
+        <v>3.25</v>
+      </c>
+      <c r="AU349">
+        <v>6</v>
+      </c>
+      <c r="AV349">
+        <v>3</v>
+      </c>
+      <c r="AW349">
+        <v>12</v>
+      </c>
+      <c r="AX349">
+        <v>4</v>
+      </c>
+      <c r="AY349">
+        <v>18</v>
+      </c>
+      <c r="AZ349">
+        <v>7</v>
+      </c>
+      <c r="BA349">
+        <v>7</v>
+      </c>
+      <c r="BB349">
+        <v>3</v>
+      </c>
+      <c r="BC349">
+        <v>10</v>
+      </c>
+      <c r="BD349">
+        <v>0</v>
+      </c>
+      <c r="BE349">
+        <v>0</v>
+      </c>
+      <c r="BF349">
+        <v>0</v>
+      </c>
+      <c r="BG349">
+        <v>0</v>
+      </c>
+      <c r="BH349">
+        <v>0</v>
+      </c>
+      <c r="BI349">
+        <v>0</v>
+      </c>
+      <c r="BJ349">
+        <v>0</v>
+      </c>
+      <c r="BK349">
+        <v>0</v>
+      </c>
+      <c r="BL349">
+        <v>0</v>
+      </c>
+      <c r="BM349">
+        <v>0</v>
+      </c>
+      <c r="BN349">
+        <v>0</v>
+      </c>
+      <c r="BO349">
+        <v>0</v>
+      </c>
+      <c r="BP349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:68">
+      <c r="A350" s="1">
+        <v>349</v>
+      </c>
+      <c r="B350">
+        <v>7465785</v>
+      </c>
+      <c r="C350" t="s">
+        <v>68</v>
+      </c>
+      <c r="D350" t="s">
+        <v>69</v>
+      </c>
+      <c r="E350" s="2">
+        <v>45767.39583333334</v>
+      </c>
+      <c r="F350">
+        <v>35</v>
+      </c>
+      <c r="G350" t="s">
+        <v>76</v>
+      </c>
+      <c r="H350" t="s">
+        <v>79</v>
+      </c>
+      <c r="I350">
+        <v>2</v>
+      </c>
+      <c r="J350">
+        <v>0</v>
+      </c>
+      <c r="K350">
+        <v>2</v>
+      </c>
+      <c r="L350">
+        <v>3</v>
+      </c>
+      <c r="M350">
+        <v>2</v>
+      </c>
+      <c r="N350">
+        <v>5</v>
+      </c>
+      <c r="O350" t="s">
+        <v>329</v>
+      </c>
+      <c r="P350" t="s">
+        <v>477</v>
+      </c>
+      <c r="Q350">
+        <v>1.73</v>
+      </c>
+      <c r="R350">
+        <v>2.88</v>
+      </c>
+      <c r="S350">
+        <v>7</v>
+      </c>
+      <c r="T350">
+        <v>1.22</v>
+      </c>
+      <c r="U350">
+        <v>4</v>
+      </c>
+      <c r="V350">
+        <v>2</v>
+      </c>
+      <c r="W350">
+        <v>1.73</v>
+      </c>
+      <c r="X350">
+        <v>4.33</v>
+      </c>
+      <c r="Y350">
+        <v>1.2</v>
+      </c>
+      <c r="Z350">
+        <v>1.3</v>
+      </c>
+      <c r="AA350">
+        <v>5</v>
+      </c>
+      <c r="AB350">
+        <v>9.5</v>
+      </c>
+      <c r="AC350">
+        <v>1.01</v>
+      </c>
+      <c r="AD350">
+        <v>23</v>
+      </c>
+      <c r="AE350">
+        <v>1.11</v>
+      </c>
+      <c r="AF350">
+        <v>6.25</v>
+      </c>
+      <c r="AG350">
+        <v>1.4</v>
+      </c>
+      <c r="AH350">
+        <v>2.88</v>
+      </c>
+      <c r="AI350">
+        <v>1.67</v>
+      </c>
+      <c r="AJ350">
+        <v>2.1</v>
+      </c>
+      <c r="AK350">
+        <v>1.07</v>
+      </c>
+      <c r="AL350">
+        <v>1.09</v>
+      </c>
+      <c r="AM350">
+        <v>3.35</v>
+      </c>
+      <c r="AN350">
+        <v>2.12</v>
+      </c>
+      <c r="AO350">
+        <v>0.88</v>
+      </c>
+      <c r="AP350">
+        <v>2.17</v>
+      </c>
+      <c r="AQ350">
+        <v>0.83</v>
+      </c>
+      <c r="AR350">
+        <v>1.81</v>
+      </c>
+      <c r="AS350">
+        <v>1.39</v>
+      </c>
+      <c r="AT350">
+        <v>3.2</v>
+      </c>
+      <c r="AU350">
+        <v>7</v>
+      </c>
+      <c r="AV350">
+        <v>6</v>
+      </c>
+      <c r="AW350">
+        <v>6</v>
+      </c>
+      <c r="AX350">
+        <v>5</v>
+      </c>
+      <c r="AY350">
+        <v>13</v>
+      </c>
+      <c r="AZ350">
+        <v>11</v>
+      </c>
+      <c r="BA350">
+        <v>5</v>
+      </c>
+      <c r="BB350">
+        <v>2</v>
+      </c>
+      <c r="BC350">
+        <v>7</v>
+      </c>
+      <c r="BD350">
+        <v>0</v>
+      </c>
+      <c r="BE350">
+        <v>0</v>
+      </c>
+      <c r="BF350">
+        <v>0</v>
+      </c>
+      <c r="BG350">
+        <v>0</v>
+      </c>
+      <c r="BH350">
+        <v>0</v>
+      </c>
+      <c r="BI350">
+        <v>0</v>
+      </c>
+      <c r="BJ350">
+        <v>0</v>
+      </c>
+      <c r="BK350">
+        <v>0</v>
+      </c>
+      <c r="BL350">
+        <v>0</v>
+      </c>
+      <c r="BM350">
+        <v>0</v>
+      </c>
+      <c r="BN350">
+        <v>0</v>
+      </c>
+      <c r="BO350">
+        <v>0</v>
+      </c>
+      <c r="BP350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:68">
+      <c r="A351" s="1">
+        <v>350</v>
+      </c>
+      <c r="B351">
+        <v>7465787</v>
+      </c>
+      <c r="C351" t="s">
+        <v>68</v>
+      </c>
+      <c r="D351" t="s">
+        <v>69</v>
+      </c>
+      <c r="E351" s="2">
+        <v>45767.48958333334</v>
+      </c>
+      <c r="F351">
+        <v>35</v>
+      </c>
+      <c r="G351" t="s">
+        <v>88</v>
+      </c>
+      <c r="H351" t="s">
+        <v>83</v>
+      </c>
+      <c r="I351">
+        <v>0</v>
+      </c>
+      <c r="J351">
+        <v>2</v>
+      </c>
+      <c r="K351">
+        <v>2</v>
+      </c>
+      <c r="L351">
+        <v>1</v>
+      </c>
+      <c r="M351">
+        <v>4</v>
+      </c>
+      <c r="N351">
+        <v>5</v>
+      </c>
+      <c r="O351" t="s">
+        <v>301</v>
+      </c>
+      <c r="P351" t="s">
+        <v>478</v>
+      </c>
+      <c r="Q351">
+        <v>2.88</v>
+      </c>
+      <c r="R351">
+        <v>2.5</v>
+      </c>
+      <c r="S351">
+        <v>3.1</v>
+      </c>
+      <c r="T351">
+        <v>1.25</v>
+      </c>
+      <c r="U351">
+        <v>3.75</v>
+      </c>
+      <c r="V351">
+        <v>2.2</v>
+      </c>
+      <c r="W351">
+        <v>1.62</v>
+      </c>
+      <c r="X351">
+        <v>5</v>
+      </c>
+      <c r="Y351">
+        <v>1.17</v>
+      </c>
+      <c r="Z351">
+        <v>2.4</v>
+      </c>
+      <c r="AA351">
+        <v>3.5</v>
+      </c>
+      <c r="AB351">
+        <v>2.75</v>
+      </c>
+      <c r="AC351">
+        <v>1.01</v>
+      </c>
+      <c r="AD351">
+        <v>17</v>
+      </c>
+      <c r="AE351">
+        <v>1.15</v>
+      </c>
+      <c r="AF351">
+        <v>5.25</v>
+      </c>
+      <c r="AG351">
+        <v>1.48</v>
+      </c>
+      <c r="AH351">
+        <v>2.6</v>
+      </c>
+      <c r="AI351">
+        <v>1.4</v>
+      </c>
+      <c r="AJ351">
+        <v>2.75</v>
+      </c>
+      <c r="AK351">
+        <v>1.44</v>
+      </c>
+      <c r="AL351">
+        <v>1.22</v>
+      </c>
+      <c r="AM351">
+        <v>1.57</v>
+      </c>
+      <c r="AN351">
+        <v>2.47</v>
+      </c>
+      <c r="AO351">
+        <v>1.53</v>
+      </c>
+      <c r="AP351">
+        <v>2.33</v>
+      </c>
+      <c r="AQ351">
+        <v>1.61</v>
+      </c>
+      <c r="AR351">
+        <v>1.84</v>
+      </c>
+      <c r="AS351">
+        <v>1.75</v>
+      </c>
+      <c r="AT351">
+        <v>3.59</v>
+      </c>
+      <c r="AU351">
+        <v>6</v>
+      </c>
+      <c r="AV351">
+        <v>9</v>
+      </c>
+      <c r="AW351">
+        <v>6</v>
+      </c>
+      <c r="AX351">
+        <v>13</v>
+      </c>
+      <c r="AY351">
+        <v>12</v>
+      </c>
+      <c r="AZ351">
+        <v>22</v>
+      </c>
+      <c r="BA351">
+        <v>1</v>
+      </c>
+      <c r="BB351">
+        <v>5</v>
+      </c>
+      <c r="BC351">
+        <v>6</v>
+      </c>
+      <c r="BD351">
+        <v>0</v>
+      </c>
+      <c r="BE351">
+        <v>0</v>
+      </c>
+      <c r="BF351">
+        <v>0</v>
+      </c>
+      <c r="BG351">
+        <v>0</v>
+      </c>
+      <c r="BH351">
+        <v>0</v>
+      </c>
+      <c r="BI351">
+        <v>0</v>
+      </c>
+      <c r="BJ351">
+        <v>0</v>
+      </c>
+      <c r="BK351">
+        <v>0</v>
+      </c>
+      <c r="BL351">
+        <v>0</v>
+      </c>
+      <c r="BM351">
+        <v>0</v>
+      </c>
+      <c r="BN351">
+        <v>0</v>
+      </c>
+      <c r="BO351">
+        <v>0</v>
+      </c>
+      <c r="BP351">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Netherlands Eerste Divisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2168" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2174" uniqueCount="480">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1452,6 +1452,9 @@
   <si>
     <t>['16', '23', '60', '72']</t>
   </si>
+  <si>
+    <t>['29']</t>
+  </si>
 </sst>
 </file>
 
@@ -1812,7 +1815,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP351"/>
+  <dimension ref="A1:BP352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4621,7 +4624,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ14">
         <v>0.53</v>
@@ -5448,7 +5451,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ18">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -10183,7 +10186,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ41">
         <v>1.06</v>
@@ -12658,7 +12661,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ53">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR53">
         <v>2.41</v>
@@ -13894,7 +13897,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ59">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR59">
         <v>1.91</v>
@@ -15539,7 +15542,7 @@
         <v>0.67</v>
       </c>
       <c r="AP67">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ67">
         <v>0.53</v>
@@ -19044,7 +19047,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ84">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR84">
         <v>1.34</v>
@@ -19247,7 +19250,7 @@
         <v>1.25</v>
       </c>
       <c r="AP85">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ85">
         <v>1.61</v>
@@ -23370,7 +23373,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ105">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR105">
         <v>1.49</v>
@@ -25427,7 +25430,7 @@
         <v>1.8</v>
       </c>
       <c r="AP115">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ115">
         <v>0.67</v>
@@ -27490,7 +27493,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ125">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR125">
         <v>1.31</v>
@@ -30577,7 +30580,7 @@
         <v>1.71</v>
       </c>
       <c r="AP140">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ140">
         <v>1.22</v>
@@ -33258,7 +33261,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ153">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR153">
         <v>1.87</v>
@@ -34288,7 +34291,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ158">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR158">
         <v>1.63</v>
@@ -34491,7 +34494,7 @@
         <v>1.14</v>
       </c>
       <c r="AP159">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ159">
         <v>1</v>
@@ -35727,7 +35730,7 @@
         <v>1.75</v>
       </c>
       <c r="AP165">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ165">
         <v>2</v>
@@ -38202,7 +38205,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ177">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR177">
         <v>1.93</v>
@@ -39435,7 +39438,7 @@
         <v>1.44</v>
       </c>
       <c r="AP183">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ183">
         <v>1.39</v>
@@ -46233,7 +46236,7 @@
         <v>2.2</v>
       </c>
       <c r="AP216">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ216">
         <v>1.83</v>
@@ -47263,7 +47266,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP221">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ221">
         <v>0.44</v>
@@ -48296,7 +48299,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ226">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR226">
         <v>1.71</v>
@@ -50768,7 +50771,7 @@
         <v>2.28</v>
       </c>
       <c r="AQ238">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR238">
         <v>1.84</v>
@@ -51589,7 +51592,7 @@
         <v>1.17</v>
       </c>
       <c r="AP242">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ242">
         <v>1.39</v>
@@ -51798,7 +51801,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ243">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR243">
         <v>1.91</v>
@@ -55297,7 +55300,7 @@
         <v>1.42</v>
       </c>
       <c r="AP260">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ260">
         <v>1.24</v>
@@ -56330,7 +56333,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ265">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR265">
         <v>1.71</v>
@@ -59417,7 +59420,7 @@
         <v>1</v>
       </c>
       <c r="AP280">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ280">
         <v>0.83</v>
@@ -60450,7 +60453,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ285">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR285">
         <v>1.71</v>
@@ -62301,7 +62304,7 @@
         <v>1.29</v>
       </c>
       <c r="AP294">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ294">
         <v>1.12</v>
@@ -64364,7 +64367,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ304">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR304">
         <v>1.72</v>
@@ -66627,7 +66630,7 @@
         <v>1.14</v>
       </c>
       <c r="AP315">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ315">
         <v>1.17</v>
@@ -69720,7 +69723,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ330">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR330">
         <v>1.43</v>
@@ -70541,7 +70544,7 @@
         <v>1.94</v>
       </c>
       <c r="AP334">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ334">
         <v>1.82</v>
@@ -70750,7 +70753,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ335">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR335">
         <v>1.86</v>
@@ -74121,6 +74124,212 @@
         <v>0</v>
       </c>
       <c r="BP351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:68">
+      <c r="A352" s="1">
+        <v>351</v>
+      </c>
+      <c r="B352">
+        <v>7465789</v>
+      </c>
+      <c r="C352" t="s">
+        <v>68</v>
+      </c>
+      <c r="D352" t="s">
+        <v>69</v>
+      </c>
+      <c r="E352" s="2">
+        <v>45771.625</v>
+      </c>
+      <c r="F352">
+        <v>36</v>
+      </c>
+      <c r="G352" t="s">
+        <v>82</v>
+      </c>
+      <c r="H352" t="s">
+        <v>76</v>
+      </c>
+      <c r="I352">
+        <v>0</v>
+      </c>
+      <c r="J352">
+        <v>1</v>
+      </c>
+      <c r="K352">
+        <v>1</v>
+      </c>
+      <c r="L352">
+        <v>1</v>
+      </c>
+      <c r="M352">
+        <v>1</v>
+      </c>
+      <c r="N352">
+        <v>2</v>
+      </c>
+      <c r="O352" t="s">
+        <v>147</v>
+      </c>
+      <c r="P352" t="s">
+        <v>479</v>
+      </c>
+      <c r="Q352">
+        <v>3.35</v>
+      </c>
+      <c r="R352">
+        <v>2.2</v>
+      </c>
+      <c r="S352">
+        <v>2.7</v>
+      </c>
+      <c r="T352">
+        <v>1.3</v>
+      </c>
+      <c r="U352">
+        <v>3.25</v>
+      </c>
+      <c r="V352">
+        <v>2.3</v>
+      </c>
+      <c r="W352">
+        <v>1.55</v>
+      </c>
+      <c r="X352">
+        <v>5.15</v>
+      </c>
+      <c r="Y352">
+        <v>1.1</v>
+      </c>
+      <c r="Z352">
+        <v>3.07</v>
+      </c>
+      <c r="AA352">
+        <v>3.65</v>
+      </c>
+      <c r="AB352">
+        <v>2.19</v>
+      </c>
+      <c r="AC352">
+        <v>1.04</v>
+      </c>
+      <c r="AD352">
+        <v>10</v>
+      </c>
+      <c r="AE352">
+        <v>1.2</v>
+      </c>
+      <c r="AF352">
+        <v>4.5</v>
+      </c>
+      <c r="AG352">
+        <v>1.55</v>
+      </c>
+      <c r="AH352">
+        <v>2.2</v>
+      </c>
+      <c r="AI352">
+        <v>1.45</v>
+      </c>
+      <c r="AJ352">
+        <v>2.5</v>
+      </c>
+      <c r="AK352">
+        <v>1.65</v>
+      </c>
+      <c r="AL352">
+        <v>1.25</v>
+      </c>
+      <c r="AM352">
+        <v>1.36</v>
+      </c>
+      <c r="AN352">
+        <v>1.82</v>
+      </c>
+      <c r="AO352">
+        <v>1.59</v>
+      </c>
+      <c r="AP352">
+        <v>1.78</v>
+      </c>
+      <c r="AQ352">
+        <v>1.56</v>
+      </c>
+      <c r="AR352">
+        <v>1.9</v>
+      </c>
+      <c r="AS352">
+        <v>1.6</v>
+      </c>
+      <c r="AT352">
+        <v>3.5</v>
+      </c>
+      <c r="AU352">
+        <v>5</v>
+      </c>
+      <c r="AV352">
+        <v>5</v>
+      </c>
+      <c r="AW352">
+        <v>9</v>
+      </c>
+      <c r="AX352">
+        <v>7</v>
+      </c>
+      <c r="AY352">
+        <v>14</v>
+      </c>
+      <c r="AZ352">
+        <v>12</v>
+      </c>
+      <c r="BA352">
+        <v>7</v>
+      </c>
+      <c r="BB352">
+        <v>3</v>
+      </c>
+      <c r="BC352">
+        <v>10</v>
+      </c>
+      <c r="BD352">
+        <v>0</v>
+      </c>
+      <c r="BE352">
+        <v>0</v>
+      </c>
+      <c r="BF352">
+        <v>0</v>
+      </c>
+      <c r="BG352">
+        <v>0</v>
+      </c>
+      <c r="BH352">
+        <v>0</v>
+      </c>
+      <c r="BI352">
+        <v>0</v>
+      </c>
+      <c r="BJ352">
+        <v>0</v>
+      </c>
+      <c r="BK352">
+        <v>0</v>
+      </c>
+      <c r="BL352">
+        <v>0</v>
+      </c>
+      <c r="BM352">
+        <v>0</v>
+      </c>
+      <c r="BN352">
+        <v>0</v>
+      </c>
+      <c r="BO352">
+        <v>0</v>
+      </c>
+      <c r="BP352">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Netherlands Eerste Divisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2192" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2198" uniqueCount="484">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1015,6 +1015,9 @@
     <t>['20', '39']</t>
   </si>
   <si>
+    <t>['7', '37']</t>
+  </si>
+  <si>
     <t>['5', '18']</t>
   </si>
   <si>
@@ -1824,7 +1827,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP355"/>
+  <dimension ref="A1:BP356"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2289,7 +2292,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -2495,7 +2498,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -2907,7 +2910,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -3113,7 +3116,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -3319,7 +3322,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -3525,7 +3528,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3937,7 +3940,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -4349,7 +4352,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -4839,7 +4842,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ15">
         <v>1.06</v>
@@ -4967,7 +4970,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -5791,7 +5794,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5872,7 +5875,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ20">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -6821,7 +6824,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q25">
         <v>1.78</v>
@@ -7027,7 +7030,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -7233,7 +7236,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q27">
         <v>2.39</v>
@@ -7645,7 +7648,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -8057,7 +8060,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -8675,7 +8678,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q34">
         <v>2.5</v>
@@ -8881,7 +8884,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q35">
         <v>3.6</v>
@@ -8962,7 +8965,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ35">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AR35">
         <v>0.8</v>
@@ -9499,7 +9502,7 @@
         <v>93</v>
       </c>
       <c r="P38" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -9705,7 +9708,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -10117,7 +10120,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q41">
         <v>2.41</v>
@@ -10941,7 +10944,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -11147,7 +11150,7 @@
         <v>93</v>
       </c>
       <c r="P46" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q46">
         <v>2.6</v>
@@ -11559,7 +11562,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11971,7 +11974,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q50">
         <v>2.1</v>
@@ -12177,7 +12180,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -12255,7 +12258,7 @@
         <v>3</v>
       </c>
       <c r="AP51">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ51">
         <v>1.22</v>
@@ -12383,7 +12386,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q52">
         <v>2.77</v>
@@ -13079,7 +13082,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ55">
         <v>1.17</v>
@@ -13207,7 +13210,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q56">
         <v>2.3</v>
@@ -13619,7 +13622,7 @@
         <v>93</v>
       </c>
       <c r="P58" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -14237,7 +14240,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q61">
         <v>2.54</v>
@@ -14443,7 +14446,7 @@
         <v>93</v>
       </c>
       <c r="P62" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -14649,7 +14652,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q63">
         <v>2.1</v>
@@ -14936,7 +14939,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ64">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AR64">
         <v>2.12</v>
@@ -15267,7 +15270,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -15679,7 +15682,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q68">
         <v>2.3</v>
@@ -15885,7 +15888,7 @@
         <v>93</v>
       </c>
       <c r="P69" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q69">
         <v>2.88</v>
@@ -16091,7 +16094,7 @@
         <v>136</v>
       </c>
       <c r="P70" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -16297,7 +16300,7 @@
         <v>93</v>
       </c>
       <c r="P71" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q71">
         <v>3.75</v>
@@ -16503,7 +16506,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -16709,7 +16712,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q73">
         <v>2.3</v>
@@ -16915,7 +16918,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q74">
         <v>1.83</v>
@@ -16993,7 +16996,7 @@
         <v>1.33</v>
       </c>
       <c r="AP74">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ74">
         <v>1.39</v>
@@ -17945,7 +17948,7 @@
         <v>142</v>
       </c>
       <c r="P79" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q79">
         <v>2.5</v>
@@ -18026,7 +18029,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ79">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AR79">
         <v>1.92</v>
@@ -18357,7 +18360,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q81">
         <v>2.88</v>
@@ -18769,7 +18772,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q83">
         <v>2.7</v>
@@ -18975,7 +18978,7 @@
         <v>145</v>
       </c>
       <c r="P84" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q84">
         <v>4.1</v>
@@ -19593,7 +19596,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q87">
         <v>2.5</v>
@@ -20211,7 +20214,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q90">
         <v>3.04</v>
@@ -20623,7 +20626,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q92">
         <v>2.75</v>
@@ -21035,7 +21038,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -21241,7 +21244,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -21447,7 +21450,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q96">
         <v>4</v>
@@ -21653,7 +21656,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -22065,7 +22068,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -22146,7 +22149,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ99">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AR99">
         <v>1.31</v>
@@ -22477,7 +22480,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q101">
         <v>1.91</v>
@@ -22555,7 +22558,7 @@
         <v>0.6</v>
       </c>
       <c r="AP101">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ101">
         <v>0.5</v>
@@ -22683,7 +22686,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q102">
         <v>2.05</v>
@@ -23095,7 +23098,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q104">
         <v>3.75</v>
@@ -24331,7 +24334,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -24537,7 +24540,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24743,7 +24746,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q112">
         <v>2.5</v>
@@ -25567,7 +25570,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q116">
         <v>3.2</v>
@@ -25773,7 +25776,7 @@
         <v>130</v>
       </c>
       <c r="P117" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q117">
         <v>2.3</v>
@@ -25979,7 +25982,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -26263,7 +26266,7 @@
         <v>1.8</v>
       </c>
       <c r="AP119">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ119">
         <v>1.83</v>
@@ -26391,7 +26394,7 @@
         <v>93</v>
       </c>
       <c r="P120" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q120">
         <v>2.63</v>
@@ -26597,7 +26600,7 @@
         <v>168</v>
       </c>
       <c r="P121" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q121">
         <v>3.1</v>
@@ -26803,7 +26806,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -27421,7 +27424,7 @@
         <v>93</v>
       </c>
       <c r="P125" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q125">
         <v>4.37</v>
@@ -28039,7 +28042,7 @@
         <v>176</v>
       </c>
       <c r="P128" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -28451,7 +28454,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28657,7 +28660,7 @@
         <v>178</v>
       </c>
       <c r="P131" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q131">
         <v>3.75</v>
@@ -28738,7 +28741,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ131">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AR131">
         <v>1.6</v>
@@ -29687,7 +29690,7 @@
         <v>180</v>
       </c>
       <c r="P136" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q136">
         <v>2.25</v>
@@ -29971,7 +29974,7 @@
         <v>1.43</v>
       </c>
       <c r="AP137">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ137">
         <v>1.47</v>
@@ -31541,7 +31544,7 @@
         <v>143</v>
       </c>
       <c r="P145" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -31747,7 +31750,7 @@
         <v>93</v>
       </c>
       <c r="P146" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q146">
         <v>4</v>
@@ -31828,7 +31831,7 @@
         <v>1</v>
       </c>
       <c r="AQ146">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AR146">
         <v>1.65</v>
@@ -31953,7 +31956,7 @@
         <v>93</v>
       </c>
       <c r="P147" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q147">
         <v>3.6</v>
@@ -32159,7 +32162,7 @@
         <v>189</v>
       </c>
       <c r="P148" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q148">
         <v>3.75</v>
@@ -32571,7 +32574,7 @@
         <v>191</v>
       </c>
       <c r="P150" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q150">
         <v>1.91</v>
@@ -32777,7 +32780,7 @@
         <v>93</v>
       </c>
       <c r="P151" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q151">
         <v>3.4</v>
@@ -33189,7 +33192,7 @@
         <v>193</v>
       </c>
       <c r="P153" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q153">
         <v>4</v>
@@ -33395,7 +33398,7 @@
         <v>194</v>
       </c>
       <c r="P154" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q154">
         <v>2.75</v>
@@ -33601,7 +33604,7 @@
         <v>195</v>
       </c>
       <c r="P155" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q155">
         <v>1.91</v>
@@ -34631,7 +34634,7 @@
         <v>144</v>
       </c>
       <c r="P160" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q160">
         <v>2.25</v>
@@ -35043,7 +35046,7 @@
         <v>200</v>
       </c>
       <c r="P162" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q162">
         <v>2.55</v>
@@ -35124,7 +35127,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ162">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AR162">
         <v>1.64</v>
@@ -35327,7 +35330,7 @@
         <v>1.13</v>
       </c>
       <c r="AP163">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ163">
         <v>0.67</v>
@@ -35867,7 +35870,7 @@
         <v>203</v>
       </c>
       <c r="P166" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q166">
         <v>3.1</v>
@@ -36691,7 +36694,7 @@
         <v>206</v>
       </c>
       <c r="P170" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q170">
         <v>2.95</v>
@@ -36897,7 +36900,7 @@
         <v>207</v>
       </c>
       <c r="P171" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q171">
         <v>2.5</v>
@@ -37309,7 +37312,7 @@
         <v>208</v>
       </c>
       <c r="P173" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q173">
         <v>2.6</v>
@@ -38133,7 +38136,7 @@
         <v>211</v>
       </c>
       <c r="P177" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q177">
         <v>2.75</v>
@@ -38751,7 +38754,7 @@
         <v>93</v>
       </c>
       <c r="P180" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q180">
         <v>3.4</v>
@@ -38957,7 +38960,7 @@
         <v>214</v>
       </c>
       <c r="P181" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q181">
         <v>3.75</v>
@@ -39575,7 +39578,7 @@
         <v>216</v>
       </c>
       <c r="P184" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q184">
         <v>3.65</v>
@@ -39656,7 +39659,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ184">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AR184">
         <v>1.84</v>
@@ -39781,7 +39784,7 @@
         <v>217</v>
       </c>
       <c r="P185" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q185">
         <v>2.4</v>
@@ -39987,7 +39990,7 @@
         <v>93</v>
       </c>
       <c r="P186" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q186">
         <v>2.75</v>
@@ -40271,7 +40274,7 @@
         <v>1.67</v>
       </c>
       <c r="AP187">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ187">
         <v>2</v>
@@ -40605,7 +40608,7 @@
         <v>219</v>
       </c>
       <c r="P189" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q189">
         <v>3</v>
@@ -41223,7 +41226,7 @@
         <v>221</v>
       </c>
       <c r="P192" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q192">
         <v>3.4</v>
@@ -41429,7 +41432,7 @@
         <v>222</v>
       </c>
       <c r="P193" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q193">
         <v>3</v>
@@ -41635,7 +41638,7 @@
         <v>93</v>
       </c>
       <c r="P194" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q194">
         <v>1.91</v>
@@ -41841,7 +41844,7 @@
         <v>223</v>
       </c>
       <c r="P195" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q195">
         <v>2.25</v>
@@ -42047,7 +42050,7 @@
         <v>93</v>
       </c>
       <c r="P196" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q196">
         <v>2.3</v>
@@ -43077,7 +43080,7 @@
         <v>227</v>
       </c>
       <c r="P201" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q201">
         <v>3.5</v>
@@ -43361,7 +43364,7 @@
         <v>1.6</v>
       </c>
       <c r="AP202">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ202">
         <v>1.39</v>
@@ -43695,7 +43698,7 @@
         <v>140</v>
       </c>
       <c r="P204" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q204">
         <v>3.75</v>
@@ -44107,7 +44110,7 @@
         <v>156</v>
       </c>
       <c r="P206" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q206">
         <v>2.4</v>
@@ -44313,7 +44316,7 @@
         <v>229</v>
       </c>
       <c r="P207" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q207">
         <v>2.75</v>
@@ -44725,7 +44728,7 @@
         <v>93</v>
       </c>
       <c r="P209" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q209">
         <v>4.2</v>
@@ -45137,7 +45140,7 @@
         <v>231</v>
       </c>
       <c r="P211" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q211">
         <v>2.2</v>
@@ -45961,7 +45964,7 @@
         <v>235</v>
       </c>
       <c r="P215" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q215">
         <v>2.15</v>
@@ -46579,7 +46582,7 @@
         <v>104</v>
       </c>
       <c r="P218" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q218">
         <v>4.5</v>
@@ -46785,7 +46788,7 @@
         <v>237</v>
       </c>
       <c r="P219" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q219">
         <v>3.6</v>
@@ -46991,7 +46994,7 @@
         <v>93</v>
       </c>
       <c r="P220" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q220">
         <v>3.2</v>
@@ -47690,7 +47693,7 @@
         <v>2.28</v>
       </c>
       <c r="AQ223">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AR223">
         <v>1.66</v>
@@ -48305,7 +48308,7 @@
         <v>1.11</v>
       </c>
       <c r="AP226">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ226">
         <v>1.56</v>
@@ -48845,7 +48848,7 @@
         <v>246</v>
       </c>
       <c r="P229" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q229">
         <v>2.88</v>
@@ -49463,7 +49466,7 @@
         <v>249</v>
       </c>
       <c r="P232" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q232">
         <v>1.91</v>
@@ -50081,7 +50084,7 @@
         <v>241</v>
       </c>
       <c r="P235" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q235">
         <v>1.73</v>
@@ -50159,7 +50162,7 @@
         <v>0.82</v>
       </c>
       <c r="AP235">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ235">
         <v>0.9399999999999999</v>
@@ -50287,7 +50290,7 @@
         <v>252</v>
       </c>
       <c r="P236" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q236">
         <v>3.2</v>
@@ -50699,7 +50702,7 @@
         <v>104</v>
       </c>
       <c r="P238" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q238">
         <v>2.88</v>
@@ -51523,7 +51526,7 @@
         <v>257</v>
       </c>
       <c r="P242" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q242">
         <v>2.2</v>
@@ -51729,7 +51732,7 @@
         <v>258</v>
       </c>
       <c r="P243" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q243">
         <v>2.5</v>
@@ -51935,7 +51938,7 @@
         <v>93</v>
       </c>
       <c r="P244" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q244">
         <v>3.1</v>
@@ -52553,7 +52556,7 @@
         <v>260</v>
       </c>
       <c r="P247" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q247">
         <v>4.5</v>
@@ -52840,7 +52843,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ248">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AR248">
         <v>1.74</v>
@@ -52965,7 +52968,7 @@
         <v>262</v>
       </c>
       <c r="P249" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q249">
         <v>4.5</v>
@@ -54201,7 +54204,7 @@
         <v>265</v>
       </c>
       <c r="P255" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q255">
         <v>3.25</v>
@@ -54691,7 +54694,7 @@
         <v>1.42</v>
       </c>
       <c r="AP257">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ257">
         <v>1.12</v>
@@ -55437,7 +55440,7 @@
         <v>269</v>
       </c>
       <c r="P261" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q261">
         <v>3.1</v>
@@ -55643,7 +55646,7 @@
         <v>93</v>
       </c>
       <c r="P262" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q262">
         <v>3.55</v>
@@ -55724,7 +55727,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ262">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AR262">
         <v>1.47</v>
@@ -55849,7 +55852,7 @@
         <v>270</v>
       </c>
       <c r="P263" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q263">
         <v>4</v>
@@ -56055,7 +56058,7 @@
         <v>235</v>
       </c>
       <c r="P264" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q264">
         <v>2.2</v>
@@ -56261,7 +56264,7 @@
         <v>271</v>
       </c>
       <c r="P265" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q265">
         <v>3.35</v>
@@ -56673,7 +56676,7 @@
         <v>112</v>
       </c>
       <c r="P267" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q267">
         <v>4</v>
@@ -56879,7 +56882,7 @@
         <v>273</v>
       </c>
       <c r="P268" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q268">
         <v>3.75</v>
@@ -56960,7 +56963,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ268">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AR268">
         <v>1.52</v>
@@ -57291,7 +57294,7 @@
         <v>142</v>
       </c>
       <c r="P270" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q270">
         <v>4.5</v>
@@ -57497,7 +57500,7 @@
         <v>187</v>
       </c>
       <c r="P271" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q271">
         <v>3.25</v>
@@ -57784,7 +57787,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ272">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AR272">
         <v>1.69</v>
@@ -57909,7 +57912,7 @@
         <v>276</v>
       </c>
       <c r="P273" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q273">
         <v>2.05</v>
@@ -58321,7 +58324,7 @@
         <v>277</v>
       </c>
       <c r="P275" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q275">
         <v>2.2</v>
@@ -58527,7 +58530,7 @@
         <v>278</v>
       </c>
       <c r="P276" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q276">
         <v>2.1</v>
@@ -58605,7 +58608,7 @@
         <v>1.14</v>
       </c>
       <c r="AP276">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ276">
         <v>0.9399999999999999</v>
@@ -58733,7 +58736,7 @@
         <v>93</v>
       </c>
       <c r="P277" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q277">
         <v>2.75</v>
@@ -58939,7 +58942,7 @@
         <v>156</v>
       </c>
       <c r="P278" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q278">
         <v>3.5</v>
@@ -59145,7 +59148,7 @@
         <v>103</v>
       </c>
       <c r="P279" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q279">
         <v>3.1</v>
@@ -59557,7 +59560,7 @@
         <v>93</v>
       </c>
       <c r="P281" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Q281">
         <v>4.53</v>
@@ -60587,7 +60590,7 @@
         <v>283</v>
       </c>
       <c r="P286" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Q286">
         <v>2.57</v>
@@ -60793,7 +60796,7 @@
         <v>93</v>
       </c>
       <c r="P287" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q287">
         <v>3.7</v>
@@ -61617,7 +61620,7 @@
         <v>286</v>
       </c>
       <c r="P291" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Q291">
         <v>2.5</v>
@@ -61901,7 +61904,7 @@
         <v>1.29</v>
       </c>
       <c r="AP292">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ292">
         <v>1.24</v>
@@ -62029,7 +62032,7 @@
         <v>93</v>
       </c>
       <c r="P293" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Q293">
         <v>3.25</v>
@@ -62235,7 +62238,7 @@
         <v>288</v>
       </c>
       <c r="P294" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Q294">
         <v>2.5</v>
@@ -62647,7 +62650,7 @@
         <v>93</v>
       </c>
       <c r="P296" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Q296">
         <v>2</v>
@@ -62853,7 +62856,7 @@
         <v>93</v>
       </c>
       <c r="P297" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Q297">
         <v>3.6</v>
@@ -62934,7 +62937,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ297">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AR297">
         <v>1.66</v>
@@ -63265,7 +63268,7 @@
         <v>291</v>
       </c>
       <c r="P299" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Q299">
         <v>4</v>
@@ -64707,7 +64710,7 @@
         <v>93</v>
       </c>
       <c r="P306" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q306">
         <v>4.75</v>
@@ -65325,7 +65328,7 @@
         <v>297</v>
       </c>
       <c r="P309" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Q309">
         <v>3</v>
@@ -65737,7 +65740,7 @@
         <v>298</v>
       </c>
       <c r="P311" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Q311">
         <v>2.4</v>
@@ -65943,7 +65946,7 @@
         <v>299</v>
       </c>
       <c r="P312" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Q312">
         <v>2.88</v>
@@ -66227,7 +66230,7 @@
         <v>0.53</v>
       </c>
       <c r="AP313">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ313">
         <v>0.44</v>
@@ -66355,7 +66358,7 @@
         <v>301</v>
       </c>
       <c r="P314" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Q314">
         <v>3.5</v>
@@ -66436,7 +66439,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ314">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AR314">
         <v>1.6</v>
@@ -66561,7 +66564,7 @@
         <v>102</v>
       </c>
       <c r="P315" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Q315">
         <v>2.38</v>
@@ -66767,7 +66770,7 @@
         <v>302</v>
       </c>
       <c r="P316" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q316">
         <v>2.2</v>
@@ -66973,7 +66976,7 @@
         <v>93</v>
       </c>
       <c r="P317" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Q317">
         <v>4</v>
@@ -67385,7 +67388,7 @@
         <v>303</v>
       </c>
       <c r="P319" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Q319">
         <v>3.4</v>
@@ -67797,7 +67800,7 @@
         <v>304</v>
       </c>
       <c r="P321" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Q321">
         <v>2.3</v>
@@ -68827,7 +68830,7 @@
         <v>309</v>
       </c>
       <c r="P326" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Q326">
         <v>4.2</v>
@@ -69033,7 +69036,7 @@
         <v>310</v>
       </c>
       <c r="P327" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q327">
         <v>3.25</v>
@@ -69239,7 +69242,7 @@
         <v>311</v>
       </c>
       <c r="P328" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q328">
         <v>2.75</v>
@@ -69857,7 +69860,7 @@
         <v>314</v>
       </c>
       <c r="P331" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Q331">
         <v>2</v>
@@ -70141,7 +70144,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP332">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ332">
         <v>0.5</v>
@@ -70556,7 +70559,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ334">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AR334">
         <v>1.96</v>
@@ -71505,7 +71508,7 @@
         <v>322</v>
       </c>
       <c r="P339" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Q339">
         <v>2.63</v>
@@ -72329,7 +72332,7 @@
         <v>93</v>
       </c>
       <c r="P343" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Q343">
         <v>3.75</v>
@@ -72535,7 +72538,7 @@
         <v>324</v>
       </c>
       <c r="P344" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Q344">
         <v>2.25</v>
@@ -73771,7 +73774,7 @@
         <v>329</v>
       </c>
       <c r="P350" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Q350">
         <v>1.73</v>
@@ -73977,7 +73980,7 @@
         <v>301</v>
       </c>
       <c r="P351" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="Q351">
         <v>2.88</v>
@@ -74183,7 +74186,7 @@
         <v>147</v>
       </c>
       <c r="P352" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="Q352">
         <v>3.35</v>
@@ -74957,6 +74960,212 @@
         <v>0</v>
       </c>
       <c r="BP355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:68">
+      <c r="A356" s="1">
+        <v>355</v>
+      </c>
+      <c r="B356">
+        <v>7465794</v>
+      </c>
+      <c r="C356" t="s">
+        <v>68</v>
+      </c>
+      <c r="D356" t="s">
+        <v>69</v>
+      </c>
+      <c r="E356" s="2">
+        <v>45774.48958333334</v>
+      </c>
+      <c r="F356">
+        <v>36</v>
+      </c>
+      <c r="G356" t="s">
+        <v>83</v>
+      </c>
+      <c r="H356" t="s">
+        <v>71</v>
+      </c>
+      <c r="I356">
+        <v>2</v>
+      </c>
+      <c r="J356">
+        <v>0</v>
+      </c>
+      <c r="K356">
+        <v>2</v>
+      </c>
+      <c r="L356">
+        <v>2</v>
+      </c>
+      <c r="M356">
+        <v>0</v>
+      </c>
+      <c r="N356">
+        <v>2</v>
+      </c>
+      <c r="O356" t="s">
+        <v>333</v>
+      </c>
+      <c r="P356" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q356">
+        <v>2.05</v>
+      </c>
+      <c r="R356">
+        <v>2.5</v>
+      </c>
+      <c r="S356">
+        <v>5</v>
+      </c>
+      <c r="T356">
+        <v>1.25</v>
+      </c>
+      <c r="U356">
+        <v>3.75</v>
+      </c>
+      <c r="V356">
+        <v>2.2</v>
+      </c>
+      <c r="W356">
+        <v>1.62</v>
+      </c>
+      <c r="X356">
+        <v>5</v>
+      </c>
+      <c r="Y356">
+        <v>1.17</v>
+      </c>
+      <c r="Z356">
+        <v>1.53</v>
+      </c>
+      <c r="AA356">
+        <v>4.33</v>
+      </c>
+      <c r="AB356">
+        <v>5.5</v>
+      </c>
+      <c r="AC356">
+        <v>0</v>
+      </c>
+      <c r="AD356">
+        <v>0</v>
+      </c>
+      <c r="AE356">
+        <v>0</v>
+      </c>
+      <c r="AF356">
+        <v>0</v>
+      </c>
+      <c r="AG356">
+        <v>1.5</v>
+      </c>
+      <c r="AH356">
+        <v>2.5</v>
+      </c>
+      <c r="AI356">
+        <v>1.57</v>
+      </c>
+      <c r="AJ356">
+        <v>2.25</v>
+      </c>
+      <c r="AK356">
+        <v>0</v>
+      </c>
+      <c r="AL356">
+        <v>0</v>
+      </c>
+      <c r="AM356">
+        <v>0</v>
+      </c>
+      <c r="AN356">
+        <v>2.29</v>
+      </c>
+      <c r="AO356">
+        <v>1.82</v>
+      </c>
+      <c r="AP356">
+        <v>2.33</v>
+      </c>
+      <c r="AQ356">
+        <v>1.72</v>
+      </c>
+      <c r="AR356">
+        <v>2.05</v>
+      </c>
+      <c r="AS356">
+        <v>1.54</v>
+      </c>
+      <c r="AT356">
+        <v>3.59</v>
+      </c>
+      <c r="AU356">
+        <v>5</v>
+      </c>
+      <c r="AV356">
+        <v>2</v>
+      </c>
+      <c r="AW356">
+        <v>9</v>
+      </c>
+      <c r="AX356">
+        <v>4</v>
+      </c>
+      <c r="AY356">
+        <v>15</v>
+      </c>
+      <c r="AZ356">
+        <v>6</v>
+      </c>
+      <c r="BA356">
+        <v>6</v>
+      </c>
+      <c r="BB356">
+        <v>0</v>
+      </c>
+      <c r="BC356">
+        <v>6</v>
+      </c>
+      <c r="BD356">
+        <v>0</v>
+      </c>
+      <c r="BE356">
+        <v>0</v>
+      </c>
+      <c r="BF356">
+        <v>0</v>
+      </c>
+      <c r="BG356">
+        <v>0</v>
+      </c>
+      <c r="BH356">
+        <v>0</v>
+      </c>
+      <c r="BI356">
+        <v>0</v>
+      </c>
+      <c r="BJ356">
+        <v>0</v>
+      </c>
+      <c r="BK356">
+        <v>0</v>
+      </c>
+      <c r="BL356">
+        <v>0</v>
+      </c>
+      <c r="BM356">
+        <v>0</v>
+      </c>
+      <c r="BN356">
+        <v>0</v>
+      </c>
+      <c r="BO356">
+        <v>0</v>
+      </c>
+      <c r="BP356">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Netherlands Eerste Divisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2198" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="488">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1018,6 +1018,12 @@
     <t>['7', '37']</t>
   </si>
   <si>
+    <t>['47', '49', '59']</t>
+  </si>
+  <si>
+    <t>['36', '42']</t>
+  </si>
+  <si>
     <t>['5', '18']</t>
   </si>
   <si>
@@ -1467,6 +1473,12 @@
   <si>
     <t>['29']</t>
   </si>
+  <si>
+    <t>['32', '54', '65']</t>
+  </si>
+  <si>
+    <t>['29', '75']</t>
+  </si>
 </sst>
 </file>
 
@@ -1827,7 +1839,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP356"/>
+  <dimension ref="A1:BP361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2167,7 +2179,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ2">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2292,7 +2304,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -2498,7 +2510,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -2910,7 +2922,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -3116,7 +3128,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -3322,7 +3334,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -3528,7 +3540,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3609,7 +3621,7 @@
         <v>2.28</v>
       </c>
       <c r="AQ9">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3812,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ10">
         <v>0.9399999999999999</v>
@@ -3940,7 +3952,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -4018,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ11">
         <v>0.67</v>
@@ -4224,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ12">
         <v>0.9399999999999999</v>
@@ -4352,7 +4364,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -4433,7 +4445,7 @@
         <v>2</v>
       </c>
       <c r="AQ13">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4845,7 +4857,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ15">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4970,7 +4982,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -5048,7 +5060,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ16">
         <v>0.83</v>
@@ -5669,7 +5681,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ19">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5794,7 +5806,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -6078,7 +6090,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ21">
         <v>0.5</v>
@@ -6493,7 +6505,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ23">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR23">
         <v>2.16</v>
@@ -6824,7 +6836,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q25">
         <v>1.78</v>
@@ -7030,7 +7042,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -7111,7 +7123,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ26">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR26">
         <v>1.18</v>
@@ -7236,7 +7248,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q27">
         <v>2.39</v>
@@ -7648,7 +7660,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7726,7 +7738,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ29">
         <v>0.9399999999999999</v>
@@ -7932,7 +7944,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ30">
         <v>1.39</v>
@@ -8060,7 +8072,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -8138,7 +8150,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ31">
         <v>1.22</v>
@@ -8347,7 +8359,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ32">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR32">
         <v>1.27</v>
@@ -8678,7 +8690,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q34">
         <v>2.5</v>
@@ -8884,7 +8896,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q35">
         <v>3.6</v>
@@ -8962,7 +8974,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ35">
         <v>1.72</v>
@@ -9502,7 +9514,7 @@
         <v>93</v>
       </c>
       <c r="P38" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -9708,7 +9720,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9786,10 +9798,10 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ39">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR39">
         <v>2.22</v>
@@ -10120,7 +10132,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q41">
         <v>2.41</v>
@@ -10201,7 +10213,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ41">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR41">
         <v>1.77</v>
@@ -10407,7 +10419,7 @@
         <v>2.28</v>
       </c>
       <c r="AQ42">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR42">
         <v>1.53</v>
@@ -10944,7 +10956,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -11022,7 +11034,7 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ45">
         <v>0.44</v>
@@ -11150,7 +11162,7 @@
         <v>93</v>
       </c>
       <c r="P46" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q46">
         <v>2.6</v>
@@ -11434,7 +11446,7 @@
         <v>3</v>
       </c>
       <c r="AP47">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ47">
         <v>0.9399999999999999</v>
@@ -11562,7 +11574,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11643,7 +11655,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ48">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR48">
         <v>1.9</v>
@@ -11974,7 +11986,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q50">
         <v>2.1</v>
@@ -12055,7 +12067,7 @@
         <v>2.28</v>
       </c>
       <c r="AQ50">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR50">
         <v>1.58</v>
@@ -12180,7 +12192,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -12386,7 +12398,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q52">
         <v>2.77</v>
@@ -13210,7 +13222,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q56">
         <v>2.3</v>
@@ -13622,7 +13634,7 @@
         <v>93</v>
       </c>
       <c r="P58" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13700,10 +13712,10 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ58">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR58">
         <v>1.06</v>
@@ -13906,7 +13918,7 @@
         <v>0.5</v>
       </c>
       <c r="AP59">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ59">
         <v>1.56</v>
@@ -14240,7 +14252,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q61">
         <v>2.54</v>
@@ -14318,7 +14330,7 @@
         <v>0.5</v>
       </c>
       <c r="AP61">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ61">
         <v>1.39</v>
@@ -14446,7 +14458,7 @@
         <v>93</v>
       </c>
       <c r="P62" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -14524,7 +14536,7 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ62">
         <v>0.83</v>
@@ -14652,7 +14664,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q63">
         <v>2.1</v>
@@ -14733,7 +14745,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ63">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR63">
         <v>1.46</v>
@@ -15270,7 +15282,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -15682,7 +15694,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q68">
         <v>2.3</v>
@@ -15888,7 +15900,7 @@
         <v>93</v>
       </c>
       <c r="P69" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q69">
         <v>2.88</v>
@@ -15969,7 +15981,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ69">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR69">
         <v>1.43</v>
@@ -16094,7 +16106,7 @@
         <v>136</v>
       </c>
       <c r="P70" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -16172,10 +16184,10 @@
         <v>1.5</v>
       </c>
       <c r="AP70">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ70">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR70">
         <v>1.9</v>
@@ -16300,7 +16312,7 @@
         <v>93</v>
       </c>
       <c r="P71" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q71">
         <v>3.75</v>
@@ -16378,7 +16390,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ71">
         <v>1.83</v>
@@ -16506,7 +16518,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -16712,7 +16724,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q73">
         <v>2.3</v>
@@ -16918,7 +16930,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q74">
         <v>1.83</v>
@@ -17617,7 +17629,7 @@
         <v>2</v>
       </c>
       <c r="AQ77">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR77">
         <v>1.86</v>
@@ -17948,7 +17960,7 @@
         <v>142</v>
       </c>
       <c r="P79" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q79">
         <v>2.5</v>
@@ -18232,7 +18244,7 @@
         <v>1</v>
       </c>
       <c r="AP80">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ80">
         <v>1.39</v>
@@ -18360,7 +18372,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q81">
         <v>2.88</v>
@@ -18438,10 +18450,10 @@
         <v>2.33</v>
       </c>
       <c r="AP81">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ81">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR81">
         <v>1.73</v>
@@ -18644,7 +18656,7 @@
         <v>1.5</v>
       </c>
       <c r="AP82">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ82">
         <v>1.83</v>
@@ -18772,7 +18784,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q83">
         <v>2.7</v>
@@ -18853,7 +18865,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ83">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR83">
         <v>1.68</v>
@@ -18978,7 +18990,7 @@
         <v>145</v>
       </c>
       <c r="P84" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q84">
         <v>4.1</v>
@@ -19468,7 +19480,7 @@
         <v>1.75</v>
       </c>
       <c r="AP86">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ86">
         <v>1.22</v>
@@ -19596,7 +19608,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q87">
         <v>2.5</v>
@@ -19674,10 +19686,10 @@
         <v>1.75</v>
       </c>
       <c r="AP87">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ87">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR87">
         <v>1.95</v>
@@ -20214,7 +20226,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q90">
         <v>3.04</v>
@@ -20295,7 +20307,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ90">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR90">
         <v>1.95</v>
@@ -20626,7 +20638,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q92">
         <v>2.75</v>
@@ -20707,7 +20719,7 @@
         <v>2</v>
       </c>
       <c r="AQ92">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR92">
         <v>1.75</v>
@@ -21038,7 +21050,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -21116,10 +21128,10 @@
         <v>2.5</v>
       </c>
       <c r="AP94">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ94">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR94">
         <v>1.92</v>
@@ -21244,7 +21256,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -21322,7 +21334,7 @@
         <v>1.4</v>
       </c>
       <c r="AP95">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ95">
         <v>1.39</v>
@@ -21450,7 +21462,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q96">
         <v>4</v>
@@ -21656,7 +21668,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -21737,7 +21749,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ97">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR97">
         <v>1.77</v>
@@ -21940,7 +21952,7 @@
         <v>0.75</v>
       </c>
       <c r="AP98">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ98">
         <v>0.44</v>
@@ -22068,7 +22080,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -22480,7 +22492,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q101">
         <v>1.91</v>
@@ -22686,7 +22698,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q102">
         <v>2.05</v>
@@ -23098,7 +23110,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q104">
         <v>3.75</v>
@@ -23176,7 +23188,7 @@
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ104">
         <v>1.61</v>
@@ -23382,7 +23394,7 @@
         <v>1.25</v>
       </c>
       <c r="AP105">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ105">
         <v>1.56</v>
@@ -23797,7 +23809,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ107">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR107">
         <v>1.77</v>
@@ -24206,7 +24218,7 @@
         <v>1</v>
       </c>
       <c r="AP109">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ109">
         <v>1.39</v>
@@ -24334,7 +24346,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -24540,7 +24552,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24621,7 +24633,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ111">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR111">
         <v>1.8</v>
@@ -24746,7 +24758,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q112">
         <v>2.5</v>
@@ -24827,7 +24839,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ112">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR112">
         <v>1.74</v>
@@ -25239,7 +25251,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ114">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR114">
         <v>1.84</v>
@@ -25570,7 +25582,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q116">
         <v>3.2</v>
@@ -25776,7 +25788,7 @@
         <v>130</v>
       </c>
       <c r="P117" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q117">
         <v>2.3</v>
@@ -25982,7 +25994,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -26060,10 +26072,10 @@
         <v>1.4</v>
       </c>
       <c r="AP118">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ118">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR118">
         <v>1.66</v>
@@ -26394,7 +26406,7 @@
         <v>93</v>
       </c>
       <c r="P120" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q120">
         <v>2.63</v>
@@ -26600,7 +26612,7 @@
         <v>168</v>
       </c>
       <c r="P121" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q121">
         <v>3.1</v>
@@ -26681,7 +26693,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ121">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR121">
         <v>1.74</v>
@@ -26806,7 +26818,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -26884,7 +26896,7 @@
         <v>2</v>
       </c>
       <c r="AP122">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ122">
         <v>1.83</v>
@@ -27090,7 +27102,7 @@
         <v>0.8</v>
       </c>
       <c r="AP123">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ123">
         <v>1.17</v>
@@ -27424,7 +27436,7 @@
         <v>93</v>
       </c>
       <c r="P125" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q125">
         <v>4.37</v>
@@ -28042,7 +28054,7 @@
         <v>176</v>
       </c>
       <c r="P128" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -28123,7 +28135,7 @@
         <v>2</v>
       </c>
       <c r="AQ128">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR128">
         <v>1.75</v>
@@ -28454,7 +28466,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28532,7 +28544,7 @@
         <v>0.5</v>
       </c>
       <c r="AP130">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ130">
         <v>0.5</v>
@@ -28660,7 +28672,7 @@
         <v>178</v>
       </c>
       <c r="P131" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q131">
         <v>3.75</v>
@@ -28738,7 +28750,7 @@
         <v>2.4</v>
       </c>
       <c r="AP131">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ131">
         <v>1.72</v>
@@ -28947,7 +28959,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ132">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR132">
         <v>1.8</v>
@@ -29150,7 +29162,7 @@
         <v>1.17</v>
       </c>
       <c r="AP133">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ133">
         <v>1.39</v>
@@ -29359,7 +29371,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ134">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR134">
         <v>1.22</v>
@@ -29690,7 +29702,7 @@
         <v>180</v>
       </c>
       <c r="P136" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q136">
         <v>2.25</v>
@@ -29977,7 +29989,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ137">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR137">
         <v>1.83</v>
@@ -30801,7 +30813,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ141">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR141">
         <v>2.06</v>
@@ -31544,7 +31556,7 @@
         <v>143</v>
       </c>
       <c r="P145" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -31622,10 +31634,10 @@
         <v>1.57</v>
       </c>
       <c r="AP145">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ145">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR145">
         <v>1.6</v>
@@ -31750,7 +31762,7 @@
         <v>93</v>
       </c>
       <c r="P146" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q146">
         <v>4</v>
@@ -31828,7 +31840,7 @@
         <v>2.5</v>
       </c>
       <c r="AP146">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ146">
         <v>1.72</v>
@@ -31956,7 +31968,7 @@
         <v>93</v>
       </c>
       <c r="P147" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q147">
         <v>3.6</v>
@@ -32162,7 +32174,7 @@
         <v>189</v>
       </c>
       <c r="P148" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q148">
         <v>3.75</v>
@@ -32240,7 +32252,7 @@
         <v>0.88</v>
       </c>
       <c r="AP148">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ148">
         <v>0.9399999999999999</v>
@@ -32446,7 +32458,7 @@
         <v>1.5</v>
       </c>
       <c r="AP149">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ149">
         <v>1.22</v>
@@ -32574,7 +32586,7 @@
         <v>191</v>
       </c>
       <c r="P150" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q150">
         <v>1.91</v>
@@ -32655,7 +32667,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ150">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR150">
         <v>1.63</v>
@@ -32780,7 +32792,7 @@
         <v>93</v>
       </c>
       <c r="P151" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q151">
         <v>3.4</v>
@@ -33192,7 +33204,7 @@
         <v>193</v>
       </c>
       <c r="P153" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Q153">
         <v>4</v>
@@ -33270,7 +33282,7 @@
         <v>1.5</v>
       </c>
       <c r="AP153">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ153">
         <v>1.56</v>
@@ -33398,7 +33410,7 @@
         <v>194</v>
       </c>
       <c r="P154" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q154">
         <v>2.75</v>
@@ -33476,7 +33488,7 @@
         <v>1.43</v>
       </c>
       <c r="AP154">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ154">
         <v>1.39</v>
@@ -33604,7 +33616,7 @@
         <v>195</v>
       </c>
       <c r="P155" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q155">
         <v>1.91</v>
@@ -33891,7 +33903,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ156">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR156">
         <v>1.76</v>
@@ -34634,7 +34646,7 @@
         <v>144</v>
       </c>
       <c r="P160" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Q160">
         <v>2.25</v>
@@ -34715,7 +34727,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ160">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR160">
         <v>1.85</v>
@@ -34918,7 +34930,7 @@
         <v>1.75</v>
       </c>
       <c r="AP161">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ161">
         <v>1.61</v>
@@ -35046,7 +35058,7 @@
         <v>200</v>
       </c>
       <c r="P162" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q162">
         <v>2.55</v>
@@ -35745,7 +35757,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ165">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR165">
         <v>1.91</v>
@@ -35870,7 +35882,7 @@
         <v>203</v>
       </c>
       <c r="P166" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q166">
         <v>3.1</v>
@@ -36157,7 +36169,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ167">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR167">
         <v>1.58</v>
@@ -36694,7 +36706,7 @@
         <v>206</v>
       </c>
       <c r="P170" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Q170">
         <v>2.95</v>
@@ -36900,7 +36912,7 @@
         <v>207</v>
       </c>
       <c r="P171" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Q171">
         <v>2.5</v>
@@ -36978,7 +36990,7 @@
         <v>0.5</v>
       </c>
       <c r="AP171">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ171">
         <v>0.5</v>
@@ -37184,7 +37196,7 @@
         <v>0.5</v>
       </c>
       <c r="AP172">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ172">
         <v>0.5</v>
@@ -37312,7 +37324,7 @@
         <v>208</v>
       </c>
       <c r="P173" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="Q173">
         <v>2.6</v>
@@ -38011,7 +38023,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ176">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR176">
         <v>1.56</v>
@@ -38136,7 +38148,7 @@
         <v>211</v>
       </c>
       <c r="P177" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Q177">
         <v>2.75</v>
@@ -38626,10 +38638,10 @@
         <v>1.25</v>
       </c>
       <c r="AP179">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ179">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR179">
         <v>1.58</v>
@@ -38754,7 +38766,7 @@
         <v>93</v>
       </c>
       <c r="P180" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q180">
         <v>3.4</v>
@@ -38832,10 +38844,10 @@
         <v>1.44</v>
       </c>
       <c r="AP180">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ180">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR180">
         <v>1.44</v>
@@ -38960,7 +38972,7 @@
         <v>214</v>
       </c>
       <c r="P181" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Q181">
         <v>3.75</v>
@@ -39038,7 +39050,7 @@
         <v>1.11</v>
       </c>
       <c r="AP181">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ181">
         <v>0.9399999999999999</v>
@@ -39247,7 +39259,7 @@
         <v>2</v>
       </c>
       <c r="AQ182">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR182">
         <v>1.69</v>
@@ -39578,7 +39590,7 @@
         <v>216</v>
       </c>
       <c r="P184" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Q184">
         <v>3.65</v>
@@ -39656,7 +39668,7 @@
         <v>2.25</v>
       </c>
       <c r="AP184">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ184">
         <v>1.72</v>
@@ -39784,7 +39796,7 @@
         <v>217</v>
       </c>
       <c r="P185" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="Q185">
         <v>2.4</v>
@@ -39990,7 +40002,7 @@
         <v>93</v>
       </c>
       <c r="P186" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="Q186">
         <v>2.75</v>
@@ -40277,7 +40289,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ187">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR187">
         <v>1.79</v>
@@ -40608,7 +40620,7 @@
         <v>219</v>
       </c>
       <c r="P189" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q189">
         <v>3</v>
@@ -41226,7 +41238,7 @@
         <v>221</v>
       </c>
       <c r="P192" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Q192">
         <v>3.4</v>
@@ -41304,10 +41316,10 @@
         <v>1.78</v>
       </c>
       <c r="AP192">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ192">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR192">
         <v>1.35</v>
@@ -41432,7 +41444,7 @@
         <v>222</v>
       </c>
       <c r="P193" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="Q193">
         <v>3</v>
@@ -41510,7 +41522,7 @@
         <v>1</v>
       </c>
       <c r="AP193">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ193">
         <v>0.9399999999999999</v>
@@ -41638,7 +41650,7 @@
         <v>93</v>
       </c>
       <c r="P194" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="Q194">
         <v>1.91</v>
@@ -41844,7 +41856,7 @@
         <v>223</v>
       </c>
       <c r="P195" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="Q195">
         <v>2.25</v>
@@ -41925,7 +41937,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ195">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR195">
         <v>1.91</v>
@@ -42050,7 +42062,7 @@
         <v>93</v>
       </c>
       <c r="P196" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="Q196">
         <v>2.3</v>
@@ -42131,7 +42143,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ196">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR196">
         <v>1.66</v>
@@ -42334,7 +42346,7 @@
         <v>1.6</v>
       </c>
       <c r="AP197">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ197">
         <v>1.61</v>
@@ -42543,7 +42555,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ198">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR198">
         <v>1.99</v>
@@ -43080,7 +43092,7 @@
         <v>227</v>
       </c>
       <c r="P201" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q201">
         <v>3.5</v>
@@ -43158,7 +43170,7 @@
         <v>1.3</v>
       </c>
       <c r="AP201">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ201">
         <v>0.9399999999999999</v>
@@ -43698,7 +43710,7 @@
         <v>140</v>
       </c>
       <c r="P204" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="Q204">
         <v>3.75</v>
@@ -43779,7 +43791,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ204">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR204">
         <v>1.4</v>
@@ -44110,7 +44122,7 @@
         <v>156</v>
       </c>
       <c r="P206" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="Q206">
         <v>2.4</v>
@@ -44316,7 +44328,7 @@
         <v>229</v>
       </c>
       <c r="P207" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q207">
         <v>2.75</v>
@@ -44394,7 +44406,7 @@
         <v>0.9</v>
       </c>
       <c r="AP207">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ207">
         <v>0.67</v>
@@ -44600,7 +44612,7 @@
         <v>1.09</v>
       </c>
       <c r="AP208">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ208">
         <v>1.22</v>
@@ -44728,7 +44740,7 @@
         <v>93</v>
       </c>
       <c r="P209" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="Q209">
         <v>4.2</v>
@@ -45140,7 +45152,7 @@
         <v>231</v>
       </c>
       <c r="P211" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="Q211">
         <v>2.2</v>
@@ -45633,7 +45645,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ213">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR213">
         <v>1.86</v>
@@ -45839,7 +45851,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ214">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR214">
         <v>1.73</v>
@@ -45964,7 +45976,7 @@
         <v>235</v>
       </c>
       <c r="P215" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="Q215">
         <v>2.15</v>
@@ -46045,7 +46057,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ215">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR215">
         <v>1.65</v>
@@ -46454,7 +46466,7 @@
         <v>1.18</v>
       </c>
       <c r="AP217">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ217">
         <v>0.83</v>
@@ -46582,7 +46594,7 @@
         <v>104</v>
       </c>
       <c r="P218" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="Q218">
         <v>4.5</v>
@@ -46660,10 +46672,10 @@
         <v>1</v>
       </c>
       <c r="AP218">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ218">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR218">
         <v>1.39</v>
@@ -46788,7 +46800,7 @@
         <v>237</v>
       </c>
       <c r="P219" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="Q219">
         <v>3.6</v>
@@ -46994,7 +47006,7 @@
         <v>93</v>
       </c>
       <c r="P220" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="Q220">
         <v>3.2</v>
@@ -48848,7 +48860,7 @@
         <v>246</v>
       </c>
       <c r="P229" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="Q229">
         <v>2.88</v>
@@ -48926,7 +48938,7 @@
         <v>1.3</v>
       </c>
       <c r="AP229">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ229">
         <v>1.17</v>
@@ -49341,7 +49353,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ231">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR231">
         <v>1.8</v>
@@ -49466,7 +49478,7 @@
         <v>249</v>
       </c>
       <c r="P232" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="Q232">
         <v>1.91</v>
@@ -49753,7 +49765,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ233">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR233">
         <v>1.81</v>
@@ -49959,7 +49971,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ234">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR234">
         <v>1.77</v>
@@ -50084,7 +50096,7 @@
         <v>241</v>
       </c>
       <c r="P235" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="Q235">
         <v>1.73</v>
@@ -50290,7 +50302,7 @@
         <v>252</v>
       </c>
       <c r="P236" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="Q236">
         <v>3.2</v>
@@ -50577,7 +50589,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ237">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR237">
         <v>1.48</v>
@@ -50702,7 +50714,7 @@
         <v>104</v>
       </c>
       <c r="P238" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="Q238">
         <v>2.88</v>
@@ -50986,7 +50998,7 @@
         <v>1.45</v>
       </c>
       <c r="AP239">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ239">
         <v>1.17</v>
@@ -51195,7 +51207,7 @@
         <v>2.28</v>
       </c>
       <c r="AQ240">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR240">
         <v>1.82</v>
@@ -51526,7 +51538,7 @@
         <v>257</v>
       </c>
       <c r="P242" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="Q242">
         <v>2.2</v>
@@ -51732,7 +51744,7 @@
         <v>258</v>
       </c>
       <c r="P243" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="Q243">
         <v>2.5</v>
@@ -51938,7 +51950,7 @@
         <v>93</v>
       </c>
       <c r="P244" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="Q244">
         <v>3.1</v>
@@ -52222,7 +52234,7 @@
         <v>0.58</v>
       </c>
       <c r="AP245">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ245">
         <v>0.5</v>
@@ -52556,7 +52568,7 @@
         <v>260</v>
       </c>
       <c r="P247" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="Q247">
         <v>4.5</v>
@@ -52634,7 +52646,7 @@
         <v>2.08</v>
       </c>
       <c r="AP247">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ247">
         <v>1.83</v>
@@ -52968,7 +52980,7 @@
         <v>262</v>
       </c>
       <c r="P249" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="Q249">
         <v>4.5</v>
@@ -53046,7 +53058,7 @@
         <v>1.42</v>
       </c>
       <c r="AP249">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ249">
         <v>1.61</v>
@@ -53873,7 +53885,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ253">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR253">
         <v>1.74</v>
@@ -54204,7 +54216,7 @@
         <v>265</v>
       </c>
       <c r="P255" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="Q255">
         <v>3.25</v>
@@ -54285,7 +54297,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ255">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR255">
         <v>1.7</v>
@@ -54491,7 +54503,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ256">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR256">
         <v>1.77</v>
@@ -54697,7 +54709,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ257">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR257">
         <v>1.84</v>
@@ -55315,7 +55327,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ260">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR260">
         <v>1.97</v>
@@ -55440,7 +55452,7 @@
         <v>269</v>
       </c>
       <c r="P261" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="Q261">
         <v>3.1</v>
@@ -55646,7 +55658,7 @@
         <v>93</v>
       </c>
       <c r="P262" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="Q262">
         <v>3.55</v>
@@ -55852,7 +55864,7 @@
         <v>270</v>
       </c>
       <c r="P263" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="Q263">
         <v>4</v>
@@ -55930,10 +55942,10 @@
         <v>1.69</v>
       </c>
       <c r="AP263">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ263">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR263">
         <v>1.63</v>
@@ -56058,7 +56070,7 @@
         <v>235</v>
       </c>
       <c r="P264" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="Q264">
         <v>2.2</v>
@@ -56264,7 +56276,7 @@
         <v>271</v>
       </c>
       <c r="P265" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="Q265">
         <v>3.35</v>
@@ -56548,7 +56560,7 @@
         <v>2.15</v>
       </c>
       <c r="AP266">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ266">
         <v>1.83</v>
@@ -56676,7 +56688,7 @@
         <v>112</v>
       </c>
       <c r="P267" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="Q267">
         <v>4</v>
@@ -56754,7 +56766,7 @@
         <v>1.69</v>
       </c>
       <c r="AP267">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ267">
         <v>1.39</v>
@@ -56882,7 +56894,7 @@
         <v>273</v>
       </c>
       <c r="P268" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Q268">
         <v>3.75</v>
@@ -57294,7 +57306,7 @@
         <v>142</v>
       </c>
       <c r="P270" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="Q270">
         <v>4.5</v>
@@ -57372,10 +57384,10 @@
         <v>0.92</v>
       </c>
       <c r="AP270">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ270">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR270">
         <v>1.51</v>
@@ -57500,7 +57512,7 @@
         <v>187</v>
       </c>
       <c r="P271" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="Q271">
         <v>3.25</v>
@@ -57578,7 +57590,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP271">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ271">
         <v>0.67</v>
@@ -57912,7 +57924,7 @@
         <v>276</v>
       </c>
       <c r="P273" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="Q273">
         <v>2.05</v>
@@ -57993,7 +58005,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ273">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR273">
         <v>1.87</v>
@@ -58324,7 +58336,7 @@
         <v>277</v>
       </c>
       <c r="P275" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="Q275">
         <v>2.2</v>
@@ -58405,7 +58417,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ275">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR275">
         <v>1.86</v>
@@ -58530,7 +58542,7 @@
         <v>278</v>
       </c>
       <c r="P276" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="Q276">
         <v>2.1</v>
@@ -58736,7 +58748,7 @@
         <v>93</v>
       </c>
       <c r="P277" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="Q277">
         <v>2.75</v>
@@ -58814,10 +58826,10 @@
         <v>1.43</v>
       </c>
       <c r="AP277">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ277">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR277">
         <v>1.69</v>
@@ -58942,7 +58954,7 @@
         <v>156</v>
       </c>
       <c r="P278" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="Q278">
         <v>3.5</v>
@@ -59020,7 +59032,7 @@
         <v>1.07</v>
       </c>
       <c r="AP278">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ278">
         <v>1.22</v>
@@ -59148,7 +59160,7 @@
         <v>103</v>
       </c>
       <c r="P279" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Q279">
         <v>3.1</v>
@@ -59226,7 +59238,7 @@
         <v>0.46</v>
       </c>
       <c r="AP279">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ279">
         <v>0.5</v>
@@ -59560,7 +59572,7 @@
         <v>93</v>
       </c>
       <c r="P281" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="Q281">
         <v>4.53</v>
@@ -59641,7 +59653,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ281">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR281">
         <v>1.45</v>
@@ -60050,7 +60062,7 @@
         <v>0.62</v>
       </c>
       <c r="AP283">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ283">
         <v>0.44</v>
@@ -60256,7 +60268,7 @@
         <v>0.86</v>
       </c>
       <c r="AP284">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ284">
         <v>0.67</v>
@@ -60590,7 +60602,7 @@
         <v>283</v>
       </c>
       <c r="P286" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="Q286">
         <v>2.57</v>
@@ -60796,7 +60808,7 @@
         <v>93</v>
       </c>
       <c r="P287" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="Q287">
         <v>3.7</v>
@@ -61620,7 +61632,7 @@
         <v>286</v>
       </c>
       <c r="P291" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="Q291">
         <v>2.5</v>
@@ -61698,7 +61710,7 @@
         <v>0.5</v>
       </c>
       <c r="AP291">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ291">
         <v>0.5</v>
@@ -61907,7 +61919,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ292">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR292">
         <v>1.94</v>
@@ -62032,7 +62044,7 @@
         <v>93</v>
       </c>
       <c r="P293" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="Q293">
         <v>3.25</v>
@@ -62110,7 +62122,7 @@
         <v>0.93</v>
       </c>
       <c r="AP293">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ293">
         <v>0.9399999999999999</v>
@@ -62238,7 +62250,7 @@
         <v>288</v>
       </c>
       <c r="P294" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="Q294">
         <v>2.5</v>
@@ -62319,7 +62331,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ294">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR294">
         <v>1.99</v>
@@ -62650,7 +62662,7 @@
         <v>93</v>
       </c>
       <c r="P296" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="Q296">
         <v>2</v>
@@ -62856,7 +62868,7 @@
         <v>93</v>
       </c>
       <c r="P297" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="Q297">
         <v>3.6</v>
@@ -62934,7 +62946,7 @@
         <v>1.79</v>
       </c>
       <c r="AP297">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ297">
         <v>1.72</v>
@@ -63268,7 +63280,7 @@
         <v>291</v>
       </c>
       <c r="P299" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="Q299">
         <v>4</v>
@@ -64710,7 +64722,7 @@
         <v>93</v>
       </c>
       <c r="P306" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="Q306">
         <v>4.75</v>
@@ -64791,7 +64803,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ306">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR306">
         <v>1.42</v>
@@ -65328,7 +65340,7 @@
         <v>297</v>
       </c>
       <c r="P309" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="Q309">
         <v>3</v>
@@ -65406,10 +65418,10 @@
         <v>1.53</v>
       </c>
       <c r="AP309">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ309">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR309">
         <v>1.59</v>
@@ -65740,7 +65752,7 @@
         <v>298</v>
       </c>
       <c r="P311" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="Q311">
         <v>2.4</v>
@@ -65821,7 +65833,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ311">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR311">
         <v>1.82</v>
@@ -65946,7 +65958,7 @@
         <v>299</v>
       </c>
       <c r="P312" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="Q312">
         <v>2.88</v>
@@ -66027,7 +66039,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ312">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR312">
         <v>1.39</v>
@@ -66358,7 +66370,7 @@
         <v>301</v>
       </c>
       <c r="P314" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="Q314">
         <v>3.5</v>
@@ -66564,7 +66576,7 @@
         <v>102</v>
       </c>
       <c r="P315" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="Q315">
         <v>2.38</v>
@@ -66770,7 +66782,7 @@
         <v>302</v>
       </c>
       <c r="P316" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="Q316">
         <v>2.2</v>
@@ -66976,7 +66988,7 @@
         <v>93</v>
       </c>
       <c r="P317" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="Q317">
         <v>4</v>
@@ -67054,10 +67066,10 @@
         <v>1.87</v>
       </c>
       <c r="AP317">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ317">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR317">
         <v>1.65</v>
@@ -67260,7 +67272,7 @@
         <v>0.53</v>
       </c>
       <c r="AP318">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ318">
         <v>0.5</v>
@@ -67388,7 +67400,7 @@
         <v>303</v>
       </c>
       <c r="P319" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="Q319">
         <v>3.4</v>
@@ -67466,10 +67478,10 @@
         <v>1.2</v>
       </c>
       <c r="AP319">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ319">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR319">
         <v>1.64</v>
@@ -67672,7 +67684,7 @@
         <v>1.27</v>
       </c>
       <c r="AP320">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ320">
         <v>1.17</v>
@@ -67800,7 +67812,7 @@
         <v>304</v>
       </c>
       <c r="P321" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="Q321">
         <v>2.3</v>
@@ -68830,7 +68842,7 @@
         <v>309</v>
       </c>
       <c r="P326" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="Q326">
         <v>4.2</v>
@@ -69036,7 +69048,7 @@
         <v>310</v>
       </c>
       <c r="P327" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="Q327">
         <v>3.25</v>
@@ -69242,7 +69254,7 @@
         <v>311</v>
       </c>
       <c r="P328" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q328">
         <v>2.75</v>
@@ -69323,7 +69335,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ328">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR328">
         <v>1.74</v>
@@ -69732,7 +69744,7 @@
         <v>1.67</v>
       </c>
       <c r="AP330">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ330">
         <v>1.56</v>
@@ -69860,7 +69872,7 @@
         <v>314</v>
       </c>
       <c r="P331" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="Q331">
         <v>2</v>
@@ -69938,7 +69950,7 @@
         <v>0.88</v>
       </c>
       <c r="AP331">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ331">
         <v>0.83</v>
@@ -70353,7 +70365,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ333">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR333">
         <v>1.38</v>
@@ -70971,7 +70983,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ336">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR336">
         <v>1.67</v>
@@ -71380,10 +71392,10 @@
         <v>1.19</v>
       </c>
       <c r="AP338">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ338">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR338">
         <v>1.57</v>
@@ -71508,7 +71520,7 @@
         <v>322</v>
       </c>
       <c r="P339" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="Q339">
         <v>2.63</v>
@@ -71586,7 +71598,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP339">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ339">
         <v>0.5</v>
@@ -71792,7 +71804,7 @@
         <v>1</v>
       </c>
       <c r="AP340">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ340">
         <v>0.9399999999999999</v>
@@ -71998,10 +72010,10 @@
         <v>1.94</v>
       </c>
       <c r="AP341">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ341">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR341">
         <v>1.77</v>
@@ -72332,7 +72344,7 @@
         <v>93</v>
       </c>
       <c r="P343" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Q343">
         <v>3.75</v>
@@ -72538,7 +72550,7 @@
         <v>324</v>
       </c>
       <c r="P344" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="Q344">
         <v>2.25</v>
@@ -73774,7 +73786,7 @@
         <v>329</v>
       </c>
       <c r="P350" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="Q350">
         <v>1.73</v>
@@ -73980,7 +73992,7 @@
         <v>301</v>
       </c>
       <c r="P351" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="Q351">
         <v>2.88</v>
@@ -74186,7 +74198,7 @@
         <v>147</v>
       </c>
       <c r="P352" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="Q352">
         <v>3.35</v>
@@ -75166,6 +75178,1036 @@
         <v>0</v>
       </c>
       <c r="BP356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:68">
+      <c r="A357" s="1">
+        <v>356</v>
+      </c>
+      <c r="B357">
+        <v>7465793</v>
+      </c>
+      <c r="C357" t="s">
+        <v>68</v>
+      </c>
+      <c r="D357" t="s">
+        <v>69</v>
+      </c>
+      <c r="E357" s="2">
+        <v>45775.625</v>
+      </c>
+      <c r="F357">
+        <v>36</v>
+      </c>
+      <c r="G357" t="s">
+        <v>80</v>
+      </c>
+      <c r="H357" t="s">
+        <v>77</v>
+      </c>
+      <c r="I357">
+        <v>0</v>
+      </c>
+      <c r="J357">
+        <v>0</v>
+      </c>
+      <c r="K357">
+        <v>0</v>
+      </c>
+      <c r="L357">
+        <v>3</v>
+      </c>
+      <c r="M357">
+        <v>1</v>
+      </c>
+      <c r="N357">
+        <v>4</v>
+      </c>
+      <c r="O357" t="s">
+        <v>334</v>
+      </c>
+      <c r="P357" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q357">
+        <v>3.6</v>
+      </c>
+      <c r="R357">
+        <v>2.4</v>
+      </c>
+      <c r="S357">
+        <v>2.63</v>
+      </c>
+      <c r="T357">
+        <v>1.29</v>
+      </c>
+      <c r="U357">
+        <v>3.5</v>
+      </c>
+      <c r="V357">
+        <v>2.25</v>
+      </c>
+      <c r="W357">
+        <v>1.57</v>
+      </c>
+      <c r="X357">
+        <v>5.5</v>
+      </c>
+      <c r="Y357">
+        <v>1.14</v>
+      </c>
+      <c r="Z357">
+        <v>3.2</v>
+      </c>
+      <c r="AA357">
+        <v>3.7</v>
+      </c>
+      <c r="AB357">
+        <v>2.05</v>
+      </c>
+      <c r="AC357">
+        <v>0</v>
+      </c>
+      <c r="AD357">
+        <v>0</v>
+      </c>
+      <c r="AE357">
+        <v>0</v>
+      </c>
+      <c r="AF357">
+        <v>0</v>
+      </c>
+      <c r="AG357">
+        <v>1.57</v>
+      </c>
+      <c r="AH357">
+        <v>2.35</v>
+      </c>
+      <c r="AI357">
+        <v>1.5</v>
+      </c>
+      <c r="AJ357">
+        <v>2.5</v>
+      </c>
+      <c r="AK357">
+        <v>0</v>
+      </c>
+      <c r="AL357">
+        <v>0</v>
+      </c>
+      <c r="AM357">
+        <v>0</v>
+      </c>
+      <c r="AN357">
+        <v>1</v>
+      </c>
+      <c r="AO357">
+        <v>1.06</v>
+      </c>
+      <c r="AP357">
+        <v>1.11</v>
+      </c>
+      <c r="AQ357">
+        <v>1</v>
+      </c>
+      <c r="AR357">
+        <v>1.62</v>
+      </c>
+      <c r="AS357">
+        <v>1.78</v>
+      </c>
+      <c r="AT357">
+        <v>3.4</v>
+      </c>
+      <c r="AU357">
+        <v>7</v>
+      </c>
+      <c r="AV357">
+        <v>8</v>
+      </c>
+      <c r="AW357">
+        <v>11</v>
+      </c>
+      <c r="AX357">
+        <v>14</v>
+      </c>
+      <c r="AY357">
+        <v>19</v>
+      </c>
+      <c r="AZ357">
+        <v>26</v>
+      </c>
+      <c r="BA357">
+        <v>6</v>
+      </c>
+      <c r="BB357">
+        <v>9</v>
+      </c>
+      <c r="BC357">
+        <v>15</v>
+      </c>
+      <c r="BD357">
+        <v>0</v>
+      </c>
+      <c r="BE357">
+        <v>0</v>
+      </c>
+      <c r="BF357">
+        <v>0</v>
+      </c>
+      <c r="BG357">
+        <v>0</v>
+      </c>
+      <c r="BH357">
+        <v>0</v>
+      </c>
+      <c r="BI357">
+        <v>0</v>
+      </c>
+      <c r="BJ357">
+        <v>0</v>
+      </c>
+      <c r="BK357">
+        <v>0</v>
+      </c>
+      <c r="BL357">
+        <v>0</v>
+      </c>
+      <c r="BM357">
+        <v>0</v>
+      </c>
+      <c r="BN357">
+        <v>0</v>
+      </c>
+      <c r="BO357">
+        <v>0</v>
+      </c>
+      <c r="BP357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:68">
+      <c r="A358" s="1">
+        <v>357</v>
+      </c>
+      <c r="B358">
+        <v>7465795</v>
+      </c>
+      <c r="C358" t="s">
+        <v>68</v>
+      </c>
+      <c r="D358" t="s">
+        <v>69</v>
+      </c>
+      <c r="E358" s="2">
+        <v>45775.625</v>
+      </c>
+      <c r="F358">
+        <v>36</v>
+      </c>
+      <c r="G358" t="s">
+        <v>89</v>
+      </c>
+      <c r="H358" t="s">
+        <v>72</v>
+      </c>
+      <c r="I358">
+        <v>0</v>
+      </c>
+      <c r="J358">
+        <v>0</v>
+      </c>
+      <c r="K358">
+        <v>0</v>
+      </c>
+      <c r="L358">
+        <v>1</v>
+      </c>
+      <c r="M358">
+        <v>0</v>
+      </c>
+      <c r="N358">
+        <v>1</v>
+      </c>
+      <c r="O358" t="s">
+        <v>271</v>
+      </c>
+      <c r="P358" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q358">
+        <v>2.88</v>
+      </c>
+      <c r="R358">
+        <v>2.4</v>
+      </c>
+      <c r="S358">
+        <v>3.1</v>
+      </c>
+      <c r="T358">
+        <v>1.29</v>
+      </c>
+      <c r="U358">
+        <v>3.5</v>
+      </c>
+      <c r="V358">
+        <v>2.25</v>
+      </c>
+      <c r="W358">
+        <v>1.57</v>
+      </c>
+      <c r="X358">
+        <v>5.5</v>
+      </c>
+      <c r="Y358">
+        <v>1.14</v>
+      </c>
+      <c r="Z358">
+        <v>2.4</v>
+      </c>
+      <c r="AA358">
+        <v>3.6</v>
+      </c>
+      <c r="AB358">
+        <v>2.7</v>
+      </c>
+      <c r="AC358">
+        <v>2.14</v>
+      </c>
+      <c r="AD358">
+        <v>1.72</v>
+      </c>
+      <c r="AE358">
+        <v>0</v>
+      </c>
+      <c r="AF358">
+        <v>0</v>
+      </c>
+      <c r="AG358">
+        <v>1.53</v>
+      </c>
+      <c r="AH358">
+        <v>2.4</v>
+      </c>
+      <c r="AI358">
+        <v>1.44</v>
+      </c>
+      <c r="AJ358">
+        <v>2.63</v>
+      </c>
+      <c r="AK358">
+        <v>0</v>
+      </c>
+      <c r="AL358">
+        <v>0</v>
+      </c>
+      <c r="AM358">
+        <v>0</v>
+      </c>
+      <c r="AN358">
+        <v>1.18</v>
+      </c>
+      <c r="AO358">
+        <v>1.12</v>
+      </c>
+      <c r="AP358">
+        <v>1.28</v>
+      </c>
+      <c r="AQ358">
+        <v>1.06</v>
+      </c>
+      <c r="AR358">
+        <v>1.67</v>
+      </c>
+      <c r="AS358">
+        <v>1.41</v>
+      </c>
+      <c r="AT358">
+        <v>3.08</v>
+      </c>
+      <c r="AU358">
+        <v>5</v>
+      </c>
+      <c r="AV358">
+        <v>3</v>
+      </c>
+      <c r="AW358">
+        <v>7</v>
+      </c>
+      <c r="AX358">
+        <v>5</v>
+      </c>
+      <c r="AY358">
+        <v>12</v>
+      </c>
+      <c r="AZ358">
+        <v>8</v>
+      </c>
+      <c r="BA358">
+        <v>5</v>
+      </c>
+      <c r="BB358">
+        <v>3</v>
+      </c>
+      <c r="BC358">
+        <v>8</v>
+      </c>
+      <c r="BD358">
+        <v>0</v>
+      </c>
+      <c r="BE358">
+        <v>0</v>
+      </c>
+      <c r="BF358">
+        <v>0</v>
+      </c>
+      <c r="BG358">
+        <v>0</v>
+      </c>
+      <c r="BH358">
+        <v>0</v>
+      </c>
+      <c r="BI358">
+        <v>0</v>
+      </c>
+      <c r="BJ358">
+        <v>0</v>
+      </c>
+      <c r="BK358">
+        <v>0</v>
+      </c>
+      <c r="BL358">
+        <v>0</v>
+      </c>
+      <c r="BM358">
+        <v>0</v>
+      </c>
+      <c r="BN358">
+        <v>0</v>
+      </c>
+      <c r="BO358">
+        <v>0</v>
+      </c>
+      <c r="BP358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:68">
+      <c r="A359" s="1">
+        <v>358</v>
+      </c>
+      <c r="B359">
+        <v>7465796</v>
+      </c>
+      <c r="C359" t="s">
+        <v>68</v>
+      </c>
+      <c r="D359" t="s">
+        <v>69</v>
+      </c>
+      <c r="E359" s="2">
+        <v>45775.625</v>
+      </c>
+      <c r="F359">
+        <v>36</v>
+      </c>
+      <c r="G359" t="s">
+        <v>78</v>
+      </c>
+      <c r="H359" t="s">
+        <v>85</v>
+      </c>
+      <c r="I359">
+        <v>0</v>
+      </c>
+      <c r="J359">
+        <v>0</v>
+      </c>
+      <c r="K359">
+        <v>0</v>
+      </c>
+      <c r="L359">
+        <v>0</v>
+      </c>
+      <c r="M359">
+        <v>0</v>
+      </c>
+      <c r="N359">
+        <v>0</v>
+      </c>
+      <c r="O359" t="s">
+        <v>93</v>
+      </c>
+      <c r="P359" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q359">
+        <v>2.88</v>
+      </c>
+      <c r="R359">
+        <v>2.4</v>
+      </c>
+      <c r="S359">
+        <v>3.2</v>
+      </c>
+      <c r="T359">
+        <v>1.25</v>
+      </c>
+      <c r="U359">
+        <v>3.75</v>
+      </c>
+      <c r="V359">
+        <v>2.2</v>
+      </c>
+      <c r="W359">
+        <v>1.62</v>
+      </c>
+      <c r="X359">
+        <v>5</v>
+      </c>
+      <c r="Y359">
+        <v>1.17</v>
+      </c>
+      <c r="Z359">
+        <v>2.35</v>
+      </c>
+      <c r="AA359">
+        <v>3.5</v>
+      </c>
+      <c r="AB359">
+        <v>2.88</v>
+      </c>
+      <c r="AC359">
+        <v>3.15</v>
+      </c>
+      <c r="AD359">
+        <v>1.36</v>
+      </c>
+      <c r="AE359">
+        <v>0</v>
+      </c>
+      <c r="AF359">
+        <v>0</v>
+      </c>
+      <c r="AG359">
+        <v>1.5</v>
+      </c>
+      <c r="AH359">
+        <v>2.5</v>
+      </c>
+      <c r="AI359">
+        <v>1.44</v>
+      </c>
+      <c r="AJ359">
+        <v>2.63</v>
+      </c>
+      <c r="AK359">
+        <v>0</v>
+      </c>
+      <c r="AL359">
+        <v>0</v>
+      </c>
+      <c r="AM359">
+        <v>0</v>
+      </c>
+      <c r="AN359">
+        <v>1.18</v>
+      </c>
+      <c r="AO359">
+        <v>1.24</v>
+      </c>
+      <c r="AP359">
+        <v>1.17</v>
+      </c>
+      <c r="AQ359">
+        <v>1.22</v>
+      </c>
+      <c r="AR359">
+        <v>1.78</v>
+      </c>
+      <c r="AS359">
+        <v>1.24</v>
+      </c>
+      <c r="AT359">
+        <v>3.02</v>
+      </c>
+      <c r="AU359">
+        <v>4</v>
+      </c>
+      <c r="AV359">
+        <v>3</v>
+      </c>
+      <c r="AW359">
+        <v>6</v>
+      </c>
+      <c r="AX359">
+        <v>10</v>
+      </c>
+      <c r="AY359">
+        <v>10</v>
+      </c>
+      <c r="AZ359">
+        <v>13</v>
+      </c>
+      <c r="BA359">
+        <v>6</v>
+      </c>
+      <c r="BB359">
+        <v>4</v>
+      </c>
+      <c r="BC359">
+        <v>10</v>
+      </c>
+      <c r="BD359">
+        <v>0</v>
+      </c>
+      <c r="BE359">
+        <v>0</v>
+      </c>
+      <c r="BF359">
+        <v>0</v>
+      </c>
+      <c r="BG359">
+        <v>0</v>
+      </c>
+      <c r="BH359">
+        <v>0</v>
+      </c>
+      <c r="BI359">
+        <v>0</v>
+      </c>
+      <c r="BJ359">
+        <v>0</v>
+      </c>
+      <c r="BK359">
+        <v>0</v>
+      </c>
+      <c r="BL359">
+        <v>0</v>
+      </c>
+      <c r="BM359">
+        <v>0</v>
+      </c>
+      <c r="BN359">
+        <v>0</v>
+      </c>
+      <c r="BO359">
+        <v>0</v>
+      </c>
+      <c r="BP359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:68">
+      <c r="A360" s="1">
+        <v>359</v>
+      </c>
+      <c r="B360">
+        <v>7465798</v>
+      </c>
+      <c r="C360" t="s">
+        <v>68</v>
+      </c>
+      <c r="D360" t="s">
+        <v>69</v>
+      </c>
+      <c r="E360" s="2">
+        <v>45775.625</v>
+      </c>
+      <c r="F360">
+        <v>36</v>
+      </c>
+      <c r="G360" t="s">
+        <v>84</v>
+      </c>
+      <c r="H360" t="s">
+        <v>88</v>
+      </c>
+      <c r="I360">
+        <v>2</v>
+      </c>
+      <c r="J360">
+        <v>1</v>
+      </c>
+      <c r="K360">
+        <v>3</v>
+      </c>
+      <c r="L360">
+        <v>2</v>
+      </c>
+      <c r="M360">
+        <v>3</v>
+      </c>
+      <c r="N360">
+        <v>5</v>
+      </c>
+      <c r="O360" t="s">
+        <v>335</v>
+      </c>
+      <c r="P360" t="s">
+        <v>486</v>
+      </c>
+      <c r="Q360">
+        <v>5</v>
+      </c>
+      <c r="R360">
+        <v>2.6</v>
+      </c>
+      <c r="S360">
+        <v>2.05</v>
+      </c>
+      <c r="T360">
+        <v>1.25</v>
+      </c>
+      <c r="U360">
+        <v>3.75</v>
+      </c>
+      <c r="V360">
+        <v>2.1</v>
+      </c>
+      <c r="W360">
+        <v>1.67</v>
+      </c>
+      <c r="X360">
+        <v>5</v>
+      </c>
+      <c r="Y360">
+        <v>1.17</v>
+      </c>
+      <c r="Z360">
+        <v>5.25</v>
+      </c>
+      <c r="AA360">
+        <v>4.5</v>
+      </c>
+      <c r="AB360">
+        <v>1.53</v>
+      </c>
+      <c r="AC360">
+        <v>0</v>
+      </c>
+      <c r="AD360">
+        <v>0</v>
+      </c>
+      <c r="AE360">
+        <v>0</v>
+      </c>
+      <c r="AF360">
+        <v>0</v>
+      </c>
+      <c r="AG360">
+        <v>1.44</v>
+      </c>
+      <c r="AH360">
+        <v>2.7</v>
+      </c>
+      <c r="AI360">
+        <v>1.53</v>
+      </c>
+      <c r="AJ360">
+        <v>2.38</v>
+      </c>
+      <c r="AK360">
+        <v>0</v>
+      </c>
+      <c r="AL360">
+        <v>0</v>
+      </c>
+      <c r="AM360">
+        <v>0</v>
+      </c>
+      <c r="AN360">
+        <v>0.71</v>
+      </c>
+      <c r="AO360">
+        <v>2</v>
+      </c>
+      <c r="AP360">
+        <v>0.67</v>
+      </c>
+      <c r="AQ360">
+        <v>2.06</v>
+      </c>
+      <c r="AR360">
+        <v>1.46</v>
+      </c>
+      <c r="AS360">
+        <v>1.51</v>
+      </c>
+      <c r="AT360">
+        <v>2.97</v>
+      </c>
+      <c r="AU360">
+        <v>5</v>
+      </c>
+      <c r="AV360">
+        <v>9</v>
+      </c>
+      <c r="AW360">
+        <v>8</v>
+      </c>
+      <c r="AX360">
+        <v>16</v>
+      </c>
+      <c r="AY360">
+        <v>13</v>
+      </c>
+      <c r="AZ360">
+        <v>25</v>
+      </c>
+      <c r="BA360">
+        <v>3</v>
+      </c>
+      <c r="BB360">
+        <v>12</v>
+      </c>
+      <c r="BC360">
+        <v>15</v>
+      </c>
+      <c r="BD360">
+        <v>0</v>
+      </c>
+      <c r="BE360">
+        <v>0</v>
+      </c>
+      <c r="BF360">
+        <v>0</v>
+      </c>
+      <c r="BG360">
+        <v>0</v>
+      </c>
+      <c r="BH360">
+        <v>0</v>
+      </c>
+      <c r="BI360">
+        <v>0</v>
+      </c>
+      <c r="BJ360">
+        <v>0</v>
+      </c>
+      <c r="BK360">
+        <v>0</v>
+      </c>
+      <c r="BL360">
+        <v>0</v>
+      </c>
+      <c r="BM360">
+        <v>0</v>
+      </c>
+      <c r="BN360">
+        <v>0</v>
+      </c>
+      <c r="BO360">
+        <v>0</v>
+      </c>
+      <c r="BP360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:68">
+      <c r="A361" s="1">
+        <v>360</v>
+      </c>
+      <c r="B361">
+        <v>7465799</v>
+      </c>
+      <c r="C361" t="s">
+        <v>68</v>
+      </c>
+      <c r="D361" t="s">
+        <v>69</v>
+      </c>
+      <c r="E361" s="2">
+        <v>45775.625</v>
+      </c>
+      <c r="F361">
+        <v>36</v>
+      </c>
+      <c r="G361" t="s">
+        <v>79</v>
+      </c>
+      <c r="H361" t="s">
+        <v>70</v>
+      </c>
+      <c r="I361">
+        <v>0</v>
+      </c>
+      <c r="J361">
+        <v>1</v>
+      </c>
+      <c r="K361">
+        <v>1</v>
+      </c>
+      <c r="L361">
+        <v>0</v>
+      </c>
+      <c r="M361">
+        <v>2</v>
+      </c>
+      <c r="N361">
+        <v>2</v>
+      </c>
+      <c r="O361" t="s">
+        <v>93</v>
+      </c>
+      <c r="P361" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q361">
+        <v>2.88</v>
+      </c>
+      <c r="R361">
+        <v>2.5</v>
+      </c>
+      <c r="S361">
+        <v>3</v>
+      </c>
+      <c r="T361">
+        <v>1.22</v>
+      </c>
+      <c r="U361">
+        <v>4</v>
+      </c>
+      <c r="V361">
+        <v>2.1</v>
+      </c>
+      <c r="W361">
+        <v>1.67</v>
+      </c>
+      <c r="X361">
+        <v>4.5</v>
+      </c>
+      <c r="Y361">
+        <v>1.18</v>
+      </c>
+      <c r="Z361">
+        <v>2.45</v>
+      </c>
+      <c r="AA361">
+        <v>3.5</v>
+      </c>
+      <c r="AB361">
+        <v>2.7</v>
+      </c>
+      <c r="AC361">
+        <v>0</v>
+      </c>
+      <c r="AD361">
+        <v>0</v>
+      </c>
+      <c r="AE361">
+        <v>0</v>
+      </c>
+      <c r="AF361">
+        <v>0</v>
+      </c>
+      <c r="AG361">
+        <v>1.4</v>
+      </c>
+      <c r="AH361">
+        <v>2.88</v>
+      </c>
+      <c r="AI361">
+        <v>1.36</v>
+      </c>
+      <c r="AJ361">
+        <v>3</v>
+      </c>
+      <c r="AK361">
+        <v>0</v>
+      </c>
+      <c r="AL361">
+        <v>0</v>
+      </c>
+      <c r="AM361">
+        <v>0</v>
+      </c>
+      <c r="AN361">
+        <v>0.71</v>
+      </c>
+      <c r="AO361">
+        <v>1.47</v>
+      </c>
+      <c r="AP361">
+        <v>0.67</v>
+      </c>
+      <c r="AQ361">
+        <v>1.56</v>
+      </c>
+      <c r="AR361">
+        <v>1.71</v>
+      </c>
+      <c r="AS361">
+        <v>1.27</v>
+      </c>
+      <c r="AT361">
+        <v>2.98</v>
+      </c>
+      <c r="AU361">
+        <v>3</v>
+      </c>
+      <c r="AV361">
+        <v>6</v>
+      </c>
+      <c r="AW361">
+        <v>18</v>
+      </c>
+      <c r="AX361">
+        <v>2</v>
+      </c>
+      <c r="AY361">
+        <v>21</v>
+      </c>
+      <c r="AZ361">
+        <v>8</v>
+      </c>
+      <c r="BA361">
+        <v>6</v>
+      </c>
+      <c r="BB361">
+        <v>1</v>
+      </c>
+      <c r="BC361">
+        <v>7</v>
+      </c>
+      <c r="BD361">
+        <v>0</v>
+      </c>
+      <c r="BE361">
+        <v>0</v>
+      </c>
+      <c r="BF361">
+        <v>0</v>
+      </c>
+      <c r="BG361">
+        <v>0</v>
+      </c>
+      <c r="BH361">
+        <v>0</v>
+      </c>
+      <c r="BI361">
+        <v>0</v>
+      </c>
+      <c r="BJ361">
+        <v>0</v>
+      </c>
+      <c r="BK361">
+        <v>0</v>
+      </c>
+      <c r="BL361">
+        <v>0</v>
+      </c>
+      <c r="BM361">
+        <v>0</v>
+      </c>
+      <c r="BN361">
+        <v>0</v>
+      </c>
+      <c r="BO361">
+        <v>0</v>
+      </c>
+      <c r="BP361">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Netherlands Eerste Divisie_20242025.xlsx
@@ -75339,13 +75339,13 @@
         <v>26</v>
       </c>
       <c r="BA357">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB357">
         <v>9</v>
       </c>
       <c r="BC357">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD357">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Netherlands Eerste Divisie_20242025.xlsx
@@ -1024,7 +1024,7 @@
     <t>['36', '42']</t>
   </si>
   <si>
-    <t>['27', '63']</t>
+    <t>['27', '60']</t>
   </si>
   <si>
     <t>['34', '57']</t>
@@ -76817,10 +76817,10 @@
         <v>9</v>
       </c>
       <c r="BB364">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC364">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD364">
         <v>0</v>
